--- a/z/data/model/QC_Chart _pH_66_01_2018_006.xlsx
+++ b/z/data/model/QC_Chart _pH_66_01_2018_006.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6118CCBC-7EB2-4EE3-A573-E7FF1A29F3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2FF1F9-67EB-43DC-8D87-BBB1851D6E78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -236,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -343,21 +341,90 @@
   <si>
     <t>QC</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>补充说明</t>
+  </si>
+  <si>
+    <t>1.B列与结果中的单号名称要一致,包括大小写</t>
+  </si>
+  <si>
+    <t>如：Paint,0.1,25和M BS</t>
+  </si>
+  <si>
+    <t>2.C列为该单号的元素测试</t>
+  </si>
+  <si>
+    <t>如：M BS中的Pb元素的数值</t>
+  </si>
+  <si>
+    <t>3.B列中Date填的是日期</t>
+  </si>
+  <si>
+    <t>注意：由于CC每天可以测试多个，而质控每天只要一个，镍释放并不是每天都有，所以这些日期是不一样的</t>
+  </si>
+  <si>
+    <t>4.C列与B列Date通行的与B列其中一个单号一致</t>
+  </si>
+  <si>
+    <t>由于上述原因，当C列Date行为M BS时，填写的是M BS的日期；如果C列Date行为CC,那填写的是CC的日期</t>
+  </si>
+  <si>
+    <t>5.所有有质量或者稀释的测试都用逗号隔开</t>
+  </si>
+  <si>
+    <t>如：Paint,0.1,25或者Plastic，0.1，结果会根据有无稀释，而有不同的算法，溶度*定容体积*稀释倍数/质量</t>
+  </si>
+  <si>
+    <t>添加质控说明和例子</t>
+  </si>
+  <si>
+    <t>1.判断添加项目的类型</t>
+  </si>
+  <si>
+    <t>每天多次，每天一次，某天一次</t>
+  </si>
+  <si>
+    <t>2.每天多次</t>
+  </si>
+  <si>
+    <t>如:添加CC中的Cr，直接在CC区域中添加一行，数值在Excel引用即可</t>
+  </si>
+  <si>
+    <t>3.每天一次</t>
+  </si>
+  <si>
+    <t>如:添加BLK中的Pb元素，直接在每天一次区域添加一行，这时由于BLK与M BS类型一致，Date行业可以改为BLK</t>
+  </si>
+  <si>
+    <t>4.某天一次</t>
+  </si>
+  <si>
+    <t>如:ECO中Pb，由于与镍释放不一定一样，B列需要添加两行Date和ECO，C列添加ECO和Pb，同样引用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +457,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -465,7 +532,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -526,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -790,6 +857,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -803,7 +892,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,13 +910,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,13 +960,23 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -912,6 +1011,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1148,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6666666666666665</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,10 +1190,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10.5951296996921</c:v>
+                  <c:v>9.1964988213219101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5951296996921</c:v>
+                  <c:v>9.1964988213219101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,10 +1234,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.95230868868362206</c:v>
+                  <c:v>0.53566745245206038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.95230868868362206</c:v>
+                  <c:v>0.53566745245206038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,10 +1278,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.2856420220169547</c:v>
+                  <c:v>7.4643325475479401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2856420220169547</c:v>
+                  <c:v>7.4643325475479401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,10 +1320,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-3.2617963663587664</c:v>
+                  <c:v>-1.1964988213219092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.2617963663587664</c:v>
+                  <c:v>-1.1964988213219092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +3094,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$C$6</c:f>
+              <c:f>Data!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3011,7 +3119,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$D$6,Data!$D$6)</c:f>
+              <c:f>(Data!$D$22,Data!$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3036,7 +3144,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$C$7</c:f>
+              <c:f>Data!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3058,7 +3166,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$D$7,Data!$D$7)</c:f>
+              <c:f>(Data!$D$23,Data!$D$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3696,22 +3804,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BDQ7"/>
+  <dimension ref="A1:BDQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:D2"/>
+      <selection pane="topRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="35"/>
-    <col min="2" max="2" width="10.46484375" customWidth="1"/>
-    <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="35"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="125" max="125" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1473" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1473" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
@@ -3721,11 +3831,11 @@
       <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>8</v>
+      <c r="D1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -5196,1626 +5306,3034 @@
       <c r="BDP1" s="26"/>
       <c r="BDQ1" s="26"/>
     </row>
-    <row r="2" spans="1:1473" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34">
+    <row r="2" spans="1:1473" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="26"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="26"/>
+      <c r="BZ2" s="26"/>
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="26"/>
+      <c r="CG2" s="26"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="26"/>
+      <c r="CM2" s="26"/>
+      <c r="CN2" s="26"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="26"/>
+      <c r="CU2" s="26"/>
+      <c r="CV2" s="26"/>
+      <c r="CW2" s="26"/>
+      <c r="CX2" s="26"/>
+      <c r="CY2" s="26"/>
+      <c r="CZ2" s="26"/>
+      <c r="DA2" s="26"/>
+      <c r="DB2" s="26"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="26"/>
+      <c r="DE2" s="26"/>
+      <c r="DF2" s="26"/>
+      <c r="DG2" s="26"/>
+      <c r="DH2" s="26"/>
+      <c r="DI2" s="26"/>
+      <c r="DJ2" s="26"/>
+      <c r="DK2" s="26"/>
+      <c r="DL2" s="26"/>
+      <c r="DM2" s="26"/>
+      <c r="DN2" s="26"/>
+      <c r="DO2" s="26"/>
+      <c r="DP2" s="26"/>
+      <c r="DQ2" s="26"/>
+      <c r="DR2" s="26"/>
+      <c r="DS2" s="26"/>
+      <c r="DT2" s="26"/>
+      <c r="DU2" s="26"/>
+      <c r="DV2" s="26"/>
+      <c r="DW2" s="26"/>
+      <c r="DX2" s="26"/>
+      <c r="DY2" s="26"/>
+      <c r="DZ2" s="26"/>
+      <c r="EA2" s="26"/>
+      <c r="EB2" s="26"/>
+      <c r="EC2" s="26"/>
+      <c r="ED2" s="26"/>
+      <c r="EE2" s="26"/>
+      <c r="EF2" s="26"/>
+      <c r="EG2" s="26"/>
+      <c r="EH2" s="26"/>
+      <c r="EI2" s="26"/>
+      <c r="EJ2" s="26"/>
+      <c r="EK2" s="26"/>
+      <c r="EL2" s="26"/>
+      <c r="EM2" s="26"/>
+      <c r="EN2" s="26"/>
+      <c r="EO2" s="26"/>
+      <c r="EP2" s="26"/>
+      <c r="EQ2" s="26"/>
+      <c r="ER2" s="26"/>
+      <c r="ES2" s="26"/>
+      <c r="ET2" s="26"/>
+      <c r="EU2" s="26"/>
+      <c r="EV2" s="26"/>
+      <c r="EW2" s="26"/>
+      <c r="EX2" s="26"/>
+      <c r="EY2" s="26"/>
+      <c r="EZ2" s="26"/>
+      <c r="FA2" s="26"/>
+      <c r="FB2" s="26"/>
+      <c r="FC2" s="26"/>
+      <c r="FD2" s="26"/>
+      <c r="FE2" s="26"/>
+      <c r="FF2" s="26"/>
+      <c r="FG2" s="26"/>
+      <c r="FH2" s="26"/>
+      <c r="FI2" s="26"/>
+      <c r="FJ2" s="26"/>
+      <c r="FK2" s="26"/>
+      <c r="FL2" s="26"/>
+      <c r="FM2" s="26"/>
+      <c r="FN2" s="26"/>
+      <c r="FO2" s="26"/>
+      <c r="FP2" s="26"/>
+      <c r="FQ2" s="26"/>
+      <c r="FR2" s="26"/>
+      <c r="FS2" s="26"/>
+      <c r="FT2" s="26"/>
+      <c r="FU2" s="26"/>
+      <c r="FV2" s="26"/>
+      <c r="FW2" s="26"/>
+      <c r="FX2" s="26"/>
+      <c r="FY2" s="26"/>
+      <c r="FZ2" s="26"/>
+      <c r="GA2" s="26"/>
+      <c r="GB2" s="26"/>
+      <c r="GC2" s="26"/>
+      <c r="GD2" s="26"/>
+      <c r="GE2" s="26"/>
+      <c r="GF2" s="26"/>
+      <c r="GG2" s="26"/>
+      <c r="GH2" s="26"/>
+      <c r="GI2" s="26"/>
+      <c r="GJ2" s="26"/>
+      <c r="GK2" s="26"/>
+      <c r="GL2" s="26"/>
+      <c r="GM2" s="26"/>
+      <c r="GN2" s="26"/>
+      <c r="GO2" s="26"/>
+      <c r="GP2" s="26"/>
+      <c r="GQ2" s="26"/>
+      <c r="GR2" s="26"/>
+      <c r="GS2" s="26"/>
+      <c r="GT2" s="26"/>
+      <c r="GU2" s="26"/>
+      <c r="GV2" s="26"/>
+      <c r="GW2" s="26"/>
+      <c r="GX2" s="26"/>
+      <c r="GY2" s="26"/>
+      <c r="GZ2" s="26"/>
+      <c r="HA2" s="26"/>
+      <c r="HB2" s="26"/>
+      <c r="HC2" s="26"/>
+      <c r="HD2" s="26"/>
+      <c r="HE2" s="26"/>
+      <c r="HF2" s="26"/>
+      <c r="HG2" s="26"/>
+      <c r="HH2" s="26"/>
+      <c r="HI2" s="26"/>
+      <c r="HJ2" s="26"/>
+      <c r="HK2" s="26"/>
+      <c r="HL2" s="26"/>
+      <c r="HM2" s="26"/>
+      <c r="HN2" s="26"/>
+      <c r="HO2" s="26"/>
+      <c r="HP2" s="26"/>
+      <c r="HQ2" s="26"/>
+      <c r="HR2" s="26"/>
+      <c r="HS2" s="26"/>
+      <c r="HT2" s="26"/>
+      <c r="HU2" s="26"/>
+      <c r="HV2" s="26"/>
+      <c r="HW2" s="26"/>
+      <c r="HX2" s="26"/>
+      <c r="HY2" s="26"/>
+      <c r="HZ2" s="26"/>
+      <c r="IA2" s="26"/>
+      <c r="IB2" s="26"/>
+      <c r="IC2" s="26"/>
+      <c r="ID2" s="26"/>
+      <c r="IE2" s="26"/>
+      <c r="IF2" s="26"/>
+      <c r="IG2" s="26"/>
+      <c r="IH2" s="26"/>
+      <c r="II2" s="26"/>
+      <c r="IJ2" s="26"/>
+      <c r="IK2" s="26"/>
+      <c r="IL2" s="26"/>
+      <c r="IM2" s="26"/>
+      <c r="IN2" s="26"/>
+      <c r="IO2" s="26"/>
+      <c r="IP2" s="26"/>
+      <c r="IQ2" s="26"/>
+      <c r="IR2" s="26"/>
+      <c r="IS2" s="26"/>
+      <c r="IT2" s="26"/>
+      <c r="IU2" s="26"/>
+      <c r="IV2" s="26"/>
+      <c r="IW2" s="26"/>
+      <c r="IX2" s="26"/>
+      <c r="IY2" s="26"/>
+      <c r="IZ2" s="26"/>
+      <c r="JA2" s="26"/>
+      <c r="JB2" s="26"/>
+      <c r="JC2" s="26"/>
+      <c r="JD2" s="26"/>
+      <c r="JE2" s="26"/>
+      <c r="JF2" s="26"/>
+      <c r="JG2" s="26"/>
+      <c r="JH2" s="26"/>
+      <c r="JI2" s="26"/>
+      <c r="JJ2" s="26"/>
+      <c r="JK2" s="26"/>
+      <c r="JL2" s="26"/>
+      <c r="JM2" s="26"/>
+      <c r="JN2" s="26"/>
+      <c r="JO2" s="26"/>
+      <c r="JP2" s="26"/>
+      <c r="JQ2" s="26"/>
+      <c r="JR2" s="26"/>
+      <c r="JS2" s="26"/>
+      <c r="JT2" s="26"/>
+      <c r="JU2" s="26"/>
+      <c r="JV2" s="26"/>
+      <c r="JW2" s="26"/>
+      <c r="JX2" s="26"/>
+      <c r="JY2" s="26"/>
+      <c r="JZ2" s="26"/>
+      <c r="KA2" s="26"/>
+      <c r="KB2" s="26"/>
+      <c r="KC2" s="26"/>
+      <c r="KD2" s="26"/>
+      <c r="KE2" s="26"/>
+      <c r="KF2" s="26"/>
+      <c r="KG2" s="26"/>
+      <c r="KH2" s="26"/>
+      <c r="KI2" s="26"/>
+      <c r="KJ2" s="26"/>
+      <c r="KK2" s="26"/>
+      <c r="KL2" s="26"/>
+      <c r="KM2" s="26"/>
+      <c r="KN2" s="26"/>
+      <c r="KO2" s="26"/>
+      <c r="KP2" s="26"/>
+      <c r="KQ2" s="26"/>
+      <c r="KR2" s="26"/>
+      <c r="KS2" s="26"/>
+      <c r="KT2" s="26"/>
+      <c r="KU2" s="26"/>
+      <c r="KV2" s="26"/>
+      <c r="KW2" s="26"/>
+      <c r="KX2" s="26"/>
+      <c r="KY2" s="26"/>
+      <c r="KZ2" s="26"/>
+      <c r="LA2" s="26"/>
+      <c r="LB2" s="26"/>
+      <c r="LC2" s="26"/>
+      <c r="LD2" s="26"/>
+      <c r="LE2" s="26"/>
+      <c r="LF2" s="26"/>
+      <c r="LG2" s="26"/>
+      <c r="LH2" s="26"/>
+      <c r="LI2" s="26"/>
+      <c r="LJ2" s="26"/>
+      <c r="LK2" s="26"/>
+      <c r="LL2" s="26"/>
+      <c r="LM2" s="26"/>
+      <c r="LN2" s="26"/>
+      <c r="LO2" s="26"/>
+      <c r="LP2" s="26"/>
+      <c r="LQ2" s="26"/>
+      <c r="LR2" s="26"/>
+      <c r="LS2" s="26"/>
+      <c r="LT2" s="26"/>
+      <c r="LU2" s="26"/>
+      <c r="LV2" s="26"/>
+      <c r="LW2" s="26"/>
+      <c r="LX2" s="26"/>
+      <c r="LY2" s="26"/>
+      <c r="LZ2" s="26"/>
+      <c r="MA2" s="26"/>
+      <c r="MB2" s="26"/>
+      <c r="MC2" s="26"/>
+      <c r="MD2" s="26"/>
+      <c r="ME2" s="26"/>
+      <c r="MF2" s="26"/>
+      <c r="MG2" s="26"/>
+      <c r="MH2" s="26"/>
+      <c r="MI2" s="26"/>
+      <c r="MJ2" s="26"/>
+      <c r="MK2" s="26"/>
+      <c r="ML2" s="26"/>
+      <c r="MM2" s="26"/>
+      <c r="MN2" s="26"/>
+      <c r="MO2" s="26"/>
+      <c r="MP2" s="26"/>
+      <c r="MQ2" s="26"/>
+      <c r="MR2" s="26"/>
+      <c r="MS2" s="26"/>
+      <c r="MT2" s="26"/>
+      <c r="MU2" s="26"/>
+      <c r="MV2" s="26"/>
+      <c r="MW2" s="26"/>
+      <c r="MX2" s="26"/>
+      <c r="MY2" s="26"/>
+      <c r="MZ2" s="26"/>
+      <c r="NA2" s="26"/>
+      <c r="NB2" s="26"/>
+      <c r="NC2" s="26"/>
+      <c r="ND2" s="26"/>
+      <c r="NE2" s="26"/>
+      <c r="NF2" s="26"/>
+      <c r="NG2" s="26"/>
+      <c r="NH2" s="26"/>
+      <c r="NI2" s="26"/>
+      <c r="NJ2" s="26"/>
+      <c r="NK2" s="26"/>
+      <c r="NL2" s="26"/>
+      <c r="NM2" s="26"/>
+      <c r="NN2" s="26"/>
+      <c r="NO2" s="26"/>
+      <c r="NP2" s="26"/>
+      <c r="NQ2" s="26"/>
+      <c r="NR2" s="26"/>
+      <c r="NS2" s="26"/>
+      <c r="NT2" s="26"/>
+      <c r="NU2" s="26"/>
+      <c r="NV2" s="26"/>
+      <c r="NW2" s="26"/>
+      <c r="NX2" s="26"/>
+      <c r="NY2" s="26"/>
+      <c r="NZ2" s="26"/>
+      <c r="OA2" s="26"/>
+      <c r="OB2" s="26"/>
+      <c r="OC2" s="26"/>
+      <c r="OD2" s="26"/>
+      <c r="OE2" s="26"/>
+      <c r="OF2" s="26"/>
+      <c r="OG2" s="26"/>
+      <c r="OH2" s="26"/>
+      <c r="OI2" s="26"/>
+      <c r="OJ2" s="26"/>
+      <c r="OK2" s="26"/>
+      <c r="OL2" s="26"/>
+      <c r="OM2" s="26"/>
+      <c r="ON2" s="26"/>
+      <c r="OO2" s="26"/>
+      <c r="OP2" s="26"/>
+      <c r="OQ2" s="26"/>
+      <c r="OR2" s="26"/>
+      <c r="OS2" s="26"/>
+      <c r="OT2" s="26"/>
+      <c r="OU2" s="26"/>
+      <c r="OV2" s="26"/>
+      <c r="OW2" s="26"/>
+      <c r="OX2" s="26"/>
+      <c r="OY2" s="26"/>
+      <c r="OZ2" s="26"/>
+      <c r="PA2" s="26"/>
+      <c r="PB2" s="26"/>
+      <c r="PC2" s="26"/>
+      <c r="PD2" s="26"/>
+      <c r="PE2" s="26"/>
+      <c r="PF2" s="26"/>
+      <c r="PG2" s="26"/>
+      <c r="PH2" s="26"/>
+      <c r="PI2" s="26"/>
+      <c r="PJ2" s="26"/>
+      <c r="PK2" s="26"/>
+      <c r="PL2" s="26"/>
+      <c r="PM2" s="26"/>
+      <c r="PN2" s="26"/>
+      <c r="PO2" s="26"/>
+      <c r="PP2" s="26"/>
+      <c r="PQ2" s="26"/>
+      <c r="PR2" s="26"/>
+      <c r="PS2" s="26"/>
+      <c r="PT2" s="26"/>
+      <c r="PU2" s="26"/>
+      <c r="PV2" s="26"/>
+      <c r="PW2" s="26"/>
+      <c r="PX2" s="26"/>
+      <c r="PY2" s="26"/>
+      <c r="PZ2" s="26"/>
+      <c r="QA2" s="26"/>
+      <c r="QB2" s="26"/>
+      <c r="QC2" s="26"/>
+      <c r="QD2" s="26"/>
+      <c r="QE2" s="26"/>
+      <c r="QF2" s="26"/>
+      <c r="QG2" s="26"/>
+      <c r="QH2" s="26"/>
+      <c r="QI2" s="26"/>
+      <c r="QJ2" s="26"/>
+      <c r="QK2" s="26"/>
+      <c r="QL2" s="26"/>
+      <c r="QM2" s="26"/>
+      <c r="QN2" s="26"/>
+      <c r="QO2" s="26"/>
+      <c r="QP2" s="26"/>
+      <c r="QQ2" s="26"/>
+      <c r="QR2" s="26"/>
+      <c r="QS2" s="26"/>
+      <c r="QT2" s="26"/>
+      <c r="QU2" s="26"/>
+      <c r="QV2" s="26"/>
+      <c r="QW2" s="26"/>
+      <c r="QX2" s="26"/>
+      <c r="QY2" s="26"/>
+      <c r="QZ2" s="26"/>
+      <c r="RA2" s="26"/>
+      <c r="RB2" s="26"/>
+      <c r="RC2" s="26"/>
+      <c r="RD2" s="26"/>
+      <c r="RE2" s="26"/>
+      <c r="RF2" s="26"/>
+      <c r="RG2" s="26"/>
+      <c r="RH2" s="26"/>
+      <c r="RI2" s="26"/>
+      <c r="RJ2" s="26"/>
+      <c r="RK2" s="26"/>
+      <c r="RL2" s="26"/>
+      <c r="RM2" s="26"/>
+      <c r="RN2" s="26"/>
+      <c r="RO2" s="26"/>
+      <c r="RP2" s="26"/>
+      <c r="RQ2" s="26"/>
+      <c r="RR2" s="26"/>
+      <c r="RS2" s="26"/>
+      <c r="RT2" s="26"/>
+      <c r="RU2" s="26"/>
+      <c r="RV2" s="26"/>
+      <c r="RW2" s="26"/>
+      <c r="RX2" s="26"/>
+      <c r="RY2" s="26"/>
+      <c r="RZ2" s="26"/>
+      <c r="SA2" s="26"/>
+      <c r="SB2" s="26"/>
+      <c r="SC2" s="26"/>
+      <c r="SD2" s="26"/>
+      <c r="SE2" s="26"/>
+      <c r="SF2" s="26"/>
+      <c r="SG2" s="26"/>
+      <c r="SH2" s="26"/>
+      <c r="SI2" s="26"/>
+      <c r="SJ2" s="26"/>
+      <c r="SK2" s="26"/>
+      <c r="SL2" s="26"/>
+      <c r="SM2" s="26"/>
+      <c r="SN2" s="26"/>
+      <c r="SO2" s="26"/>
+      <c r="SP2" s="26"/>
+      <c r="SQ2" s="26"/>
+      <c r="SR2" s="26"/>
+      <c r="SS2" s="26"/>
+      <c r="ST2" s="26"/>
+      <c r="SU2" s="26"/>
+      <c r="SV2" s="26"/>
+      <c r="SW2" s="26"/>
+      <c r="SX2" s="26"/>
+      <c r="SY2" s="26"/>
+      <c r="SZ2" s="26"/>
+      <c r="TA2" s="26"/>
+      <c r="TB2" s="26"/>
+      <c r="TC2" s="26"/>
+      <c r="TD2" s="26"/>
+      <c r="TE2" s="26"/>
+      <c r="TF2" s="26"/>
+      <c r="TG2" s="26"/>
+      <c r="TH2" s="26"/>
+      <c r="TI2" s="26"/>
+      <c r="TJ2" s="26"/>
+      <c r="TK2" s="26"/>
+      <c r="TL2" s="26"/>
+      <c r="TM2" s="26"/>
+      <c r="TN2" s="26"/>
+      <c r="TO2" s="26"/>
+      <c r="TP2" s="26"/>
+      <c r="TQ2" s="26"/>
+      <c r="TR2" s="26"/>
+      <c r="TS2" s="26"/>
+      <c r="TT2" s="26"/>
+      <c r="TU2" s="26"/>
+      <c r="TV2" s="26"/>
+      <c r="TW2" s="26"/>
+      <c r="TX2" s="26"/>
+      <c r="TY2" s="26"/>
+      <c r="TZ2" s="26"/>
+      <c r="UA2" s="26"/>
+      <c r="UB2" s="26"/>
+      <c r="UC2" s="26"/>
+      <c r="UD2" s="26"/>
+      <c r="UE2" s="26"/>
+      <c r="UF2" s="26"/>
+      <c r="UG2" s="26"/>
+      <c r="UH2" s="26"/>
+      <c r="UI2" s="26"/>
+      <c r="UJ2" s="26"/>
+      <c r="UK2" s="26"/>
+      <c r="UL2" s="26"/>
+      <c r="UM2" s="26"/>
+      <c r="UN2" s="26"/>
+      <c r="UO2" s="26"/>
+      <c r="UP2" s="26"/>
+      <c r="UQ2" s="26"/>
+      <c r="UR2" s="26"/>
+      <c r="US2" s="26"/>
+      <c r="UT2" s="26"/>
+      <c r="UU2" s="26"/>
+      <c r="UV2" s="26"/>
+      <c r="UW2" s="26"/>
+      <c r="UX2" s="26"/>
+      <c r="UY2" s="26"/>
+      <c r="UZ2" s="26"/>
+      <c r="VA2" s="26"/>
+      <c r="VB2" s="26"/>
+      <c r="VC2" s="26"/>
+      <c r="VD2" s="26"/>
+      <c r="VE2" s="26"/>
+      <c r="VF2" s="26"/>
+      <c r="VG2" s="26"/>
+      <c r="VH2" s="26"/>
+      <c r="VI2" s="26"/>
+      <c r="VJ2" s="26"/>
+      <c r="VK2" s="26"/>
+      <c r="VL2" s="26"/>
+      <c r="VM2" s="26"/>
+      <c r="VN2" s="26"/>
+      <c r="VO2" s="26"/>
+      <c r="VP2" s="26"/>
+      <c r="VQ2" s="26"/>
+      <c r="VR2" s="26"/>
+      <c r="VS2" s="26"/>
+      <c r="VT2" s="26"/>
+      <c r="VU2" s="26"/>
+      <c r="VV2" s="26"/>
+      <c r="VW2" s="26"/>
+      <c r="VX2" s="26"/>
+      <c r="VY2" s="26"/>
+      <c r="VZ2" s="26"/>
+      <c r="WA2" s="26"/>
+      <c r="WB2" s="26"/>
+      <c r="WC2" s="26"/>
+      <c r="WD2" s="26"/>
+      <c r="WE2" s="26"/>
+      <c r="WF2" s="26"/>
+      <c r="WG2" s="26"/>
+      <c r="WH2" s="26"/>
+      <c r="WI2" s="26"/>
+      <c r="WJ2" s="26"/>
+      <c r="WK2" s="26"/>
+      <c r="WL2" s="26"/>
+      <c r="WM2" s="26"/>
+      <c r="WN2" s="26"/>
+      <c r="WO2" s="26"/>
+      <c r="WP2" s="26"/>
+      <c r="WQ2" s="26"/>
+      <c r="WR2" s="26"/>
+      <c r="WS2" s="26"/>
+      <c r="WT2" s="26"/>
+      <c r="WU2" s="26"/>
+      <c r="WV2" s="26"/>
+      <c r="WW2" s="26"/>
+      <c r="WX2" s="26"/>
+      <c r="WY2" s="26"/>
+      <c r="WZ2" s="26"/>
+      <c r="XA2" s="26"/>
+      <c r="XB2" s="26"/>
+      <c r="XC2" s="26"/>
+      <c r="XD2" s="26"/>
+      <c r="XE2" s="26"/>
+      <c r="XF2" s="26"/>
+      <c r="XG2" s="26"/>
+      <c r="XH2" s="26"/>
+      <c r="XI2" s="26"/>
+      <c r="XJ2" s="26"/>
+      <c r="XK2" s="26"/>
+      <c r="XL2" s="26"/>
+      <c r="XM2" s="26"/>
+      <c r="XN2" s="26"/>
+      <c r="XO2" s="26"/>
+      <c r="XP2" s="26"/>
+      <c r="XQ2" s="26"/>
+      <c r="XR2" s="26"/>
+      <c r="XS2" s="26"/>
+      <c r="XT2" s="26"/>
+      <c r="XU2" s="26"/>
+      <c r="XV2" s="26"/>
+      <c r="XW2" s="26"/>
+      <c r="XX2" s="26"/>
+      <c r="XY2" s="26"/>
+      <c r="XZ2" s="26"/>
+      <c r="YA2" s="26"/>
+      <c r="YB2" s="26"/>
+      <c r="YC2" s="26"/>
+      <c r="YD2" s="26"/>
+      <c r="YE2" s="26"/>
+      <c r="YF2" s="26"/>
+      <c r="YG2" s="26"/>
+      <c r="YH2" s="26"/>
+      <c r="YI2" s="26"/>
+      <c r="YJ2" s="26"/>
+      <c r="YK2" s="26"/>
+      <c r="YL2" s="26"/>
+      <c r="YM2" s="26"/>
+      <c r="YN2" s="26"/>
+      <c r="YO2" s="26"/>
+      <c r="YP2" s="26"/>
+      <c r="YQ2" s="26"/>
+      <c r="YR2" s="26"/>
+      <c r="YS2" s="26"/>
+      <c r="YT2" s="26"/>
+      <c r="YU2" s="26"/>
+      <c r="YV2" s="26"/>
+      <c r="YW2" s="26"/>
+      <c r="YX2" s="26"/>
+      <c r="YY2" s="26"/>
+      <c r="YZ2" s="26"/>
+      <c r="ZA2" s="26"/>
+      <c r="ZB2" s="26"/>
+      <c r="ZC2" s="26"/>
+      <c r="ZD2" s="26"/>
+      <c r="ZE2" s="26"/>
+      <c r="ZF2" s="26"/>
+      <c r="ZG2" s="26"/>
+      <c r="ZH2" s="26"/>
+      <c r="ZI2" s="26"/>
+      <c r="ZJ2" s="26"/>
+      <c r="ZK2" s="26"/>
+      <c r="ZL2" s="26"/>
+      <c r="ZM2" s="26"/>
+      <c r="ZN2" s="26"/>
+      <c r="ZO2" s="26"/>
+      <c r="ZP2" s="26"/>
+      <c r="ZQ2" s="26"/>
+      <c r="ZR2" s="26"/>
+      <c r="ZS2" s="26"/>
+      <c r="ZT2" s="26"/>
+      <c r="ZU2" s="26"/>
+      <c r="ZV2" s="26"/>
+      <c r="ZW2" s="26"/>
+      <c r="ZX2" s="26"/>
+      <c r="ZY2" s="26"/>
+      <c r="ZZ2" s="26"/>
+      <c r="AAA2" s="26"/>
+      <c r="AAB2" s="26"/>
+      <c r="AAC2" s="26"/>
+      <c r="AAD2" s="26"/>
+      <c r="AAE2" s="26"/>
+      <c r="AAF2" s="26"/>
+      <c r="AAG2" s="26"/>
+      <c r="AAH2" s="26"/>
+      <c r="AAI2" s="26"/>
+      <c r="AAJ2" s="26"/>
+      <c r="AAK2" s="26"/>
+      <c r="AAL2" s="26"/>
+      <c r="AAM2" s="26"/>
+      <c r="AAN2" s="26"/>
+      <c r="AAO2" s="26"/>
+      <c r="AAP2" s="26"/>
+      <c r="AAQ2" s="26"/>
+      <c r="AAR2" s="26"/>
+      <c r="AAS2" s="26"/>
+      <c r="AAT2" s="26"/>
+      <c r="AAU2" s="26"/>
+      <c r="AAV2" s="26"/>
+      <c r="AAW2" s="26"/>
+      <c r="AAX2" s="26"/>
+      <c r="AAY2" s="26"/>
+      <c r="AAZ2" s="26"/>
+      <c r="ABA2" s="26"/>
+      <c r="ABB2" s="26"/>
+      <c r="ABC2" s="26"/>
+      <c r="ABD2" s="26"/>
+      <c r="ABE2" s="26"/>
+      <c r="ABF2" s="26"/>
+      <c r="ABG2" s="26"/>
+      <c r="ABH2" s="26"/>
+      <c r="ABI2" s="26"/>
+      <c r="ABJ2" s="26"/>
+      <c r="ABK2" s="26"/>
+      <c r="ABL2" s="26"/>
+      <c r="ABM2" s="26"/>
+      <c r="ABN2" s="26"/>
+      <c r="ABO2" s="26"/>
+      <c r="ABP2" s="26"/>
+      <c r="ABQ2" s="26"/>
+      <c r="ABR2" s="26"/>
+      <c r="ABS2" s="26"/>
+      <c r="ABT2" s="26"/>
+      <c r="ABU2" s="26"/>
+      <c r="ABV2" s="26"/>
+      <c r="ABW2" s="26"/>
+      <c r="ABX2" s="26"/>
+      <c r="ABY2" s="26"/>
+      <c r="ABZ2" s="26"/>
+      <c r="ACA2" s="26"/>
+      <c r="ACB2" s="26"/>
+      <c r="ACC2" s="26"/>
+      <c r="ACD2" s="26"/>
+      <c r="ACE2" s="26"/>
+      <c r="ACF2" s="26"/>
+      <c r="ACG2" s="26"/>
+      <c r="ACH2" s="26"/>
+      <c r="ACI2" s="26"/>
+      <c r="ACJ2" s="26"/>
+      <c r="ACK2" s="26"/>
+      <c r="ACL2" s="26"/>
+      <c r="ACM2" s="26"/>
+      <c r="ACN2" s="26"/>
+      <c r="ACO2" s="26"/>
+      <c r="ACP2" s="26"/>
+      <c r="ACQ2" s="26"/>
+      <c r="ACR2" s="26"/>
+      <c r="ACS2" s="26"/>
+      <c r="ACT2" s="26"/>
+      <c r="ACU2" s="26"/>
+      <c r="ACV2" s="26"/>
+      <c r="ACW2" s="26"/>
+      <c r="ACX2" s="26"/>
+      <c r="ACY2" s="26"/>
+      <c r="ACZ2" s="26"/>
+      <c r="ADA2" s="26"/>
+      <c r="ADB2" s="26"/>
+      <c r="ADC2" s="26"/>
+      <c r="ADD2" s="26"/>
+      <c r="ADE2" s="26"/>
+      <c r="ADF2" s="26"/>
+      <c r="ADG2" s="26"/>
+      <c r="ADH2" s="26"/>
+      <c r="ADI2" s="26"/>
+      <c r="ADJ2" s="26"/>
+      <c r="ADK2" s="26"/>
+      <c r="ADL2" s="26"/>
+      <c r="ADM2" s="26"/>
+      <c r="ADN2" s="26"/>
+      <c r="ADO2" s="26"/>
+      <c r="ADP2" s="26"/>
+      <c r="ADQ2" s="26"/>
+      <c r="ADR2" s="26"/>
+      <c r="ADS2" s="26"/>
+      <c r="ADT2" s="26"/>
+      <c r="ADU2" s="26"/>
+      <c r="ADV2" s="26"/>
+      <c r="ADW2" s="26"/>
+      <c r="ADX2" s="26"/>
+      <c r="ADY2" s="26"/>
+      <c r="ADZ2" s="26"/>
+      <c r="AEA2" s="26"/>
+      <c r="AEB2" s="26"/>
+      <c r="AEC2" s="26"/>
+      <c r="AED2" s="26"/>
+      <c r="AEE2" s="26"/>
+      <c r="AEF2" s="26"/>
+      <c r="AEG2" s="26"/>
+      <c r="AEH2" s="26"/>
+      <c r="AEI2" s="26"/>
+      <c r="AEJ2" s="26"/>
+      <c r="AEK2" s="26"/>
+      <c r="AEL2" s="26"/>
+      <c r="AEM2" s="26"/>
+      <c r="AEN2" s="26"/>
+      <c r="AEO2" s="26"/>
+      <c r="AEP2" s="26"/>
+      <c r="AEQ2" s="26"/>
+      <c r="AER2" s="26"/>
+      <c r="AES2" s="26"/>
+      <c r="AET2" s="26"/>
+      <c r="AEU2" s="26"/>
+      <c r="AEV2" s="26"/>
+      <c r="AEW2" s="26"/>
+      <c r="AEX2" s="26"/>
+      <c r="AEY2" s="26"/>
+      <c r="AEZ2" s="26"/>
+      <c r="AFA2" s="26"/>
+      <c r="AFB2" s="26"/>
+      <c r="AFC2" s="26"/>
+      <c r="AFD2" s="26"/>
+      <c r="AFE2" s="26"/>
+      <c r="AFF2" s="26"/>
+      <c r="AFG2" s="26"/>
+      <c r="AFH2" s="26"/>
+      <c r="AFI2" s="26"/>
+      <c r="AFJ2" s="26"/>
+      <c r="AFK2" s="26"/>
+      <c r="AFL2" s="26"/>
+      <c r="AFM2" s="26"/>
+      <c r="AFN2" s="26"/>
+      <c r="AFO2" s="26"/>
+      <c r="AFP2" s="26"/>
+      <c r="AFQ2" s="26"/>
+      <c r="AFR2" s="26"/>
+      <c r="AFS2" s="26"/>
+      <c r="AFT2" s="26"/>
+      <c r="AFU2" s="26"/>
+      <c r="AFV2" s="26"/>
+      <c r="AFW2" s="26"/>
+      <c r="AFX2" s="26"/>
+      <c r="AFY2" s="26"/>
+      <c r="AFZ2" s="26"/>
+      <c r="AGA2" s="26"/>
+      <c r="AGB2" s="26"/>
+      <c r="AGC2" s="26"/>
+      <c r="AGD2" s="26"/>
+      <c r="AGE2" s="26"/>
+      <c r="AGF2" s="26"/>
+      <c r="AGG2" s="26"/>
+      <c r="AGH2" s="26"/>
+      <c r="AGI2" s="26"/>
+      <c r="AGJ2" s="26"/>
+      <c r="AGK2" s="26"/>
+      <c r="AGL2" s="26"/>
+      <c r="AGM2" s="26"/>
+      <c r="AGN2" s="26"/>
+      <c r="AGO2" s="26"/>
+      <c r="AGP2" s="26"/>
+      <c r="AGQ2" s="26"/>
+      <c r="AGR2" s="26"/>
+      <c r="AGS2" s="26"/>
+      <c r="AGT2" s="26"/>
+      <c r="AGU2" s="26"/>
+      <c r="AGV2" s="26"/>
+      <c r="AGW2" s="26"/>
+      <c r="AGX2" s="26"/>
+      <c r="AGY2" s="26"/>
+      <c r="AGZ2" s="26"/>
+      <c r="AHA2" s="26"/>
+      <c r="AHB2" s="26"/>
+      <c r="AHC2" s="26"/>
+      <c r="AHD2" s="26"/>
+      <c r="AHE2" s="26"/>
+      <c r="AHF2" s="26"/>
+      <c r="AHG2" s="26"/>
+      <c r="AHH2" s="26"/>
+      <c r="AHI2" s="26"/>
+      <c r="AHJ2" s="26"/>
+      <c r="AHK2" s="26"/>
+      <c r="AHL2" s="26"/>
+      <c r="AHM2" s="26"/>
+      <c r="AHN2" s="26"/>
+      <c r="AHO2" s="26"/>
+      <c r="AHP2" s="26"/>
+      <c r="AHQ2" s="26"/>
+      <c r="AHR2" s="26"/>
+      <c r="AHS2" s="26"/>
+      <c r="AHT2" s="26"/>
+      <c r="AHU2" s="26"/>
+      <c r="AHV2" s="26"/>
+      <c r="AHW2" s="26"/>
+      <c r="AHX2" s="26"/>
+      <c r="AHY2" s="26"/>
+      <c r="AHZ2" s="26"/>
+      <c r="AIA2" s="26"/>
+      <c r="AIB2" s="26"/>
+      <c r="AIC2" s="26"/>
+      <c r="AID2" s="26"/>
+      <c r="AIE2" s="26"/>
+      <c r="AIF2" s="26"/>
+      <c r="AIG2" s="26"/>
+      <c r="AIH2" s="26"/>
+      <c r="AII2" s="26"/>
+      <c r="AIJ2" s="26"/>
+      <c r="AIK2" s="26"/>
+      <c r="AIL2" s="26"/>
+      <c r="AIM2" s="26"/>
+      <c r="AIN2" s="26"/>
+      <c r="AIO2" s="26"/>
+      <c r="AIP2" s="26"/>
+      <c r="AIQ2" s="26"/>
+      <c r="AIR2" s="26"/>
+      <c r="AIS2" s="26"/>
+      <c r="AIT2" s="26"/>
+      <c r="AIU2" s="26"/>
+      <c r="AIV2" s="26"/>
+      <c r="AIW2" s="26"/>
+      <c r="AIX2" s="26"/>
+      <c r="AIY2" s="26"/>
+      <c r="AIZ2" s="26"/>
+      <c r="AJA2" s="26"/>
+      <c r="AJB2" s="26"/>
+      <c r="AJC2" s="26"/>
+      <c r="AJD2" s="26"/>
+      <c r="AJE2" s="26"/>
+      <c r="AJF2" s="26"/>
+      <c r="AJG2" s="26"/>
+      <c r="AJH2" s="26"/>
+      <c r="AJI2" s="26"/>
+      <c r="AJJ2" s="26"/>
+      <c r="AJK2" s="26"/>
+      <c r="AJL2" s="26"/>
+      <c r="AJM2" s="26"/>
+      <c r="AJN2" s="26"/>
+      <c r="AJO2" s="26"/>
+      <c r="AJP2" s="26"/>
+      <c r="AJQ2" s="26"/>
+      <c r="AJR2" s="26"/>
+      <c r="AJS2" s="26"/>
+      <c r="AJT2" s="26"/>
+      <c r="AJU2" s="26"/>
+      <c r="AJV2" s="26"/>
+      <c r="AJW2" s="26"/>
+      <c r="AJX2" s="26"/>
+      <c r="AJY2" s="26"/>
+      <c r="AJZ2" s="26"/>
+      <c r="AKA2" s="26"/>
+      <c r="AKB2" s="26"/>
+      <c r="AKC2" s="26"/>
+      <c r="AKD2" s="26"/>
+      <c r="AKE2" s="26"/>
+      <c r="AKF2" s="26"/>
+      <c r="AKG2" s="26"/>
+      <c r="AKH2" s="26"/>
+      <c r="AKI2" s="26"/>
+      <c r="AKJ2" s="26"/>
+      <c r="AKK2" s="26"/>
+      <c r="AKL2" s="26"/>
+      <c r="AKM2" s="26"/>
+      <c r="AKN2" s="26"/>
+      <c r="AKO2" s="26"/>
+      <c r="AKP2" s="26"/>
+      <c r="AKQ2" s="26"/>
+      <c r="AKR2" s="26"/>
+      <c r="AKS2" s="26"/>
+      <c r="AKT2" s="26"/>
+      <c r="AKU2" s="26"/>
+      <c r="AKV2" s="26"/>
+      <c r="AKW2" s="26"/>
+      <c r="AKX2" s="26"/>
+      <c r="AKY2" s="26"/>
+      <c r="AKZ2" s="26"/>
+      <c r="ALA2" s="26"/>
+      <c r="ALB2" s="26"/>
+      <c r="ALC2" s="26"/>
+      <c r="ALD2" s="26"/>
+      <c r="ALE2" s="26"/>
+      <c r="ALF2" s="26"/>
+      <c r="ALG2" s="26"/>
+      <c r="ALH2" s="26"/>
+      <c r="ALI2" s="26"/>
+      <c r="ALJ2" s="26"/>
+      <c r="ALK2" s="26"/>
+      <c r="ALL2" s="26"/>
+      <c r="ALM2" s="26"/>
+      <c r="ALN2" s="26"/>
+      <c r="ALO2" s="26"/>
+      <c r="ALP2" s="26"/>
+      <c r="ALQ2" s="26"/>
+      <c r="ALR2" s="26"/>
+      <c r="ALS2" s="26"/>
+      <c r="ALT2" s="26"/>
+      <c r="ALU2" s="26"/>
+      <c r="ALV2" s="26"/>
+      <c r="ALW2" s="26"/>
+      <c r="ALX2" s="26"/>
+      <c r="ALY2" s="26"/>
+      <c r="ALZ2" s="26"/>
+      <c r="AMA2" s="26"/>
+      <c r="AMB2" s="26"/>
+      <c r="AMC2" s="26"/>
+      <c r="AMD2" s="26"/>
+      <c r="AME2" s="26"/>
+      <c r="AMF2" s="26"/>
+      <c r="AMG2" s="26"/>
+      <c r="AMH2" s="26"/>
+      <c r="AMI2" s="26"/>
+      <c r="AMJ2" s="26"/>
+      <c r="AMK2" s="26"/>
+      <c r="AML2" s="26"/>
+      <c r="AMM2" s="26"/>
+      <c r="AMN2" s="26"/>
+      <c r="AMO2" s="26"/>
+      <c r="AMP2" s="26"/>
+      <c r="AMQ2" s="26"/>
+      <c r="AMR2" s="26"/>
+      <c r="AMS2" s="26"/>
+      <c r="AMT2" s="26"/>
+      <c r="AMU2" s="26"/>
+      <c r="AMV2" s="26"/>
+      <c r="AMW2" s="26"/>
+      <c r="AMX2" s="26"/>
+      <c r="AMY2" s="26"/>
+      <c r="AMZ2" s="26"/>
+      <c r="ANA2" s="26"/>
+      <c r="ANB2" s="26"/>
+      <c r="ANC2" s="26"/>
+      <c r="AND2" s="26"/>
+      <c r="ANE2" s="26"/>
+      <c r="ANF2" s="26"/>
+      <c r="ANG2" s="26"/>
+      <c r="ANH2" s="26"/>
+      <c r="ANI2" s="26"/>
+      <c r="ANJ2" s="26"/>
+      <c r="ANK2" s="26"/>
+      <c r="ANL2" s="26"/>
+      <c r="ANM2" s="26"/>
+      <c r="ANN2" s="26"/>
+      <c r="ANO2" s="26"/>
+      <c r="ANP2" s="26"/>
+      <c r="ANQ2" s="26"/>
+      <c r="ANR2" s="26"/>
+      <c r="ANS2" s="26"/>
+      <c r="ANT2" s="26"/>
+      <c r="ANU2" s="26"/>
+      <c r="ANV2" s="26"/>
+      <c r="ANW2" s="26"/>
+      <c r="ANX2" s="26"/>
+      <c r="ANY2" s="26"/>
+      <c r="ANZ2" s="26"/>
+      <c r="AOA2" s="26"/>
+      <c r="AOB2" s="26"/>
+      <c r="AOC2" s="26"/>
+      <c r="AOD2" s="26"/>
+      <c r="AOE2" s="26"/>
+      <c r="AOF2" s="26"/>
+      <c r="AOG2" s="26"/>
+      <c r="AOH2" s="26"/>
+      <c r="AOI2" s="26"/>
+      <c r="AOJ2" s="26"/>
+      <c r="AOK2" s="26"/>
+      <c r="AOL2" s="26"/>
+      <c r="AOM2" s="26"/>
+      <c r="AON2" s="26"/>
+      <c r="AOO2" s="26"/>
+      <c r="AOP2" s="26"/>
+      <c r="AOQ2" s="26"/>
+      <c r="AOR2" s="26"/>
+      <c r="AOS2" s="26"/>
+      <c r="AOT2" s="26"/>
+      <c r="AOU2" s="26"/>
+      <c r="AOV2" s="26"/>
+      <c r="AOW2" s="26"/>
+      <c r="AOX2" s="26"/>
+      <c r="AOY2" s="26"/>
+      <c r="AOZ2" s="26"/>
+      <c r="APA2" s="26"/>
+      <c r="APB2" s="26"/>
+      <c r="APC2" s="26"/>
+      <c r="APD2" s="26"/>
+      <c r="APE2" s="26"/>
+      <c r="APF2" s="26"/>
+      <c r="APG2" s="26"/>
+      <c r="APH2" s="26"/>
+      <c r="API2" s="26"/>
+      <c r="APJ2" s="26"/>
+      <c r="APK2" s="26"/>
+      <c r="APL2" s="26"/>
+      <c r="APM2" s="26"/>
+      <c r="APN2" s="26"/>
+      <c r="APO2" s="26"/>
+      <c r="APP2" s="26"/>
+      <c r="APQ2" s="26"/>
+      <c r="APR2" s="26"/>
+      <c r="APS2" s="26"/>
+      <c r="APT2" s="26"/>
+      <c r="APU2" s="26"/>
+      <c r="APV2" s="26"/>
+      <c r="APW2" s="26"/>
+      <c r="APX2" s="26"/>
+      <c r="APY2" s="26"/>
+      <c r="APZ2" s="26"/>
+      <c r="AQA2" s="26"/>
+      <c r="AQB2" s="26"/>
+      <c r="AQC2" s="26"/>
+      <c r="AQD2" s="26"/>
+      <c r="AQE2" s="26"/>
+      <c r="AQF2" s="26"/>
+      <c r="AQG2" s="26"/>
+      <c r="AQH2" s="26"/>
+      <c r="AQI2" s="26"/>
+      <c r="AQJ2" s="26"/>
+      <c r="AQK2" s="26"/>
+      <c r="AQL2" s="26"/>
+      <c r="AQM2" s="26"/>
+      <c r="AQN2" s="26"/>
+      <c r="AQO2" s="26"/>
+      <c r="AQP2" s="26"/>
+      <c r="AQQ2" s="26"/>
+      <c r="AQR2" s="26"/>
+      <c r="AQS2" s="26"/>
+      <c r="AQT2" s="26"/>
+      <c r="AQU2" s="26"/>
+      <c r="AQV2" s="26"/>
+      <c r="AQW2" s="26"/>
+      <c r="AQX2" s="26"/>
+      <c r="AQY2" s="26"/>
+      <c r="AQZ2" s="26"/>
+      <c r="ARA2" s="26"/>
+      <c r="ARB2" s="26"/>
+      <c r="ARC2" s="26"/>
+      <c r="ARD2" s="26"/>
+      <c r="ARE2" s="26"/>
+      <c r="ARF2" s="26"/>
+      <c r="ARG2" s="26"/>
+      <c r="ARH2" s="26"/>
+      <c r="ARI2" s="26"/>
+      <c r="ARJ2" s="26"/>
+      <c r="ARK2" s="26"/>
+      <c r="ARL2" s="26"/>
+      <c r="ARM2" s="26"/>
+      <c r="ARN2" s="26"/>
+      <c r="ARO2" s="26"/>
+      <c r="ARP2" s="26"/>
+      <c r="ARQ2" s="26"/>
+      <c r="ARR2" s="26"/>
+      <c r="ARS2" s="26"/>
+      <c r="ART2" s="26"/>
+      <c r="ARU2" s="26"/>
+      <c r="ARV2" s="26"/>
+      <c r="ARW2" s="26"/>
+      <c r="ARX2" s="26"/>
+      <c r="ARY2" s="26"/>
+      <c r="ARZ2" s="26"/>
+      <c r="ASA2" s="26"/>
+      <c r="ASB2" s="26"/>
+      <c r="ASC2" s="26"/>
+      <c r="ASD2" s="26"/>
+      <c r="ASE2" s="26"/>
+      <c r="ASF2" s="26"/>
+      <c r="ASG2" s="26"/>
+      <c r="ASH2" s="26"/>
+      <c r="ASI2" s="26"/>
+      <c r="ASJ2" s="26"/>
+      <c r="ASK2" s="26"/>
+      <c r="ASL2" s="26"/>
+      <c r="ASM2" s="26"/>
+      <c r="ASN2" s="26"/>
+      <c r="ASO2" s="26"/>
+      <c r="ASP2" s="26"/>
+      <c r="ASQ2" s="26"/>
+      <c r="ASR2" s="26"/>
+      <c r="ASS2" s="26"/>
+      <c r="AST2" s="26"/>
+      <c r="ASU2" s="26"/>
+      <c r="ASV2" s="26"/>
+      <c r="ASW2" s="26"/>
+      <c r="ASX2" s="26"/>
+      <c r="ASY2" s="26"/>
+      <c r="ASZ2" s="26"/>
+      <c r="ATA2" s="26"/>
+      <c r="ATB2" s="26"/>
+      <c r="ATC2" s="26"/>
+      <c r="ATD2" s="26"/>
+      <c r="ATE2" s="26"/>
+      <c r="ATF2" s="26"/>
+      <c r="ATG2" s="26"/>
+      <c r="ATH2" s="26"/>
+      <c r="ATI2" s="26"/>
+      <c r="ATJ2" s="26"/>
+      <c r="ATK2" s="26"/>
+      <c r="ATL2" s="26"/>
+      <c r="ATM2" s="26"/>
+      <c r="ATN2" s="26"/>
+      <c r="ATO2" s="26"/>
+      <c r="ATP2" s="26"/>
+      <c r="ATQ2" s="26"/>
+      <c r="ATR2" s="26"/>
+      <c r="ATS2" s="26"/>
+      <c r="ATT2" s="26"/>
+      <c r="ATU2" s="26"/>
+      <c r="ATV2" s="26"/>
+      <c r="ATW2" s="26"/>
+      <c r="ATX2" s="26"/>
+      <c r="ATY2" s="26"/>
+      <c r="ATZ2" s="26"/>
+      <c r="AUA2" s="26"/>
+      <c r="AUB2" s="26"/>
+      <c r="AUC2" s="26"/>
+      <c r="AUD2" s="26"/>
+      <c r="AUE2" s="26"/>
+      <c r="AUF2" s="26"/>
+      <c r="AUG2" s="26"/>
+      <c r="AUH2" s="26"/>
+      <c r="AUI2" s="26"/>
+      <c r="AUJ2" s="26"/>
+      <c r="AUK2" s="26"/>
+      <c r="AUL2" s="26"/>
+      <c r="AUM2" s="26"/>
+      <c r="AUN2" s="26"/>
+      <c r="AUO2" s="26"/>
+      <c r="AUP2" s="26"/>
+      <c r="AUQ2" s="26"/>
+      <c r="AUR2" s="26"/>
+      <c r="AUS2" s="26"/>
+      <c r="AUT2" s="26"/>
+      <c r="AUU2" s="26"/>
+      <c r="AUV2" s="26"/>
+      <c r="AUW2" s="26"/>
+      <c r="AUX2" s="26"/>
+      <c r="AUY2" s="26"/>
+      <c r="AUZ2" s="26"/>
+      <c r="AVA2" s="26"/>
+      <c r="AVB2" s="26"/>
+      <c r="AVC2" s="26"/>
+      <c r="AVD2" s="26"/>
+      <c r="AVE2" s="26"/>
+      <c r="AVF2" s="26"/>
+      <c r="AVG2" s="26"/>
+      <c r="AVH2" s="26"/>
+      <c r="AVI2" s="26"/>
+      <c r="AVJ2" s="26"/>
+      <c r="AVK2" s="26"/>
+      <c r="AVL2" s="26"/>
+      <c r="AVM2" s="26"/>
+      <c r="AVN2" s="26"/>
+      <c r="AVO2" s="26"/>
+      <c r="AVP2" s="26"/>
+      <c r="AVQ2" s="26"/>
+      <c r="AVR2" s="26"/>
+      <c r="AVS2" s="26"/>
+      <c r="AVT2" s="26"/>
+      <c r="AVU2" s="26"/>
+      <c r="AVV2" s="26"/>
+      <c r="AVW2" s="26"/>
+      <c r="AVX2" s="26"/>
+      <c r="AVY2" s="26"/>
+      <c r="AVZ2" s="26"/>
+      <c r="AWA2" s="26"/>
+      <c r="AWB2" s="26"/>
+      <c r="AWC2" s="26"/>
+      <c r="AWD2" s="26"/>
+      <c r="AWE2" s="26"/>
+      <c r="AWF2" s="26"/>
+      <c r="AWG2" s="26"/>
+      <c r="AWH2" s="26"/>
+      <c r="AWI2" s="26"/>
+      <c r="AWJ2" s="26"/>
+      <c r="AWK2" s="26"/>
+      <c r="AWL2" s="26"/>
+      <c r="AWM2" s="26"/>
+      <c r="AWN2" s="26"/>
+      <c r="AWO2" s="26"/>
+      <c r="AWP2" s="26"/>
+      <c r="AWQ2" s="26"/>
+      <c r="AWR2" s="26"/>
+      <c r="AWS2" s="26"/>
+      <c r="AWT2" s="26"/>
+      <c r="AWU2" s="26"/>
+      <c r="AWV2" s="26"/>
+      <c r="AWW2" s="26"/>
+      <c r="AWX2" s="26"/>
+      <c r="AWY2" s="26"/>
+      <c r="AWZ2" s="26"/>
+      <c r="AXA2" s="26"/>
+      <c r="AXB2" s="26"/>
+      <c r="AXC2" s="26"/>
+      <c r="AXD2" s="26"/>
+      <c r="AXE2" s="26"/>
+      <c r="AXF2" s="26"/>
+      <c r="AXG2" s="26"/>
+      <c r="AXH2" s="26"/>
+      <c r="AXI2" s="26"/>
+      <c r="AXJ2" s="26"/>
+      <c r="AXK2" s="26"/>
+      <c r="AXL2" s="26"/>
+      <c r="AXM2" s="26"/>
+      <c r="AXN2" s="26"/>
+      <c r="AXO2" s="26"/>
+      <c r="AXP2" s="26"/>
+      <c r="AXQ2" s="26"/>
+      <c r="AXR2" s="26"/>
+      <c r="AXS2" s="26"/>
+      <c r="AXT2" s="26"/>
+      <c r="AXU2" s="26"/>
+      <c r="AXV2" s="26"/>
+      <c r="AXW2" s="26"/>
+      <c r="AXX2" s="26"/>
+      <c r="AXY2" s="26"/>
+      <c r="AXZ2" s="26"/>
+      <c r="AYA2" s="26"/>
+      <c r="AYB2" s="26"/>
+      <c r="AYC2" s="26"/>
+      <c r="AYD2" s="26"/>
+      <c r="AYE2" s="26"/>
+      <c r="AYF2" s="26"/>
+      <c r="AYG2" s="26"/>
+      <c r="AYH2" s="26"/>
+      <c r="AYI2" s="26"/>
+      <c r="AYJ2" s="26"/>
+      <c r="AYK2" s="26"/>
+      <c r="AYL2" s="26"/>
+      <c r="AYM2" s="26"/>
+      <c r="AYN2" s="26"/>
+      <c r="AYO2" s="26"/>
+      <c r="AYP2" s="26"/>
+      <c r="AYQ2" s="26"/>
+      <c r="AYR2" s="26"/>
+      <c r="AYS2" s="26"/>
+      <c r="AYT2" s="26"/>
+      <c r="AYU2" s="26"/>
+      <c r="AYV2" s="26"/>
+      <c r="AYW2" s="26"/>
+      <c r="AYX2" s="26"/>
+      <c r="AYY2" s="26"/>
+      <c r="AYZ2" s="26"/>
+      <c r="AZA2" s="26"/>
+      <c r="AZB2" s="26"/>
+      <c r="AZC2" s="26"/>
+      <c r="AZD2" s="26"/>
+      <c r="AZE2" s="26"/>
+      <c r="AZF2" s="26"/>
+      <c r="AZG2" s="26"/>
+      <c r="AZH2" s="26"/>
+      <c r="AZI2" s="26"/>
+      <c r="AZJ2" s="26"/>
+      <c r="AZK2" s="26"/>
+      <c r="AZL2" s="26"/>
+      <c r="AZM2" s="26"/>
+      <c r="AZN2" s="26"/>
+      <c r="AZO2" s="26"/>
+      <c r="AZP2" s="26"/>
+      <c r="AZQ2" s="26"/>
+      <c r="AZR2" s="26"/>
+      <c r="AZS2" s="26"/>
+      <c r="AZT2" s="26"/>
+      <c r="AZU2" s="26"/>
+      <c r="AZV2" s="26"/>
+      <c r="AZW2" s="26"/>
+      <c r="AZX2" s="26"/>
+      <c r="AZY2" s="26"/>
+      <c r="AZZ2" s="26"/>
+      <c r="BAA2" s="26"/>
+      <c r="BAB2" s="26"/>
+      <c r="BAC2" s="26"/>
+      <c r="BAD2" s="26"/>
+      <c r="BAE2" s="26"/>
+      <c r="BAF2" s="26"/>
+      <c r="BAG2" s="26"/>
+      <c r="BAH2" s="26"/>
+      <c r="BAI2" s="26"/>
+      <c r="BAJ2" s="26"/>
+      <c r="BAK2" s="26"/>
+      <c r="BAL2" s="26"/>
+      <c r="BAM2" s="26"/>
+      <c r="BAN2" s="26"/>
+      <c r="BAO2" s="26"/>
+      <c r="BAP2" s="26"/>
+      <c r="BAQ2" s="26"/>
+      <c r="BAR2" s="26"/>
+      <c r="BAS2" s="26"/>
+      <c r="BAT2" s="26"/>
+      <c r="BAU2" s="26"/>
+      <c r="BAV2" s="26"/>
+      <c r="BAW2" s="26"/>
+      <c r="BAX2" s="26"/>
+      <c r="BAY2" s="26"/>
+      <c r="BAZ2" s="26"/>
+      <c r="BBA2" s="26"/>
+      <c r="BBB2" s="26"/>
+      <c r="BBC2" s="26"/>
+      <c r="BBD2" s="26"/>
+      <c r="BBE2" s="26"/>
+      <c r="BBF2" s="26"/>
+      <c r="BBG2" s="26"/>
+      <c r="BBH2" s="26"/>
+      <c r="BBI2" s="26"/>
+      <c r="BBJ2" s="26"/>
+      <c r="BBK2" s="26"/>
+      <c r="BBL2" s="26"/>
+      <c r="BBM2" s="26"/>
+      <c r="BBN2" s="26"/>
+      <c r="BBO2" s="26"/>
+      <c r="BBP2" s="26"/>
+      <c r="BBQ2" s="26"/>
+      <c r="BBR2" s="26"/>
+      <c r="BBS2" s="26"/>
+      <c r="BBT2" s="26"/>
+      <c r="BBU2" s="26"/>
+      <c r="BBV2" s="26"/>
+      <c r="BBW2" s="26"/>
+      <c r="BBX2" s="26"/>
+      <c r="BBY2" s="26"/>
+      <c r="BBZ2" s="26"/>
+      <c r="BCA2" s="26"/>
+      <c r="BCB2" s="26"/>
+      <c r="BCC2" s="26"/>
+      <c r="BCD2" s="26"/>
+      <c r="BCE2" s="26"/>
+      <c r="BCF2" s="26"/>
+      <c r="BCG2" s="26"/>
+      <c r="BCH2" s="26"/>
+      <c r="BCI2" s="26"/>
+      <c r="BCJ2" s="26"/>
+      <c r="BCK2" s="26"/>
+      <c r="BCL2" s="26"/>
+      <c r="BCM2" s="26"/>
+      <c r="BCN2" s="26"/>
+      <c r="BCO2" s="26"/>
+      <c r="BCP2" s="26"/>
+      <c r="BCQ2" s="26"/>
+      <c r="BCR2" s="26"/>
+      <c r="BCS2" s="26"/>
+      <c r="BCT2" s="26"/>
+      <c r="BCU2" s="26"/>
+      <c r="BCV2" s="26"/>
+      <c r="BCW2" s="26"/>
+      <c r="BCX2" s="26"/>
+      <c r="BCY2" s="26"/>
+      <c r="BCZ2" s="26"/>
+      <c r="BDA2" s="26"/>
+      <c r="BDB2" s="26"/>
+      <c r="BDC2" s="26"/>
+      <c r="BDD2" s="26"/>
+      <c r="BDE2" s="26"/>
+      <c r="BDF2" s="26"/>
+      <c r="BDG2" s="26"/>
+      <c r="BDH2" s="26"/>
+      <c r="BDI2" s="26"/>
+      <c r="BDJ2" s="26"/>
+      <c r="BDK2" s="26"/>
+      <c r="BDL2" s="26"/>
+      <c r="BDM2" s="26"/>
+      <c r="BDN2" s="26"/>
+      <c r="BDO2" s="26"/>
+      <c r="BDP2" s="26"/>
+      <c r="BDQ2" s="26"/>
+    </row>
+    <row r="3" spans="1:1473" s="20" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D3" s="18">
         <v>5.0199999999999996</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E3" s="19">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="24"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="24"/>
-      <c r="BX2" s="23"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="23"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="23"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="23"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="24"/>
-      <c r="CJ2" s="23"/>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="23"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="23"/>
-      <c r="CO2" s="24"/>
-      <c r="CP2" s="23"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="23"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="23"/>
-      <c r="CU2" s="24"/>
-      <c r="CV2" s="23"/>
-      <c r="CW2" s="24"/>
-      <c r="CX2" s="23"/>
-      <c r="CY2" s="24"/>
-      <c r="CZ2" s="23"/>
-      <c r="DA2" s="24"/>
-      <c r="DB2" s="23"/>
-      <c r="DC2" s="24"/>
-      <c r="DD2" s="23"/>
-      <c r="DE2" s="24"/>
-      <c r="DF2" s="23"/>
-      <c r="DG2" s="24"/>
-      <c r="DH2" s="23"/>
-      <c r="DI2" s="24"/>
-      <c r="DJ2" s="23"/>
-      <c r="DK2" s="24"/>
-      <c r="DL2" s="23"/>
-      <c r="DM2" s="24"/>
-      <c r="DN2" s="23"/>
-      <c r="DO2" s="24"/>
-      <c r="DP2" s="23"/>
-      <c r="DQ2" s="24"/>
-      <c r="DR2" s="23"/>
-      <c r="DS2" s="24"/>
-      <c r="DT2" s="23"/>
-      <c r="DU2" s="24"/>
-      <c r="DV2" s="23"/>
-      <c r="DW2" s="24"/>
-      <c r="DX2" s="23"/>
-      <c r="DY2" s="24"/>
-      <c r="DZ2" s="23"/>
-      <c r="EA2" s="24"/>
-      <c r="EB2" s="23"/>
-      <c r="EC2" s="24"/>
-      <c r="ED2" s="23"/>
-      <c r="EE2" s="24"/>
-      <c r="EF2" s="23"/>
-      <c r="EG2" s="24"/>
-      <c r="EH2" s="23"/>
-      <c r="EI2" s="24"/>
-      <c r="EJ2" s="23"/>
-      <c r="EK2" s="24"/>
-      <c r="EL2" s="23"/>
-      <c r="EM2" s="24"/>
-      <c r="EN2" s="23"/>
-      <c r="EO2" s="24"/>
-      <c r="EP2" s="23"/>
-      <c r="EQ2" s="24"/>
-      <c r="ER2" s="23"/>
-      <c r="ES2" s="24"/>
-      <c r="ET2" s="23"/>
-      <c r="EU2" s="24"/>
-      <c r="EV2" s="23"/>
-      <c r="EW2" s="24"/>
-      <c r="EX2" s="23"/>
-      <c r="EY2" s="24"/>
-      <c r="EZ2" s="23"/>
-      <c r="FA2" s="24"/>
-      <c r="FB2" s="23"/>
-      <c r="FC2" s="24"/>
-      <c r="FD2" s="23"/>
-      <c r="FE2" s="24"/>
-      <c r="FF2" s="23"/>
-      <c r="FG2" s="24"/>
-      <c r="FH2" s="23"/>
-      <c r="FI2" s="24"/>
-      <c r="FJ2" s="23"/>
-      <c r="FK2" s="24"/>
-      <c r="FL2" s="23"/>
-      <c r="FM2" s="24"/>
-      <c r="FN2" s="23"/>
-      <c r="FO2" s="24"/>
-      <c r="FP2" s="23"/>
-      <c r="FQ2" s="24"/>
-      <c r="FR2" s="23"/>
-      <c r="FS2" s="24"/>
-      <c r="FT2" s="23"/>
-      <c r="FU2" s="24"/>
-      <c r="FV2" s="23"/>
-      <c r="FW2" s="24"/>
-      <c r="FX2" s="23"/>
-      <c r="FY2" s="24"/>
-      <c r="FZ2" s="23"/>
-      <c r="GA2" s="24"/>
-      <c r="GB2" s="23"/>
-      <c r="GC2" s="24"/>
-      <c r="GD2" s="23"/>
-      <c r="GE2" s="24"/>
-      <c r="GF2" s="23"/>
-      <c r="GG2" s="24"/>
-      <c r="GH2" s="23"/>
-      <c r="GI2" s="24"/>
-      <c r="GJ2" s="23"/>
-      <c r="GK2" s="24"/>
-      <c r="GL2" s="23"/>
-      <c r="GM2" s="24"/>
-      <c r="GN2" s="23"/>
-      <c r="GO2" s="24"/>
-      <c r="GP2" s="23"/>
-      <c r="GQ2" s="24"/>
-      <c r="GR2" s="23"/>
-      <c r="GS2" s="24"/>
-      <c r="GT2" s="23"/>
-      <c r="GU2" s="24"/>
-      <c r="GV2" s="23"/>
-      <c r="GW2" s="24"/>
-      <c r="GX2" s="23"/>
-      <c r="GY2" s="24"/>
-      <c r="GZ2" s="23"/>
-      <c r="HA2" s="24"/>
-      <c r="HB2" s="23"/>
-      <c r="HC2" s="24"/>
-      <c r="HD2" s="23"/>
-      <c r="HE2" s="24"/>
-      <c r="HF2" s="23"/>
-      <c r="HG2" s="24"/>
-      <c r="HH2" s="23"/>
-      <c r="HI2" s="24"/>
-      <c r="HJ2" s="23"/>
-      <c r="HK2" s="24"/>
-      <c r="HL2" s="23"/>
-      <c r="HM2" s="24"/>
-      <c r="HN2" s="23"/>
-      <c r="HO2" s="24"/>
-      <c r="HP2" s="23"/>
-      <c r="HQ2" s="24"/>
-      <c r="HR2" s="23"/>
-      <c r="HS2" s="24"/>
-      <c r="HT2" s="23"/>
-      <c r="HU2" s="24"/>
-      <c r="HV2" s="23"/>
-      <c r="HW2" s="24"/>
-      <c r="HX2" s="23"/>
-      <c r="HY2" s="24"/>
-      <c r="HZ2" s="23"/>
-      <c r="IA2" s="24"/>
-      <c r="IB2" s="23"/>
-      <c r="IC2" s="24"/>
-      <c r="ID2" s="23"/>
-      <c r="IE2" s="24"/>
-      <c r="IF2" s="23"/>
-      <c r="IG2" s="24"/>
-      <c r="IH2" s="23"/>
-      <c r="II2" s="24"/>
-      <c r="IJ2" s="23"/>
-      <c r="IK2" s="24"/>
-      <c r="IL2" s="23"/>
-      <c r="IM2" s="24"/>
-      <c r="IN2" s="23"/>
-      <c r="IO2" s="24"/>
-      <c r="IP2" s="23"/>
-      <c r="IQ2" s="24"/>
-      <c r="IR2" s="23"/>
-      <c r="IS2" s="24"/>
-      <c r="IT2" s="23"/>
-      <c r="IU2" s="24"/>
-      <c r="IV2" s="23"/>
-      <c r="IW2" s="24"/>
-      <c r="IX2" s="23"/>
-      <c r="IY2" s="24"/>
-      <c r="IZ2" s="23"/>
-      <c r="JA2" s="24"/>
-      <c r="JB2" s="23"/>
-      <c r="JC2" s="24"/>
-      <c r="JD2" s="23"/>
-      <c r="JE2" s="24"/>
-      <c r="JF2" s="23"/>
-      <c r="JG2" s="24"/>
-      <c r="JH2" s="23"/>
-      <c r="JI2" s="24"/>
-      <c r="JJ2" s="23"/>
-      <c r="JK2" s="24"/>
-      <c r="JL2" s="23"/>
-      <c r="JM2" s="24"/>
-      <c r="JN2" s="23"/>
-      <c r="JO2" s="24"/>
-      <c r="JP2" s="23"/>
-      <c r="JQ2" s="24"/>
-      <c r="JR2" s="23"/>
-      <c r="JS2" s="24"/>
-      <c r="JT2" s="23"/>
-      <c r="JU2" s="24"/>
-      <c r="JV2" s="23"/>
-      <c r="JW2" s="24"/>
-      <c r="JX2" s="23"/>
-      <c r="JY2" s="24"/>
-      <c r="JZ2" s="23"/>
-      <c r="KA2" s="24"/>
-      <c r="KB2" s="23"/>
-      <c r="KC2" s="24"/>
-      <c r="KD2" s="23"/>
-      <c r="KE2" s="24"/>
-      <c r="KF2" s="23"/>
-      <c r="KG2" s="24"/>
-      <c r="KH2" s="23"/>
-      <c r="KI2" s="24"/>
-      <c r="KJ2" s="23"/>
-      <c r="KK2" s="24"/>
-      <c r="KL2" s="23"/>
-      <c r="KM2" s="24"/>
-      <c r="KN2" s="23"/>
-      <c r="KO2" s="24"/>
-      <c r="KP2" s="23"/>
-      <c r="KQ2" s="24"/>
-      <c r="KR2" s="23"/>
-      <c r="KS2" s="24"/>
-      <c r="KT2" s="23"/>
-      <c r="KU2" s="24"/>
-      <c r="KV2" s="23"/>
-      <c r="KW2" s="24"/>
-      <c r="KX2" s="23"/>
-      <c r="KY2" s="24"/>
-      <c r="KZ2" s="23"/>
-      <c r="LA2" s="24"/>
-      <c r="LB2" s="23"/>
-      <c r="LC2" s="24"/>
-      <c r="LD2" s="23"/>
-      <c r="LE2" s="24"/>
-      <c r="LF2" s="23"/>
-      <c r="LG2" s="24"/>
-      <c r="LH2" s="23"/>
-      <c r="LI2" s="24"/>
-      <c r="LJ2" s="23"/>
-      <c r="LK2" s="24"/>
-      <c r="LL2" s="23"/>
-      <c r="LM2" s="24"/>
-      <c r="LN2" s="23"/>
-      <c r="LO2" s="24"/>
-      <c r="LP2" s="23"/>
-      <c r="LQ2" s="24"/>
-      <c r="LR2" s="23"/>
-      <c r="LS2" s="24"/>
-      <c r="LT2" s="23"/>
-      <c r="LU2" s="24"/>
-      <c r="LV2" s="23"/>
-      <c r="LW2" s="24"/>
-      <c r="LX2" s="23"/>
-      <c r="LY2" s="24"/>
-      <c r="LZ2" s="23"/>
-      <c r="MA2" s="24"/>
-      <c r="MB2" s="23"/>
-      <c r="MC2" s="24"/>
-      <c r="MD2" s="23"/>
-      <c r="ME2" s="24"/>
-      <c r="MF2" s="23"/>
-      <c r="MG2" s="24"/>
-      <c r="MH2" s="23"/>
-      <c r="MI2" s="24"/>
-      <c r="MJ2" s="23"/>
-      <c r="MK2" s="24"/>
-      <c r="ML2" s="23"/>
-      <c r="MM2" s="24"/>
-      <c r="MN2" s="23"/>
-      <c r="MO2" s="24"/>
-      <c r="MP2" s="23"/>
-      <c r="MQ2" s="24"/>
-      <c r="MR2" s="23"/>
-      <c r="MS2" s="24"/>
-      <c r="MT2" s="23"/>
-      <c r="MU2" s="24"/>
-      <c r="MV2" s="23"/>
-      <c r="MW2" s="24"/>
-      <c r="MX2" s="23"/>
-      <c r="MY2" s="24"/>
-      <c r="MZ2" s="23"/>
-      <c r="NA2" s="24"/>
-      <c r="NB2" s="23"/>
-      <c r="NC2" s="24"/>
-      <c r="ND2" s="23"/>
-      <c r="NE2" s="24"/>
-      <c r="NF2" s="23"/>
-      <c r="NG2" s="24"/>
-      <c r="NH2" s="23"/>
-      <c r="NI2" s="24"/>
-      <c r="NJ2" s="23"/>
-      <c r="NK2" s="24"/>
-      <c r="NL2" s="23"/>
-      <c r="NM2" s="24"/>
-      <c r="NN2" s="23"/>
-      <c r="NO2" s="24"/>
-      <c r="NP2" s="23"/>
-      <c r="NQ2" s="24"/>
-      <c r="NR2" s="23"/>
-      <c r="NS2" s="24"/>
-      <c r="NT2" s="23"/>
-      <c r="NU2" s="24"/>
-      <c r="NV2" s="23"/>
-      <c r="NW2" s="24"/>
-      <c r="NX2" s="23"/>
-      <c r="NY2" s="24"/>
-      <c r="NZ2" s="23"/>
-      <c r="OA2" s="24"/>
-      <c r="OB2" s="23"/>
-      <c r="OC2" s="24"/>
-      <c r="OD2" s="23"/>
-      <c r="OE2" s="24"/>
-      <c r="OF2" s="23"/>
-      <c r="OG2" s="24"/>
-      <c r="OH2" s="23"/>
-      <c r="OI2" s="24"/>
-      <c r="OJ2" s="23"/>
-      <c r="OK2" s="24"/>
-      <c r="OL2" s="23"/>
-      <c r="OM2" s="24"/>
-      <c r="ON2" s="23"/>
-      <c r="OO2" s="24"/>
-      <c r="OP2" s="23"/>
-      <c r="OQ2" s="24"/>
-      <c r="OR2" s="23"/>
-      <c r="OS2" s="24"/>
-      <c r="OT2" s="23"/>
-      <c r="OU2" s="24"/>
-      <c r="OV2" s="23"/>
-      <c r="OW2" s="24"/>
-      <c r="OX2" s="23"/>
-      <c r="OY2" s="24"/>
-      <c r="OZ2" s="23"/>
-      <c r="PA2" s="24"/>
-      <c r="PB2" s="23"/>
-      <c r="PC2" s="24"/>
-      <c r="PD2" s="23"/>
-      <c r="PE2" s="24"/>
-      <c r="PF2" s="23"/>
-      <c r="PG2" s="24"/>
-      <c r="PH2" s="23"/>
-      <c r="PI2" s="24"/>
-      <c r="PJ2" s="23"/>
-      <c r="PK2" s="24"/>
-      <c r="PL2" s="23"/>
-      <c r="PM2" s="24"/>
-      <c r="PN2" s="23"/>
-      <c r="PO2" s="24"/>
-      <c r="PP2" s="23"/>
-      <c r="PQ2" s="24"/>
-      <c r="PR2" s="23"/>
-      <c r="PS2" s="24"/>
-      <c r="PT2" s="23"/>
-      <c r="PU2" s="24"/>
-      <c r="PV2" s="23"/>
-      <c r="PW2" s="24"/>
-      <c r="PX2" s="23"/>
-      <c r="PY2" s="24"/>
-      <c r="PZ2" s="23"/>
-      <c r="QA2" s="24"/>
-      <c r="QB2" s="23"/>
-      <c r="QC2" s="24"/>
-      <c r="QD2" s="23"/>
-      <c r="QE2" s="24"/>
-      <c r="QF2" s="23"/>
-      <c r="QG2" s="24"/>
-      <c r="QH2" s="23"/>
-      <c r="QI2" s="24"/>
-      <c r="QJ2" s="23"/>
-      <c r="QK2" s="24"/>
-      <c r="QL2" s="23"/>
-      <c r="QM2" s="24"/>
-      <c r="QN2" s="23"/>
-      <c r="QO2" s="24"/>
-      <c r="QP2" s="23"/>
-      <c r="QQ2" s="24"/>
-      <c r="QR2" s="23"/>
-      <c r="QS2" s="24"/>
-      <c r="QT2" s="23"/>
-      <c r="QU2" s="24"/>
-      <c r="QV2" s="23"/>
-      <c r="QW2" s="24"/>
-      <c r="QX2" s="23"/>
-      <c r="QY2" s="24"/>
-      <c r="QZ2" s="23"/>
-      <c r="RA2" s="24"/>
-      <c r="RB2" s="23"/>
-      <c r="RC2" s="24"/>
-      <c r="RD2" s="23"/>
-      <c r="RE2" s="24"/>
-      <c r="RF2" s="23"/>
-      <c r="RG2" s="24"/>
-      <c r="RH2" s="23"/>
-      <c r="RI2" s="24"/>
-      <c r="RJ2" s="23"/>
-      <c r="RK2" s="24"/>
-      <c r="RL2" s="23"/>
-      <c r="RM2" s="24"/>
-      <c r="RN2" s="23"/>
-      <c r="RO2" s="24"/>
-      <c r="RP2" s="23"/>
-      <c r="RQ2" s="24"/>
-      <c r="RR2" s="23"/>
-      <c r="RS2" s="24"/>
-      <c r="RT2" s="23"/>
-      <c r="RU2" s="24"/>
-      <c r="RV2" s="23"/>
-      <c r="RW2" s="24"/>
-      <c r="RX2" s="23"/>
-      <c r="RY2" s="24"/>
-      <c r="RZ2" s="23"/>
-      <c r="SA2" s="24"/>
-      <c r="SB2" s="23"/>
-      <c r="SC2" s="24"/>
-      <c r="SD2" s="23"/>
-      <c r="SE2" s="24"/>
-      <c r="SF2" s="23"/>
-      <c r="SG2" s="24"/>
-      <c r="SH2" s="23"/>
-      <c r="SI2" s="24"/>
-      <c r="SJ2" s="23"/>
-      <c r="SK2" s="24"/>
-      <c r="SL2" s="23"/>
-      <c r="SM2" s="24"/>
-      <c r="SN2" s="23"/>
-      <c r="SO2" s="24"/>
-      <c r="SP2" s="23"/>
-      <c r="SQ2" s="24"/>
-      <c r="SR2" s="23"/>
-      <c r="SS2" s="24"/>
-      <c r="ST2" s="23"/>
-      <c r="SU2" s="24"/>
-      <c r="SV2" s="23"/>
-      <c r="SW2" s="24"/>
-      <c r="SX2" s="23"/>
-      <c r="SY2" s="24"/>
-      <c r="SZ2" s="23"/>
-      <c r="TA2" s="24"/>
-      <c r="TB2" s="23"/>
-      <c r="TC2" s="24"/>
-      <c r="TD2" s="23"/>
-      <c r="TE2" s="24"/>
-      <c r="TF2" s="23"/>
-      <c r="TG2" s="24"/>
-      <c r="TH2" s="23"/>
-      <c r="TI2" s="24"/>
-      <c r="TJ2" s="23"/>
-      <c r="TK2" s="24"/>
-      <c r="TL2" s="23"/>
-      <c r="TM2" s="24"/>
-      <c r="TN2" s="23"/>
-      <c r="TO2" s="24"/>
-      <c r="TP2" s="23"/>
-      <c r="TQ2" s="24"/>
-      <c r="TR2" s="23"/>
-      <c r="TS2" s="24"/>
-      <c r="TT2" s="23"/>
-      <c r="TU2" s="24"/>
-      <c r="TV2" s="23"/>
-      <c r="TW2" s="24"/>
-      <c r="TX2" s="23"/>
-      <c r="TY2" s="24"/>
-      <c r="TZ2" s="23"/>
-      <c r="UA2" s="24"/>
-      <c r="UB2" s="23"/>
-      <c r="UC2" s="24"/>
-      <c r="UD2" s="23"/>
-      <c r="UE2" s="24"/>
-      <c r="UF2" s="23"/>
-      <c r="UG2" s="24"/>
-      <c r="UH2" s="23"/>
-      <c r="UI2" s="24"/>
-      <c r="UJ2" s="23"/>
-      <c r="UK2" s="24"/>
-      <c r="UL2" s="23"/>
-      <c r="UM2" s="24"/>
-      <c r="UN2" s="23"/>
-      <c r="UO2" s="24"/>
-      <c r="UP2" s="23"/>
-      <c r="UQ2" s="24"/>
-      <c r="UR2" s="23"/>
-      <c r="US2" s="24"/>
-      <c r="UT2" s="23"/>
-      <c r="UU2" s="24"/>
-      <c r="UV2" s="23"/>
-      <c r="UW2" s="24"/>
-      <c r="UX2" s="23"/>
-      <c r="UY2" s="24"/>
-      <c r="UZ2" s="23"/>
-      <c r="VA2" s="24"/>
-      <c r="VB2" s="23"/>
-      <c r="VC2" s="24"/>
-      <c r="VD2" s="23"/>
-      <c r="VE2" s="24"/>
-      <c r="VF2" s="23"/>
-      <c r="VG2" s="24"/>
-      <c r="VH2" s="23"/>
-      <c r="VI2" s="24"/>
-      <c r="VJ2" s="23"/>
-      <c r="VK2" s="24"/>
-      <c r="VL2" s="23"/>
-      <c r="VM2" s="24"/>
-      <c r="VN2" s="23"/>
-      <c r="VO2" s="24"/>
-      <c r="VP2" s="23"/>
-      <c r="VQ2" s="24"/>
-      <c r="VR2" s="23"/>
-      <c r="VS2" s="24"/>
-      <c r="VT2" s="23"/>
-      <c r="VU2" s="24"/>
-      <c r="VV2" s="23"/>
-      <c r="VW2" s="24"/>
-      <c r="VX2" s="23"/>
-      <c r="VY2" s="24"/>
-      <c r="VZ2" s="23"/>
-      <c r="WA2" s="24"/>
-      <c r="WB2" s="23"/>
-      <c r="WC2" s="24"/>
-      <c r="WD2" s="23"/>
-      <c r="WE2" s="24"/>
-      <c r="WF2" s="23"/>
-      <c r="WG2" s="24"/>
-      <c r="WH2" s="23"/>
-      <c r="WI2" s="24"/>
-      <c r="WJ2" s="23"/>
-      <c r="WK2" s="24"/>
-      <c r="WL2" s="23"/>
-      <c r="WM2" s="24"/>
-      <c r="WN2" s="23"/>
-      <c r="WO2" s="24"/>
-      <c r="WP2" s="23"/>
-      <c r="WQ2" s="24"/>
-      <c r="WR2" s="23"/>
-      <c r="WS2" s="24"/>
-      <c r="WT2" s="23"/>
-      <c r="WU2" s="24"/>
-      <c r="WV2" s="23"/>
-      <c r="WW2" s="24"/>
-      <c r="WX2" s="23"/>
-      <c r="WY2" s="24"/>
-      <c r="WZ2" s="23"/>
-      <c r="XA2" s="24"/>
-      <c r="XB2" s="23"/>
-      <c r="XC2" s="24"/>
-      <c r="XD2" s="23"/>
-      <c r="XE2" s="24"/>
-      <c r="XF2" s="23"/>
-      <c r="XG2" s="24"/>
-      <c r="XH2" s="23"/>
-      <c r="XI2" s="24"/>
-      <c r="XJ2" s="23"/>
-      <c r="XK2" s="24"/>
-      <c r="XL2" s="23"/>
-      <c r="XM2" s="24"/>
-      <c r="XN2" s="23"/>
-      <c r="XO2" s="24"/>
-      <c r="XP2" s="23"/>
-      <c r="XQ2" s="24"/>
-      <c r="XR2" s="23"/>
-      <c r="XS2" s="24"/>
-      <c r="XT2" s="23"/>
-      <c r="XU2" s="24"/>
-      <c r="XV2" s="23"/>
-      <c r="XW2" s="24"/>
-      <c r="XX2" s="23"/>
-      <c r="XY2" s="24"/>
-      <c r="XZ2" s="23"/>
-      <c r="YA2" s="24"/>
-      <c r="YB2" s="23"/>
-      <c r="YC2" s="24"/>
-      <c r="YD2" s="23"/>
-      <c r="YE2" s="24"/>
-      <c r="YF2" s="23"/>
-      <c r="YG2" s="24"/>
-      <c r="YH2" s="23"/>
-      <c r="YI2" s="24"/>
-      <c r="YJ2" s="23"/>
-      <c r="YK2" s="24"/>
-      <c r="YL2" s="23"/>
-      <c r="YM2" s="24"/>
-      <c r="YN2" s="23"/>
-      <c r="YO2" s="24"/>
-      <c r="YP2" s="23"/>
-      <c r="YQ2" s="24"/>
-      <c r="YR2" s="23"/>
-      <c r="YS2" s="24"/>
-      <c r="YT2" s="23"/>
-      <c r="YU2" s="24"/>
-      <c r="YV2" s="23"/>
-      <c r="YW2" s="24"/>
-      <c r="YX2" s="23"/>
-      <c r="YY2" s="24"/>
-      <c r="YZ2" s="23"/>
-      <c r="ZA2" s="24"/>
-      <c r="ZB2" s="23"/>
-      <c r="ZC2" s="24"/>
-      <c r="ZD2" s="23"/>
-      <c r="ZE2" s="24"/>
-      <c r="ZF2" s="23"/>
-      <c r="ZG2" s="24"/>
-      <c r="ZH2" s="23"/>
-      <c r="ZI2" s="24"/>
-      <c r="ZJ2" s="23"/>
-      <c r="ZK2" s="24"/>
-      <c r="ZL2" s="23"/>
-      <c r="ZM2" s="24"/>
-      <c r="ZN2" s="23"/>
-      <c r="ZO2" s="24"/>
-      <c r="ZP2" s="23"/>
-      <c r="ZQ2" s="24"/>
-      <c r="ZR2" s="23"/>
-      <c r="ZS2" s="24"/>
-      <c r="ZT2" s="23"/>
-      <c r="ZU2" s="24"/>
-      <c r="ZV2" s="23"/>
-      <c r="ZW2" s="24"/>
-      <c r="ZX2" s="23"/>
-      <c r="ZY2" s="24"/>
-      <c r="ZZ2" s="23"/>
-      <c r="AAA2" s="24"/>
-      <c r="AAB2" s="23"/>
-      <c r="AAC2" s="24"/>
-      <c r="AAD2" s="23"/>
-      <c r="AAE2" s="24"/>
-      <c r="AAF2" s="23"/>
-      <c r="AAG2" s="24"/>
-      <c r="AAH2" s="23"/>
-      <c r="AAI2" s="24"/>
-      <c r="AAJ2" s="23"/>
-      <c r="AAK2" s="24"/>
-      <c r="AAL2" s="23"/>
-      <c r="AAM2" s="24"/>
-      <c r="AAN2" s="23"/>
-      <c r="AAO2" s="24"/>
-      <c r="AAP2" s="23"/>
-      <c r="AAQ2" s="24"/>
-      <c r="AAR2" s="23"/>
-      <c r="AAS2" s="24"/>
-      <c r="AAT2" s="23"/>
-      <c r="AAU2" s="24"/>
-      <c r="AAV2" s="23"/>
-      <c r="AAW2" s="24"/>
-      <c r="AAX2" s="23"/>
-      <c r="AAY2" s="24"/>
-      <c r="AAZ2" s="23"/>
-      <c r="ABA2" s="24"/>
-      <c r="ABB2" s="23"/>
-      <c r="ABC2" s="24"/>
-      <c r="ABD2" s="23"/>
-      <c r="ABE2" s="24"/>
-      <c r="ABF2" s="23"/>
-      <c r="ABG2" s="24"/>
-      <c r="ABH2" s="23"/>
-      <c r="ABI2" s="24"/>
-      <c r="ABJ2" s="23"/>
-      <c r="ABK2" s="24"/>
-      <c r="ABL2" s="23"/>
-      <c r="ABM2" s="24"/>
-      <c r="ABN2" s="23"/>
-      <c r="ABO2" s="24"/>
-      <c r="ABP2" s="23"/>
-      <c r="ABQ2" s="24"/>
-      <c r="ABR2" s="23"/>
-      <c r="ABS2" s="24"/>
-      <c r="ABT2" s="23"/>
-      <c r="ABU2" s="24"/>
-      <c r="ABV2" s="23"/>
-      <c r="ABW2" s="24"/>
-      <c r="ABX2" s="23"/>
-      <c r="ABY2" s="24"/>
-      <c r="ABZ2" s="23"/>
-      <c r="ACA2" s="24"/>
-      <c r="ACB2" s="23"/>
-      <c r="ACC2" s="24"/>
-      <c r="ACD2" s="23"/>
-      <c r="ACE2" s="24"/>
-      <c r="ACF2" s="23"/>
-      <c r="ACG2" s="24"/>
-      <c r="ACH2" s="23"/>
-      <c r="ACI2" s="24"/>
-      <c r="ACJ2" s="23"/>
-      <c r="ACK2" s="24"/>
-      <c r="ACL2" s="23"/>
-      <c r="ACM2" s="24"/>
-      <c r="ACN2" s="23"/>
-      <c r="ACO2" s="24"/>
-      <c r="ACP2" s="23"/>
-      <c r="ACQ2" s="24"/>
-      <c r="ACR2" s="23"/>
-      <c r="ACS2" s="24"/>
-      <c r="ACT2" s="23"/>
-      <c r="ACU2" s="24"/>
-      <c r="ACV2" s="23"/>
-      <c r="ACW2" s="24"/>
-      <c r="ACX2" s="23"/>
-      <c r="ACY2" s="24"/>
-      <c r="ACZ2" s="23"/>
-      <c r="ADA2" s="24"/>
-      <c r="ADB2" s="23"/>
-      <c r="ADC2" s="24"/>
-      <c r="ADD2" s="23"/>
-      <c r="ADE2" s="24"/>
-      <c r="ADF2" s="23"/>
-      <c r="ADG2" s="24"/>
-      <c r="ADH2" s="23"/>
-      <c r="ADI2" s="24"/>
-      <c r="ADJ2" s="23"/>
-      <c r="ADK2" s="24"/>
-      <c r="ADL2" s="23"/>
-      <c r="ADM2" s="24"/>
-      <c r="ADN2" s="23"/>
-      <c r="ADO2" s="24"/>
-      <c r="ADP2" s="23"/>
-      <c r="ADQ2" s="24"/>
-      <c r="ADR2" s="23"/>
-      <c r="ADS2" s="24"/>
-      <c r="ADT2" s="23"/>
-      <c r="ADU2" s="24"/>
-      <c r="ADV2" s="23"/>
-      <c r="ADW2" s="24"/>
-      <c r="ADX2" s="23"/>
-      <c r="ADY2" s="24"/>
-      <c r="ADZ2" s="23"/>
-      <c r="AEA2" s="24"/>
-      <c r="AEB2" s="23"/>
-      <c r="AEC2" s="24"/>
-      <c r="AED2" s="23"/>
-      <c r="AEE2" s="24"/>
-      <c r="AEF2" s="23"/>
-      <c r="AEG2" s="24"/>
-      <c r="AEH2" s="23"/>
-      <c r="AEI2" s="24"/>
-      <c r="AEJ2" s="23"/>
-      <c r="AEK2" s="24"/>
-      <c r="AEL2" s="23"/>
-      <c r="AEM2" s="24"/>
-      <c r="AEN2" s="23"/>
-      <c r="AEO2" s="24"/>
-      <c r="AEP2" s="23"/>
-      <c r="AEQ2" s="24"/>
-      <c r="AER2" s="23"/>
-      <c r="AES2" s="24"/>
-      <c r="AET2" s="23"/>
-      <c r="AEU2" s="24"/>
-      <c r="AEV2" s="23"/>
-      <c r="AEW2" s="24"/>
-      <c r="AEX2" s="23"/>
-      <c r="AEY2" s="24"/>
-      <c r="AEZ2" s="23"/>
-      <c r="AFA2" s="24"/>
-      <c r="AFB2" s="23"/>
-      <c r="AFC2" s="24"/>
-      <c r="AFD2" s="23"/>
-      <c r="AFE2" s="24"/>
-      <c r="AFF2" s="23"/>
-      <c r="AFG2" s="24"/>
-      <c r="AFH2" s="23"/>
-      <c r="AFI2" s="24"/>
-      <c r="AFJ2" s="23"/>
-      <c r="AFK2" s="24"/>
-      <c r="AFL2" s="23"/>
-      <c r="AFM2" s="24"/>
-      <c r="AFN2" s="23"/>
-      <c r="AFO2" s="24"/>
-      <c r="AFP2" s="23"/>
-      <c r="AFQ2" s="24"/>
-      <c r="AFR2" s="23"/>
-      <c r="AFS2" s="24"/>
-      <c r="AFT2" s="23"/>
-      <c r="AFU2" s="24"/>
-      <c r="AFV2" s="23"/>
-      <c r="AFW2" s="24"/>
-      <c r="AFX2" s="23"/>
-      <c r="AFY2" s="24"/>
-      <c r="AFZ2" s="23"/>
-      <c r="AGA2" s="24"/>
-      <c r="AGB2" s="23"/>
-      <c r="AGC2" s="24"/>
-      <c r="AGD2" s="23"/>
-      <c r="AGE2" s="24"/>
-      <c r="AGF2" s="23"/>
-      <c r="AGG2" s="24"/>
-      <c r="AGH2" s="23"/>
-      <c r="AGI2" s="24"/>
-      <c r="AGJ2" s="23"/>
-      <c r="AGK2" s="24"/>
-      <c r="AGL2" s="23"/>
-      <c r="AGM2" s="24"/>
-      <c r="AGN2" s="23"/>
-      <c r="AGO2" s="24"/>
-      <c r="AGP2" s="23"/>
-      <c r="AGQ2" s="24"/>
-      <c r="AGR2" s="23"/>
-      <c r="AGS2" s="24"/>
-      <c r="AGT2" s="23"/>
-      <c r="AGU2" s="24"/>
-      <c r="AGV2" s="23"/>
-      <c r="AGW2" s="24"/>
-      <c r="AGX2" s="23"/>
-      <c r="AGY2" s="24"/>
-      <c r="AGZ2" s="23"/>
-      <c r="AHA2" s="24"/>
-      <c r="AHB2" s="23"/>
-      <c r="AHC2" s="24"/>
-      <c r="AHD2" s="23"/>
-      <c r="AHE2" s="24"/>
-      <c r="AHF2" s="23"/>
-      <c r="AHG2" s="24"/>
-      <c r="AHH2" s="23"/>
-      <c r="AHI2" s="24"/>
-      <c r="AHJ2" s="23"/>
-      <c r="AHK2" s="24"/>
-      <c r="AHL2" s="23"/>
-      <c r="AHM2" s="24"/>
-      <c r="AHN2" s="23"/>
-      <c r="AHO2" s="24"/>
-      <c r="AHP2" s="23"/>
-      <c r="AHQ2" s="24"/>
-      <c r="AHR2" s="23"/>
-      <c r="AHS2" s="24"/>
-      <c r="AHT2" s="23"/>
-      <c r="AHU2" s="24"/>
-      <c r="AHV2" s="23"/>
-      <c r="AHW2" s="24"/>
-      <c r="AHX2" s="23"/>
-      <c r="AHY2" s="24"/>
-      <c r="AHZ2" s="23"/>
-      <c r="AIA2" s="24"/>
-      <c r="AIB2" s="23"/>
-      <c r="AIC2" s="24"/>
-      <c r="AID2" s="23"/>
-      <c r="AIE2" s="24"/>
-      <c r="AIF2" s="23"/>
-      <c r="AIG2" s="24"/>
-      <c r="AIH2" s="23"/>
-      <c r="AII2" s="24"/>
-      <c r="AIJ2" s="23"/>
-      <c r="AIK2" s="24"/>
-      <c r="AIL2" s="23"/>
-      <c r="AIM2" s="24"/>
-      <c r="AIN2" s="23"/>
-      <c r="AIO2" s="24"/>
-      <c r="AIP2" s="23"/>
-      <c r="AIQ2" s="24"/>
-      <c r="AIR2" s="23"/>
-      <c r="AIS2" s="24"/>
-      <c r="AIT2" s="23"/>
-      <c r="AIU2" s="24"/>
-      <c r="AIV2" s="23"/>
-      <c r="AIW2" s="24"/>
-      <c r="AIX2" s="23"/>
-      <c r="AIY2" s="24"/>
-      <c r="AIZ2" s="23"/>
-      <c r="AJA2" s="24"/>
-      <c r="AJB2" s="23"/>
-      <c r="AJC2" s="24"/>
-      <c r="AJD2" s="23"/>
-      <c r="AJE2" s="24"/>
-      <c r="AJF2" s="23"/>
-      <c r="AJG2" s="24"/>
-      <c r="AJH2" s="23"/>
-      <c r="AJI2" s="24"/>
-      <c r="AJJ2" s="23"/>
-      <c r="AJK2" s="24"/>
-      <c r="AJL2" s="23"/>
-      <c r="AJM2" s="24"/>
-      <c r="AJN2" s="23"/>
-      <c r="AJO2" s="24"/>
-      <c r="AJP2" s="23"/>
-      <c r="AJQ2" s="24"/>
-      <c r="AJR2" s="23"/>
-      <c r="AJS2" s="24"/>
-      <c r="AJT2" s="23"/>
-      <c r="AJU2" s="24"/>
-      <c r="AJV2" s="23"/>
-      <c r="AJW2" s="24"/>
-      <c r="AJX2" s="23"/>
-      <c r="AJY2" s="24"/>
-      <c r="AJZ2" s="23"/>
-      <c r="AKA2" s="24"/>
-      <c r="AKB2" s="23"/>
-      <c r="AKC2" s="24"/>
-      <c r="AKD2" s="23"/>
-      <c r="AKE2" s="24"/>
-      <c r="AKF2" s="23"/>
-      <c r="AKG2" s="24"/>
-      <c r="AKH2" s="23"/>
-      <c r="AKI2" s="24"/>
-      <c r="AKJ2" s="23"/>
-      <c r="AKK2" s="24"/>
-      <c r="AKL2" s="23"/>
-      <c r="AKM2" s="24"/>
-      <c r="AKN2" s="23"/>
-      <c r="AKO2" s="24"/>
-      <c r="AKP2" s="23"/>
-      <c r="AKQ2" s="24"/>
-      <c r="AKR2" s="23"/>
-      <c r="AKS2" s="24"/>
-      <c r="AKT2" s="23"/>
-      <c r="AKU2" s="24"/>
-      <c r="AKV2" s="23"/>
-      <c r="AKW2" s="24"/>
-      <c r="AKX2" s="23"/>
-      <c r="AKY2" s="24"/>
-      <c r="AKZ2" s="23"/>
-      <c r="ALA2" s="24"/>
-      <c r="ALB2" s="23"/>
-      <c r="ALC2" s="24"/>
-      <c r="ALD2" s="23"/>
-      <c r="ALE2" s="24"/>
-      <c r="ALF2" s="23"/>
-      <c r="ALG2" s="24"/>
-      <c r="ALH2" s="23"/>
-      <c r="ALI2" s="24"/>
-      <c r="ALJ2" s="23"/>
-      <c r="ALK2" s="24"/>
-      <c r="ALL2" s="23"/>
-      <c r="ALM2" s="24"/>
-      <c r="ALN2" s="23"/>
-      <c r="ALO2" s="24"/>
-      <c r="ALP2" s="23"/>
-      <c r="ALQ2" s="24"/>
-      <c r="ALR2" s="23"/>
-      <c r="ALS2" s="24"/>
-      <c r="ALT2" s="23"/>
-      <c r="ALU2" s="24"/>
-      <c r="ALV2" s="23"/>
-      <c r="ALW2" s="24"/>
-      <c r="ALX2" s="23"/>
-      <c r="ALY2" s="24"/>
-      <c r="ALZ2" s="23"/>
-      <c r="AMA2" s="24"/>
-      <c r="AMB2" s="23"/>
-      <c r="AMC2" s="24"/>
-      <c r="AMD2" s="23"/>
-      <c r="AME2" s="24"/>
-      <c r="AMF2" s="23"/>
-      <c r="AMG2" s="24"/>
-      <c r="AMH2" s="23"/>
-      <c r="AMI2" s="24"/>
-      <c r="AMJ2" s="23"/>
-      <c r="AMK2" s="24"/>
-      <c r="AML2" s="23"/>
-      <c r="AMM2" s="24"/>
-      <c r="AMN2" s="23"/>
-      <c r="AMO2" s="24"/>
-      <c r="AMP2" s="23"/>
-      <c r="AMQ2" s="24"/>
-      <c r="AMR2" s="23"/>
-      <c r="AMS2" s="24"/>
-      <c r="AMT2" s="23"/>
-      <c r="AMU2" s="24"/>
-      <c r="AMV2" s="23"/>
-      <c r="AMW2" s="24"/>
-      <c r="AMX2" s="23"/>
-      <c r="AMY2" s="24"/>
-      <c r="AMZ2" s="23"/>
-      <c r="ANA2" s="24"/>
-      <c r="ANB2" s="23"/>
-      <c r="ANC2" s="24"/>
-      <c r="AND2" s="23"/>
-      <c r="ANE2" s="24"/>
-      <c r="ANF2" s="23"/>
-      <c r="ANG2" s="24"/>
-      <c r="ANH2" s="23"/>
-      <c r="ANI2" s="24"/>
-      <c r="ANJ2" s="23"/>
-      <c r="ANK2" s="24"/>
-      <c r="ANL2" s="23"/>
-      <c r="ANM2" s="24"/>
-      <c r="ANN2" s="23"/>
-      <c r="ANO2" s="24"/>
-      <c r="ANP2" s="23"/>
-      <c r="ANQ2" s="24"/>
-      <c r="ANR2" s="23"/>
-      <c r="ANS2" s="24"/>
-      <c r="ANT2" s="23"/>
-      <c r="ANU2" s="24"/>
-      <c r="ANV2" s="23"/>
-      <c r="ANW2" s="24"/>
-      <c r="ANX2" s="23"/>
-      <c r="ANY2" s="24"/>
-      <c r="ANZ2" s="23"/>
-      <c r="AOA2" s="24"/>
-      <c r="AOB2" s="23"/>
-      <c r="AOC2" s="24"/>
-      <c r="AOD2" s="23"/>
-      <c r="AOE2" s="24"/>
-      <c r="AOF2" s="23"/>
-      <c r="AOG2" s="24"/>
-      <c r="AOH2" s="23"/>
-      <c r="AOI2" s="24"/>
-      <c r="AOJ2" s="23"/>
-      <c r="AOK2" s="24"/>
-      <c r="AOL2" s="23"/>
-      <c r="AOM2" s="24"/>
-      <c r="AON2" s="23"/>
-      <c r="AOO2" s="24"/>
-      <c r="AOP2" s="23"/>
-      <c r="AOQ2" s="24"/>
-      <c r="AOR2" s="23"/>
-      <c r="AOS2" s="24"/>
-      <c r="AOT2" s="23"/>
-      <c r="AOU2" s="24"/>
-      <c r="AOV2" s="23"/>
-      <c r="AOW2" s="24"/>
-      <c r="AOX2" s="23"/>
-      <c r="AOY2" s="24"/>
-      <c r="AOZ2" s="23"/>
-      <c r="APA2" s="24"/>
-      <c r="APB2" s="23"/>
-      <c r="APC2" s="24"/>
-      <c r="APD2" s="23"/>
-      <c r="APE2" s="24"/>
-      <c r="APF2" s="23"/>
-      <c r="APG2" s="24"/>
-      <c r="APH2" s="23"/>
-      <c r="API2" s="24"/>
-      <c r="APJ2" s="23"/>
-      <c r="APK2" s="24"/>
-      <c r="APL2" s="23"/>
-      <c r="APM2" s="24"/>
-      <c r="APN2" s="23"/>
-      <c r="APO2" s="24"/>
-      <c r="APP2" s="23"/>
-      <c r="APQ2" s="24"/>
-      <c r="APR2" s="23"/>
-      <c r="APS2" s="24"/>
-      <c r="APT2" s="23"/>
-      <c r="APU2" s="24"/>
-      <c r="APV2" s="23"/>
-      <c r="APW2" s="24"/>
-      <c r="APX2" s="23"/>
-      <c r="APY2" s="24"/>
-      <c r="APZ2" s="23"/>
-      <c r="AQA2" s="24"/>
-      <c r="AQB2" s="23"/>
-      <c r="AQC2" s="24"/>
-      <c r="AQD2" s="23"/>
-      <c r="AQE2" s="24"/>
-      <c r="AQF2" s="23"/>
-      <c r="AQG2" s="24"/>
-      <c r="AQH2" s="23"/>
-      <c r="AQI2" s="24"/>
-      <c r="AQJ2" s="23"/>
-      <c r="AQK2" s="24"/>
-      <c r="AQL2" s="23"/>
-      <c r="AQM2" s="24"/>
-      <c r="AQN2" s="23"/>
-      <c r="AQO2" s="24"/>
-      <c r="AQP2" s="23"/>
-      <c r="AQQ2" s="24"/>
-      <c r="AQR2" s="23"/>
-      <c r="AQS2" s="24"/>
-      <c r="AQT2" s="23"/>
-      <c r="AQU2" s="24"/>
-      <c r="AQV2" s="23"/>
-      <c r="AQW2" s="24"/>
-      <c r="AQX2" s="23"/>
-      <c r="AQY2" s="24"/>
-      <c r="AQZ2" s="23"/>
-      <c r="ARA2" s="24"/>
-      <c r="ARB2" s="23"/>
-      <c r="ARC2" s="24"/>
-      <c r="ARD2" s="23"/>
-      <c r="ARE2" s="24"/>
-      <c r="ARF2" s="23"/>
-      <c r="ARG2" s="24"/>
-      <c r="ARH2" s="23"/>
-      <c r="ARI2" s="24"/>
-      <c r="ARJ2" s="23"/>
-      <c r="ARK2" s="24"/>
-      <c r="ARL2" s="23"/>
-      <c r="ARM2" s="24"/>
-      <c r="ARN2" s="23"/>
-      <c r="ARO2" s="24"/>
-      <c r="ARP2" s="23"/>
-      <c r="ARQ2" s="24"/>
-      <c r="ARR2" s="23"/>
-      <c r="ARS2" s="24"/>
-      <c r="ART2" s="23"/>
-      <c r="ARU2" s="24"/>
-      <c r="ARV2" s="23"/>
-      <c r="ARW2" s="24"/>
-      <c r="ARX2" s="23"/>
-      <c r="ARY2" s="24"/>
-      <c r="ARZ2" s="23"/>
-      <c r="ASA2" s="24"/>
-      <c r="ASB2" s="23"/>
-      <c r="ASC2" s="24"/>
-      <c r="ASD2" s="23"/>
-      <c r="ASE2" s="24"/>
-      <c r="ASF2" s="23"/>
-      <c r="ASG2" s="24"/>
-      <c r="ASH2" s="23"/>
-      <c r="ASI2" s="24"/>
-      <c r="ASJ2" s="23"/>
-      <c r="ASK2" s="24"/>
-      <c r="ASL2" s="23"/>
-      <c r="ASM2" s="24"/>
-      <c r="ASN2" s="23"/>
-      <c r="ASO2" s="24"/>
-      <c r="ASP2" s="23"/>
-      <c r="ASQ2" s="24"/>
-      <c r="ASR2" s="23"/>
-      <c r="ASS2" s="24"/>
-      <c r="AST2" s="23"/>
-      <c r="ASU2" s="24"/>
-      <c r="ASV2" s="23"/>
-      <c r="ASW2" s="24"/>
-      <c r="ASX2" s="23"/>
-      <c r="ASY2" s="24"/>
-      <c r="ASZ2" s="23"/>
-      <c r="ATA2" s="24"/>
-      <c r="ATB2" s="23"/>
-      <c r="ATC2" s="24"/>
-      <c r="ATD2" s="23"/>
-      <c r="ATE2" s="24"/>
-      <c r="ATF2" s="23"/>
-      <c r="ATG2" s="24"/>
-      <c r="ATH2" s="23"/>
-      <c r="ATI2" s="24"/>
-      <c r="ATJ2" s="23"/>
-      <c r="ATK2" s="24"/>
-      <c r="ATL2" s="23"/>
-      <c r="ATM2" s="24"/>
-      <c r="ATN2" s="23"/>
-      <c r="ATO2" s="24"/>
-      <c r="ATP2" s="23"/>
-      <c r="ATQ2" s="24"/>
-      <c r="ATR2" s="23"/>
-      <c r="ATS2" s="24"/>
-      <c r="ATT2" s="23"/>
-      <c r="ATU2" s="24"/>
-      <c r="ATV2" s="23"/>
-      <c r="ATW2" s="24"/>
-      <c r="ATX2" s="23"/>
-      <c r="ATY2" s="24"/>
-      <c r="ATZ2" s="23"/>
-      <c r="AUA2" s="24"/>
-      <c r="AUB2" s="23"/>
-      <c r="AUC2" s="24"/>
-      <c r="AUD2" s="23"/>
-      <c r="AUE2" s="24"/>
-      <c r="AUF2" s="23"/>
-      <c r="AUG2" s="24"/>
-      <c r="AUH2" s="23"/>
-      <c r="AUI2" s="24"/>
-      <c r="AUJ2" s="23"/>
-      <c r="AUK2" s="24"/>
-      <c r="AUL2" s="23"/>
-      <c r="AUM2" s="24"/>
-      <c r="AUN2" s="23"/>
-      <c r="AUO2" s="24"/>
-      <c r="AUP2" s="23"/>
-      <c r="AUQ2" s="24"/>
-      <c r="AUR2" s="23"/>
-      <c r="AUS2" s="24"/>
-      <c r="AUT2" s="23"/>
-      <c r="AUU2" s="24"/>
-      <c r="AUV2" s="23"/>
-      <c r="AUW2" s="24"/>
-      <c r="AUX2" s="23"/>
-      <c r="AUY2" s="24"/>
-      <c r="AUZ2" s="23"/>
-      <c r="AVA2" s="24"/>
-      <c r="AVB2" s="23"/>
-      <c r="AVC2" s="24"/>
-      <c r="AVD2" s="23"/>
-      <c r="AVE2" s="24"/>
-      <c r="AVF2" s="23"/>
-      <c r="AVG2" s="24"/>
-      <c r="AVH2" s="23"/>
-      <c r="AVI2" s="24"/>
-      <c r="AVJ2" s="23"/>
-      <c r="AVK2" s="24"/>
-      <c r="AVL2" s="23"/>
-      <c r="AVM2" s="24"/>
-      <c r="AVN2" s="23"/>
-      <c r="AVO2" s="24"/>
-      <c r="AVP2" s="23"/>
-      <c r="AVQ2" s="24"/>
-      <c r="AVR2" s="23"/>
-      <c r="AVS2" s="24"/>
-      <c r="AVT2" s="23"/>
-      <c r="AVU2" s="24"/>
-      <c r="AVV2" s="23"/>
-      <c r="AVW2" s="24"/>
-      <c r="AVX2" s="23"/>
-      <c r="AVY2" s="24"/>
-      <c r="AVZ2" s="23"/>
-      <c r="AWA2" s="24"/>
-      <c r="AWB2" s="23"/>
-      <c r="AWC2" s="24"/>
-      <c r="AWD2" s="23"/>
-      <c r="AWE2" s="24"/>
-      <c r="AWF2" s="23"/>
-      <c r="AWG2" s="24"/>
-      <c r="AWH2" s="23"/>
-      <c r="AWI2" s="24"/>
-      <c r="AWJ2" s="23"/>
-      <c r="AWK2" s="24"/>
-      <c r="AWL2" s="23"/>
-      <c r="AWM2" s="24"/>
-      <c r="AWN2" s="23"/>
-      <c r="AWO2" s="24"/>
-      <c r="AWP2" s="23"/>
-      <c r="AWQ2" s="24"/>
-      <c r="AWR2" s="23"/>
-      <c r="AWS2" s="24"/>
-      <c r="AWT2" s="23"/>
-      <c r="AWU2" s="24"/>
-      <c r="AWV2" s="23"/>
-      <c r="AWW2" s="24"/>
-      <c r="AWX2" s="23"/>
-      <c r="AWY2" s="24"/>
-      <c r="AWZ2" s="23"/>
-      <c r="AXA2" s="24"/>
-      <c r="AXB2" s="23"/>
-      <c r="AXC2" s="24"/>
-      <c r="AXD2" s="23"/>
-      <c r="AXE2" s="24"/>
-      <c r="AXF2" s="23"/>
-      <c r="AXG2" s="24"/>
-      <c r="AXH2" s="23"/>
-      <c r="AXI2" s="24"/>
-      <c r="AXJ2" s="23"/>
-      <c r="AXK2" s="24"/>
-      <c r="AXL2" s="23"/>
-      <c r="AXM2" s="24"/>
-      <c r="AXN2" s="23"/>
-      <c r="AXO2" s="24"/>
-      <c r="AXP2" s="23"/>
-      <c r="AXQ2" s="24"/>
-      <c r="AXR2" s="23"/>
-      <c r="AXS2" s="24"/>
-      <c r="AXT2" s="23"/>
-      <c r="AXU2" s="24"/>
-      <c r="AXV2" s="23"/>
-      <c r="AXW2" s="24"/>
-      <c r="AXX2" s="23"/>
-      <c r="AXY2" s="24"/>
-      <c r="AXZ2" s="23"/>
-      <c r="AYA2" s="24"/>
-      <c r="AYB2" s="23"/>
-      <c r="AYC2" s="24"/>
-      <c r="AYD2" s="23"/>
-      <c r="AYE2" s="24"/>
-      <c r="AYF2" s="23"/>
-      <c r="AYG2" s="24"/>
-      <c r="AYH2" s="23"/>
-      <c r="AYI2" s="24"/>
-      <c r="AYJ2" s="23"/>
-      <c r="AYK2" s="24"/>
-      <c r="AYL2" s="23"/>
-      <c r="AYM2" s="24"/>
-      <c r="AYN2" s="23"/>
-      <c r="AYO2" s="24"/>
-      <c r="AYP2" s="23"/>
-      <c r="AYQ2" s="24"/>
-      <c r="AYR2" s="23"/>
-      <c r="AYS2" s="24"/>
-      <c r="AYT2" s="23"/>
-      <c r="AYU2" s="24"/>
-      <c r="AYV2" s="23"/>
-      <c r="AYW2" s="24"/>
-      <c r="AYX2" s="23"/>
-      <c r="AYY2" s="24"/>
-      <c r="AYZ2" s="23"/>
-      <c r="AZA2" s="24"/>
-      <c r="AZB2" s="23"/>
-      <c r="AZC2" s="24"/>
-      <c r="AZD2" s="23"/>
-      <c r="AZE2" s="24"/>
-      <c r="AZF2" s="23"/>
-      <c r="AZG2" s="24"/>
-      <c r="AZH2" s="23"/>
-      <c r="AZI2" s="24"/>
-      <c r="AZJ2" s="23"/>
-      <c r="AZK2" s="24"/>
-      <c r="AZL2" s="23"/>
-      <c r="AZM2" s="24"/>
-      <c r="AZN2" s="23"/>
-      <c r="AZO2" s="24"/>
-      <c r="AZP2" s="23"/>
-      <c r="AZQ2" s="24"/>
-      <c r="AZR2" s="23"/>
-      <c r="AZS2" s="24"/>
-      <c r="AZT2" s="23"/>
-      <c r="AZU2" s="24"/>
-      <c r="AZV2" s="23"/>
-      <c r="AZW2" s="24"/>
-      <c r="AZX2" s="23"/>
-      <c r="AZY2" s="24"/>
-      <c r="AZZ2" s="23"/>
-      <c r="BAA2" s="24"/>
-      <c r="BAB2" s="23"/>
-      <c r="BAC2" s="24"/>
-      <c r="BAD2" s="23"/>
-      <c r="BAE2" s="24"/>
-      <c r="BAF2" s="23"/>
-      <c r="BAG2" s="24"/>
-      <c r="BAH2" s="23"/>
-      <c r="BAI2" s="24"/>
-      <c r="BAJ2" s="23"/>
-      <c r="BAK2" s="24"/>
-      <c r="BAL2" s="23"/>
-      <c r="BAM2" s="24"/>
-      <c r="BAN2" s="23"/>
-      <c r="BAO2" s="24"/>
-      <c r="BAP2" s="23"/>
-      <c r="BAQ2" s="24"/>
-      <c r="BAR2" s="23"/>
-      <c r="BAS2" s="24"/>
-      <c r="BAT2" s="23"/>
-      <c r="BAU2" s="24"/>
-      <c r="BAV2" s="23"/>
-      <c r="BAW2" s="24"/>
-      <c r="BAX2" s="23"/>
-      <c r="BAY2" s="24"/>
-      <c r="BAZ2" s="23"/>
-      <c r="BBA2" s="24"/>
-      <c r="BBB2" s="23"/>
-      <c r="BBC2" s="24"/>
-      <c r="BBD2" s="23"/>
-      <c r="BBE2" s="24"/>
-      <c r="BBF2" s="23"/>
-      <c r="BBG2" s="24"/>
-      <c r="BBH2" s="23"/>
-      <c r="BBI2" s="24"/>
-      <c r="BBJ2" s="23"/>
-      <c r="BBK2" s="24"/>
-      <c r="BBL2" s="23"/>
-      <c r="BBM2" s="24"/>
-      <c r="BBN2" s="23"/>
-      <c r="BBO2" s="24"/>
-      <c r="BBP2" s="23"/>
-      <c r="BBQ2" s="24"/>
-      <c r="BBR2" s="23"/>
-      <c r="BBS2" s="24"/>
-      <c r="BBT2" s="23"/>
-      <c r="BBU2" s="24"/>
-      <c r="BBV2" s="23"/>
-      <c r="BBW2" s="24"/>
-      <c r="BBX2" s="23"/>
-      <c r="BBY2" s="24"/>
-      <c r="BBZ2" s="23"/>
-      <c r="BCA2" s="24"/>
-      <c r="BCB2" s="23"/>
-      <c r="BCC2" s="24"/>
-      <c r="BCD2" s="23"/>
-      <c r="BCE2" s="24"/>
-      <c r="BCF2" s="23"/>
-      <c r="BCG2" s="24"/>
-      <c r="BCH2" s="23"/>
-      <c r="BCI2" s="24"/>
-      <c r="BCJ2" s="23"/>
-      <c r="BCK2" s="24"/>
-      <c r="BCL2" s="23"/>
-      <c r="BCM2" s="24"/>
-      <c r="BCN2" s="23"/>
-      <c r="BCO2" s="24"/>
-      <c r="BCP2" s="23"/>
-      <c r="BCQ2" s="24"/>
-      <c r="BCR2" s="23"/>
-      <c r="BCS2" s="24"/>
-      <c r="BCT2" s="23"/>
-      <c r="BCU2" s="24"/>
-      <c r="BCV2" s="23"/>
-      <c r="BCW2" s="24"/>
-      <c r="BCX2" s="23"/>
-      <c r="BCY2" s="24"/>
-      <c r="BCZ2" s="23"/>
-      <c r="BDA2" s="24"/>
-      <c r="BDB2" s="23"/>
-      <c r="BDC2" s="24"/>
-      <c r="BDD2" s="23"/>
-      <c r="BDE2" s="24"/>
-      <c r="BDF2" s="23"/>
-      <c r="BDG2" s="24"/>
-      <c r="BDH2" s="23"/>
-      <c r="BDI2" s="24"/>
-      <c r="BDJ2" s="23"/>
-      <c r="BDK2" s="24"/>
-      <c r="BDL2" s="23"/>
-      <c r="BDM2" s="24"/>
-      <c r="BDN2" s="23"/>
-      <c r="BDO2" s="24"/>
-      <c r="BDP2" s="23"/>
-      <c r="BDQ2" s="24"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="23"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="23"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="23"/>
+      <c r="CS3" s="24"/>
+      <c r="CT3" s="23"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="23"/>
+      <c r="CW3" s="24"/>
+      <c r="CX3" s="23"/>
+      <c r="CY3" s="24"/>
+      <c r="CZ3" s="23"/>
+      <c r="DA3" s="24"/>
+      <c r="DB3" s="23"/>
+      <c r="DC3" s="24"/>
+      <c r="DD3" s="23"/>
+      <c r="DE3" s="24"/>
+      <c r="DF3" s="23"/>
+      <c r="DG3" s="24"/>
+      <c r="DH3" s="23"/>
+      <c r="DI3" s="24"/>
+      <c r="DJ3" s="23"/>
+      <c r="DK3" s="24"/>
+      <c r="DL3" s="23"/>
+      <c r="DM3" s="24"/>
+      <c r="DN3" s="23"/>
+      <c r="DO3" s="24"/>
+      <c r="DP3" s="23"/>
+      <c r="DQ3" s="24"/>
+      <c r="DR3" s="23"/>
+      <c r="DS3" s="24"/>
+      <c r="DT3" s="23"/>
+      <c r="DU3" s="24"/>
+      <c r="DV3" s="23"/>
+      <c r="DW3" s="24"/>
+      <c r="DX3" s="23"/>
+      <c r="DY3" s="24"/>
+      <c r="DZ3" s="23"/>
+      <c r="EA3" s="24"/>
+      <c r="EB3" s="23"/>
+      <c r="EC3" s="24"/>
+      <c r="ED3" s="23"/>
+      <c r="EE3" s="24"/>
+      <c r="EF3" s="23"/>
+      <c r="EG3" s="24"/>
+      <c r="EH3" s="23"/>
+      <c r="EI3" s="24"/>
+      <c r="EJ3" s="23"/>
+      <c r="EK3" s="24"/>
+      <c r="EL3" s="23"/>
+      <c r="EM3" s="24"/>
+      <c r="EN3" s="23"/>
+      <c r="EO3" s="24"/>
+      <c r="EP3" s="23"/>
+      <c r="EQ3" s="24"/>
+      <c r="ER3" s="23"/>
+      <c r="ES3" s="24"/>
+      <c r="ET3" s="23"/>
+      <c r="EU3" s="24"/>
+      <c r="EV3" s="23"/>
+      <c r="EW3" s="24"/>
+      <c r="EX3" s="23"/>
+      <c r="EY3" s="24"/>
+      <c r="EZ3" s="23"/>
+      <c r="FA3" s="24"/>
+      <c r="FB3" s="23"/>
+      <c r="FC3" s="24"/>
+      <c r="FD3" s="23"/>
+      <c r="FE3" s="24"/>
+      <c r="FF3" s="23"/>
+      <c r="FG3" s="24"/>
+      <c r="FH3" s="23"/>
+      <c r="FI3" s="24"/>
+      <c r="FJ3" s="23"/>
+      <c r="FK3" s="24"/>
+      <c r="FL3" s="23"/>
+      <c r="FM3" s="24"/>
+      <c r="FN3" s="23"/>
+      <c r="FO3" s="24"/>
+      <c r="FP3" s="23"/>
+      <c r="FQ3" s="24"/>
+      <c r="FR3" s="23"/>
+      <c r="FS3" s="24"/>
+      <c r="FT3" s="23"/>
+      <c r="FU3" s="24"/>
+      <c r="FV3" s="23"/>
+      <c r="FW3" s="24"/>
+      <c r="FX3" s="23"/>
+      <c r="FY3" s="24"/>
+      <c r="FZ3" s="23"/>
+      <c r="GA3" s="24"/>
+      <c r="GB3" s="23"/>
+      <c r="GC3" s="24"/>
+      <c r="GD3" s="23"/>
+      <c r="GE3" s="24"/>
+      <c r="GF3" s="23"/>
+      <c r="GG3" s="24"/>
+      <c r="GH3" s="23"/>
+      <c r="GI3" s="24"/>
+      <c r="GJ3" s="23"/>
+      <c r="GK3" s="24"/>
+      <c r="GL3" s="23"/>
+      <c r="GM3" s="24"/>
+      <c r="GN3" s="23"/>
+      <c r="GO3" s="24"/>
+      <c r="GP3" s="23"/>
+      <c r="GQ3" s="24"/>
+      <c r="GR3" s="23"/>
+      <c r="GS3" s="24"/>
+      <c r="GT3" s="23"/>
+      <c r="GU3" s="24"/>
+      <c r="GV3" s="23"/>
+      <c r="GW3" s="24"/>
+      <c r="GX3" s="23"/>
+      <c r="GY3" s="24"/>
+      <c r="GZ3" s="23"/>
+      <c r="HA3" s="24"/>
+      <c r="HB3" s="23"/>
+      <c r="HC3" s="24"/>
+      <c r="HD3" s="23"/>
+      <c r="HE3" s="24"/>
+      <c r="HF3" s="23"/>
+      <c r="HG3" s="24"/>
+      <c r="HH3" s="23"/>
+      <c r="HI3" s="24"/>
+      <c r="HJ3" s="23"/>
+      <c r="HK3" s="24"/>
+      <c r="HL3" s="23"/>
+      <c r="HM3" s="24"/>
+      <c r="HN3" s="23"/>
+      <c r="HO3" s="24"/>
+      <c r="HP3" s="23"/>
+      <c r="HQ3" s="24"/>
+      <c r="HR3" s="23"/>
+      <c r="HS3" s="24"/>
+      <c r="HT3" s="23"/>
+      <c r="HU3" s="24"/>
+      <c r="HV3" s="23"/>
+      <c r="HW3" s="24"/>
+      <c r="HX3" s="23"/>
+      <c r="HY3" s="24"/>
+      <c r="HZ3" s="23"/>
+      <c r="IA3" s="24"/>
+      <c r="IB3" s="23"/>
+      <c r="IC3" s="24"/>
+      <c r="ID3" s="23"/>
+      <c r="IE3" s="24"/>
+      <c r="IF3" s="23"/>
+      <c r="IG3" s="24"/>
+      <c r="IH3" s="23"/>
+      <c r="II3" s="24"/>
+      <c r="IJ3" s="23"/>
+      <c r="IK3" s="24"/>
+      <c r="IL3" s="23"/>
+      <c r="IM3" s="24"/>
+      <c r="IN3" s="23"/>
+      <c r="IO3" s="24"/>
+      <c r="IP3" s="23"/>
+      <c r="IQ3" s="24"/>
+      <c r="IR3" s="23"/>
+      <c r="IS3" s="24"/>
+      <c r="IT3" s="23"/>
+      <c r="IU3" s="24"/>
+      <c r="IV3" s="23"/>
+      <c r="IW3" s="24"/>
+      <c r="IX3" s="23"/>
+      <c r="IY3" s="24"/>
+      <c r="IZ3" s="23"/>
+      <c r="JA3" s="24"/>
+      <c r="JB3" s="23"/>
+      <c r="JC3" s="24"/>
+      <c r="JD3" s="23"/>
+      <c r="JE3" s="24"/>
+      <c r="JF3" s="23"/>
+      <c r="JG3" s="24"/>
+      <c r="JH3" s="23"/>
+      <c r="JI3" s="24"/>
+      <c r="JJ3" s="23"/>
+      <c r="JK3" s="24"/>
+      <c r="JL3" s="23"/>
+      <c r="JM3" s="24"/>
+      <c r="JN3" s="23"/>
+      <c r="JO3" s="24"/>
+      <c r="JP3" s="23"/>
+      <c r="JQ3" s="24"/>
+      <c r="JR3" s="23"/>
+      <c r="JS3" s="24"/>
+      <c r="JT3" s="23"/>
+      <c r="JU3" s="24"/>
+      <c r="JV3" s="23"/>
+      <c r="JW3" s="24"/>
+      <c r="JX3" s="23"/>
+      <c r="JY3" s="24"/>
+      <c r="JZ3" s="23"/>
+      <c r="KA3" s="24"/>
+      <c r="KB3" s="23"/>
+      <c r="KC3" s="24"/>
+      <c r="KD3" s="23"/>
+      <c r="KE3" s="24"/>
+      <c r="KF3" s="23"/>
+      <c r="KG3" s="24"/>
+      <c r="KH3" s="23"/>
+      <c r="KI3" s="24"/>
+      <c r="KJ3" s="23"/>
+      <c r="KK3" s="24"/>
+      <c r="KL3" s="23"/>
+      <c r="KM3" s="24"/>
+      <c r="KN3" s="23"/>
+      <c r="KO3" s="24"/>
+      <c r="KP3" s="23"/>
+      <c r="KQ3" s="24"/>
+      <c r="KR3" s="23"/>
+      <c r="KS3" s="24"/>
+      <c r="KT3" s="23"/>
+      <c r="KU3" s="24"/>
+      <c r="KV3" s="23"/>
+      <c r="KW3" s="24"/>
+      <c r="KX3" s="23"/>
+      <c r="KY3" s="24"/>
+      <c r="KZ3" s="23"/>
+      <c r="LA3" s="24"/>
+      <c r="LB3" s="23"/>
+      <c r="LC3" s="24"/>
+      <c r="LD3" s="23"/>
+      <c r="LE3" s="24"/>
+      <c r="LF3" s="23"/>
+      <c r="LG3" s="24"/>
+      <c r="LH3" s="23"/>
+      <c r="LI3" s="24"/>
+      <c r="LJ3" s="23"/>
+      <c r="LK3" s="24"/>
+      <c r="LL3" s="23"/>
+      <c r="LM3" s="24"/>
+      <c r="LN3" s="23"/>
+      <c r="LO3" s="24"/>
+      <c r="LP3" s="23"/>
+      <c r="LQ3" s="24"/>
+      <c r="LR3" s="23"/>
+      <c r="LS3" s="24"/>
+      <c r="LT3" s="23"/>
+      <c r="LU3" s="24"/>
+      <c r="LV3" s="23"/>
+      <c r="LW3" s="24"/>
+      <c r="LX3" s="23"/>
+      <c r="LY3" s="24"/>
+      <c r="LZ3" s="23"/>
+      <c r="MA3" s="24"/>
+      <c r="MB3" s="23"/>
+      <c r="MC3" s="24"/>
+      <c r="MD3" s="23"/>
+      <c r="ME3" s="24"/>
+      <c r="MF3" s="23"/>
+      <c r="MG3" s="24"/>
+      <c r="MH3" s="23"/>
+      <c r="MI3" s="24"/>
+      <c r="MJ3" s="23"/>
+      <c r="MK3" s="24"/>
+      <c r="ML3" s="23"/>
+      <c r="MM3" s="24"/>
+      <c r="MN3" s="23"/>
+      <c r="MO3" s="24"/>
+      <c r="MP3" s="23"/>
+      <c r="MQ3" s="24"/>
+      <c r="MR3" s="23"/>
+      <c r="MS3" s="24"/>
+      <c r="MT3" s="23"/>
+      <c r="MU3" s="24"/>
+      <c r="MV3" s="23"/>
+      <c r="MW3" s="24"/>
+      <c r="MX3" s="23"/>
+      <c r="MY3" s="24"/>
+      <c r="MZ3" s="23"/>
+      <c r="NA3" s="24"/>
+      <c r="NB3" s="23"/>
+      <c r="NC3" s="24"/>
+      <c r="ND3" s="23"/>
+      <c r="NE3" s="24"/>
+      <c r="NF3" s="23"/>
+      <c r="NG3" s="24"/>
+      <c r="NH3" s="23"/>
+      <c r="NI3" s="24"/>
+      <c r="NJ3" s="23"/>
+      <c r="NK3" s="24"/>
+      <c r="NL3" s="23"/>
+      <c r="NM3" s="24"/>
+      <c r="NN3" s="23"/>
+      <c r="NO3" s="24"/>
+      <c r="NP3" s="23"/>
+      <c r="NQ3" s="24"/>
+      <c r="NR3" s="23"/>
+      <c r="NS3" s="24"/>
+      <c r="NT3" s="23"/>
+      <c r="NU3" s="24"/>
+      <c r="NV3" s="23"/>
+      <c r="NW3" s="24"/>
+      <c r="NX3" s="23"/>
+      <c r="NY3" s="24"/>
+      <c r="NZ3" s="23"/>
+      <c r="OA3" s="24"/>
+      <c r="OB3" s="23"/>
+      <c r="OC3" s="24"/>
+      <c r="OD3" s="23"/>
+      <c r="OE3" s="24"/>
+      <c r="OF3" s="23"/>
+      <c r="OG3" s="24"/>
+      <c r="OH3" s="23"/>
+      <c r="OI3" s="24"/>
+      <c r="OJ3" s="23"/>
+      <c r="OK3" s="24"/>
+      <c r="OL3" s="23"/>
+      <c r="OM3" s="24"/>
+      <c r="ON3" s="23"/>
+      <c r="OO3" s="24"/>
+      <c r="OP3" s="23"/>
+      <c r="OQ3" s="24"/>
+      <c r="OR3" s="23"/>
+      <c r="OS3" s="24"/>
+      <c r="OT3" s="23"/>
+      <c r="OU3" s="24"/>
+      <c r="OV3" s="23"/>
+      <c r="OW3" s="24"/>
+      <c r="OX3" s="23"/>
+      <c r="OY3" s="24"/>
+      <c r="OZ3" s="23"/>
+      <c r="PA3" s="24"/>
+      <c r="PB3" s="23"/>
+      <c r="PC3" s="24"/>
+      <c r="PD3" s="23"/>
+      <c r="PE3" s="24"/>
+      <c r="PF3" s="23"/>
+      <c r="PG3" s="24"/>
+      <c r="PH3" s="23"/>
+      <c r="PI3" s="24"/>
+      <c r="PJ3" s="23"/>
+      <c r="PK3" s="24"/>
+      <c r="PL3" s="23"/>
+      <c r="PM3" s="24"/>
+      <c r="PN3" s="23"/>
+      <c r="PO3" s="24"/>
+      <c r="PP3" s="23"/>
+      <c r="PQ3" s="24"/>
+      <c r="PR3" s="23"/>
+      <c r="PS3" s="24"/>
+      <c r="PT3" s="23"/>
+      <c r="PU3" s="24"/>
+      <c r="PV3" s="23"/>
+      <c r="PW3" s="24"/>
+      <c r="PX3" s="23"/>
+      <c r="PY3" s="24"/>
+      <c r="PZ3" s="23"/>
+      <c r="QA3" s="24"/>
+      <c r="QB3" s="23"/>
+      <c r="QC3" s="24"/>
+      <c r="QD3" s="23"/>
+      <c r="QE3" s="24"/>
+      <c r="QF3" s="23"/>
+      <c r="QG3" s="24"/>
+      <c r="QH3" s="23"/>
+      <c r="QI3" s="24"/>
+      <c r="QJ3" s="23"/>
+      <c r="QK3" s="24"/>
+      <c r="QL3" s="23"/>
+      <c r="QM3" s="24"/>
+      <c r="QN3" s="23"/>
+      <c r="QO3" s="24"/>
+      <c r="QP3" s="23"/>
+      <c r="QQ3" s="24"/>
+      <c r="QR3" s="23"/>
+      <c r="QS3" s="24"/>
+      <c r="QT3" s="23"/>
+      <c r="QU3" s="24"/>
+      <c r="QV3" s="23"/>
+      <c r="QW3" s="24"/>
+      <c r="QX3" s="23"/>
+      <c r="QY3" s="24"/>
+      <c r="QZ3" s="23"/>
+      <c r="RA3" s="24"/>
+      <c r="RB3" s="23"/>
+      <c r="RC3" s="24"/>
+      <c r="RD3" s="23"/>
+      <c r="RE3" s="24"/>
+      <c r="RF3" s="23"/>
+      <c r="RG3" s="24"/>
+      <c r="RH3" s="23"/>
+      <c r="RI3" s="24"/>
+      <c r="RJ3" s="23"/>
+      <c r="RK3" s="24"/>
+      <c r="RL3" s="23"/>
+      <c r="RM3" s="24"/>
+      <c r="RN3" s="23"/>
+      <c r="RO3" s="24"/>
+      <c r="RP3" s="23"/>
+      <c r="RQ3" s="24"/>
+      <c r="RR3" s="23"/>
+      <c r="RS3" s="24"/>
+      <c r="RT3" s="23"/>
+      <c r="RU3" s="24"/>
+      <c r="RV3" s="23"/>
+      <c r="RW3" s="24"/>
+      <c r="RX3" s="23"/>
+      <c r="RY3" s="24"/>
+      <c r="RZ3" s="23"/>
+      <c r="SA3" s="24"/>
+      <c r="SB3" s="23"/>
+      <c r="SC3" s="24"/>
+      <c r="SD3" s="23"/>
+      <c r="SE3" s="24"/>
+      <c r="SF3" s="23"/>
+      <c r="SG3" s="24"/>
+      <c r="SH3" s="23"/>
+      <c r="SI3" s="24"/>
+      <c r="SJ3" s="23"/>
+      <c r="SK3" s="24"/>
+      <c r="SL3" s="23"/>
+      <c r="SM3" s="24"/>
+      <c r="SN3" s="23"/>
+      <c r="SO3" s="24"/>
+      <c r="SP3" s="23"/>
+      <c r="SQ3" s="24"/>
+      <c r="SR3" s="23"/>
+      <c r="SS3" s="24"/>
+      <c r="ST3" s="23"/>
+      <c r="SU3" s="24"/>
+      <c r="SV3" s="23"/>
+      <c r="SW3" s="24"/>
+      <c r="SX3" s="23"/>
+      <c r="SY3" s="24"/>
+      <c r="SZ3" s="23"/>
+      <c r="TA3" s="24"/>
+      <c r="TB3" s="23"/>
+      <c r="TC3" s="24"/>
+      <c r="TD3" s="23"/>
+      <c r="TE3" s="24"/>
+      <c r="TF3" s="23"/>
+      <c r="TG3" s="24"/>
+      <c r="TH3" s="23"/>
+      <c r="TI3" s="24"/>
+      <c r="TJ3" s="23"/>
+      <c r="TK3" s="24"/>
+      <c r="TL3" s="23"/>
+      <c r="TM3" s="24"/>
+      <c r="TN3" s="23"/>
+      <c r="TO3" s="24"/>
+      <c r="TP3" s="23"/>
+      <c r="TQ3" s="24"/>
+      <c r="TR3" s="23"/>
+      <c r="TS3" s="24"/>
+      <c r="TT3" s="23"/>
+      <c r="TU3" s="24"/>
+      <c r="TV3" s="23"/>
+      <c r="TW3" s="24"/>
+      <c r="TX3" s="23"/>
+      <c r="TY3" s="24"/>
+      <c r="TZ3" s="23"/>
+      <c r="UA3" s="24"/>
+      <c r="UB3" s="23"/>
+      <c r="UC3" s="24"/>
+      <c r="UD3" s="23"/>
+      <c r="UE3" s="24"/>
+      <c r="UF3" s="23"/>
+      <c r="UG3" s="24"/>
+      <c r="UH3" s="23"/>
+      <c r="UI3" s="24"/>
+      <c r="UJ3" s="23"/>
+      <c r="UK3" s="24"/>
+      <c r="UL3" s="23"/>
+      <c r="UM3" s="24"/>
+      <c r="UN3" s="23"/>
+      <c r="UO3" s="24"/>
+      <c r="UP3" s="23"/>
+      <c r="UQ3" s="24"/>
+      <c r="UR3" s="23"/>
+      <c r="US3" s="24"/>
+      <c r="UT3" s="23"/>
+      <c r="UU3" s="24"/>
+      <c r="UV3" s="23"/>
+      <c r="UW3" s="24"/>
+      <c r="UX3" s="23"/>
+      <c r="UY3" s="24"/>
+      <c r="UZ3" s="23"/>
+      <c r="VA3" s="24"/>
+      <c r="VB3" s="23"/>
+      <c r="VC3" s="24"/>
+      <c r="VD3" s="23"/>
+      <c r="VE3" s="24"/>
+      <c r="VF3" s="23"/>
+      <c r="VG3" s="24"/>
+      <c r="VH3" s="23"/>
+      <c r="VI3" s="24"/>
+      <c r="VJ3" s="23"/>
+      <c r="VK3" s="24"/>
+      <c r="VL3" s="23"/>
+      <c r="VM3" s="24"/>
+      <c r="VN3" s="23"/>
+      <c r="VO3" s="24"/>
+      <c r="VP3" s="23"/>
+      <c r="VQ3" s="24"/>
+      <c r="VR3" s="23"/>
+      <c r="VS3" s="24"/>
+      <c r="VT3" s="23"/>
+      <c r="VU3" s="24"/>
+      <c r="VV3" s="23"/>
+      <c r="VW3" s="24"/>
+      <c r="VX3" s="23"/>
+      <c r="VY3" s="24"/>
+      <c r="VZ3" s="23"/>
+      <c r="WA3" s="24"/>
+      <c r="WB3" s="23"/>
+      <c r="WC3" s="24"/>
+      <c r="WD3" s="23"/>
+      <c r="WE3" s="24"/>
+      <c r="WF3" s="23"/>
+      <c r="WG3" s="24"/>
+      <c r="WH3" s="23"/>
+      <c r="WI3" s="24"/>
+      <c r="WJ3" s="23"/>
+      <c r="WK3" s="24"/>
+      <c r="WL3" s="23"/>
+      <c r="WM3" s="24"/>
+      <c r="WN3" s="23"/>
+      <c r="WO3" s="24"/>
+      <c r="WP3" s="23"/>
+      <c r="WQ3" s="24"/>
+      <c r="WR3" s="23"/>
+      <c r="WS3" s="24"/>
+      <c r="WT3" s="23"/>
+      <c r="WU3" s="24"/>
+      <c r="WV3" s="23"/>
+      <c r="WW3" s="24"/>
+      <c r="WX3" s="23"/>
+      <c r="WY3" s="24"/>
+      <c r="WZ3" s="23"/>
+      <c r="XA3" s="24"/>
+      <c r="XB3" s="23"/>
+      <c r="XC3" s="24"/>
+      <c r="XD3" s="23"/>
+      <c r="XE3" s="24"/>
+      <c r="XF3" s="23"/>
+      <c r="XG3" s="24"/>
+      <c r="XH3" s="23"/>
+      <c r="XI3" s="24"/>
+      <c r="XJ3" s="23"/>
+      <c r="XK3" s="24"/>
+      <c r="XL3" s="23"/>
+      <c r="XM3" s="24"/>
+      <c r="XN3" s="23"/>
+      <c r="XO3" s="24"/>
+      <c r="XP3" s="23"/>
+      <c r="XQ3" s="24"/>
+      <c r="XR3" s="23"/>
+      <c r="XS3" s="24"/>
+      <c r="XT3" s="23"/>
+      <c r="XU3" s="24"/>
+      <c r="XV3" s="23"/>
+      <c r="XW3" s="24"/>
+      <c r="XX3" s="23"/>
+      <c r="XY3" s="24"/>
+      <c r="XZ3" s="23"/>
+      <c r="YA3" s="24"/>
+      <c r="YB3" s="23"/>
+      <c r="YC3" s="24"/>
+      <c r="YD3" s="23"/>
+      <c r="YE3" s="24"/>
+      <c r="YF3" s="23"/>
+      <c r="YG3" s="24"/>
+      <c r="YH3" s="23"/>
+      <c r="YI3" s="24"/>
+      <c r="YJ3" s="23"/>
+      <c r="YK3" s="24"/>
+      <c r="YL3" s="23"/>
+      <c r="YM3" s="24"/>
+      <c r="YN3" s="23"/>
+      <c r="YO3" s="24"/>
+      <c r="YP3" s="23"/>
+      <c r="YQ3" s="24"/>
+      <c r="YR3" s="23"/>
+      <c r="YS3" s="24"/>
+      <c r="YT3" s="23"/>
+      <c r="YU3" s="24"/>
+      <c r="YV3" s="23"/>
+      <c r="YW3" s="24"/>
+      <c r="YX3" s="23"/>
+      <c r="YY3" s="24"/>
+      <c r="YZ3" s="23"/>
+      <c r="ZA3" s="24"/>
+      <c r="ZB3" s="23"/>
+      <c r="ZC3" s="24"/>
+      <c r="ZD3" s="23"/>
+      <c r="ZE3" s="24"/>
+      <c r="ZF3" s="23"/>
+      <c r="ZG3" s="24"/>
+      <c r="ZH3" s="23"/>
+      <c r="ZI3" s="24"/>
+      <c r="ZJ3" s="23"/>
+      <c r="ZK3" s="24"/>
+      <c r="ZL3" s="23"/>
+      <c r="ZM3" s="24"/>
+      <c r="ZN3" s="23"/>
+      <c r="ZO3" s="24"/>
+      <c r="ZP3" s="23"/>
+      <c r="ZQ3" s="24"/>
+      <c r="ZR3" s="23"/>
+      <c r="ZS3" s="24"/>
+      <c r="ZT3" s="23"/>
+      <c r="ZU3" s="24"/>
+      <c r="ZV3" s="23"/>
+      <c r="ZW3" s="24"/>
+      <c r="ZX3" s="23"/>
+      <c r="ZY3" s="24"/>
+      <c r="ZZ3" s="23"/>
+      <c r="AAA3" s="24"/>
+      <c r="AAB3" s="23"/>
+      <c r="AAC3" s="24"/>
+      <c r="AAD3" s="23"/>
+      <c r="AAE3" s="24"/>
+      <c r="AAF3" s="23"/>
+      <c r="AAG3" s="24"/>
+      <c r="AAH3" s="23"/>
+      <c r="AAI3" s="24"/>
+      <c r="AAJ3" s="23"/>
+      <c r="AAK3" s="24"/>
+      <c r="AAL3" s="23"/>
+      <c r="AAM3" s="24"/>
+      <c r="AAN3" s="23"/>
+      <c r="AAO3" s="24"/>
+      <c r="AAP3" s="23"/>
+      <c r="AAQ3" s="24"/>
+      <c r="AAR3" s="23"/>
+      <c r="AAS3" s="24"/>
+      <c r="AAT3" s="23"/>
+      <c r="AAU3" s="24"/>
+      <c r="AAV3" s="23"/>
+      <c r="AAW3" s="24"/>
+      <c r="AAX3" s="23"/>
+      <c r="AAY3" s="24"/>
+      <c r="AAZ3" s="23"/>
+      <c r="ABA3" s="24"/>
+      <c r="ABB3" s="23"/>
+      <c r="ABC3" s="24"/>
+      <c r="ABD3" s="23"/>
+      <c r="ABE3" s="24"/>
+      <c r="ABF3" s="23"/>
+      <c r="ABG3" s="24"/>
+      <c r="ABH3" s="23"/>
+      <c r="ABI3" s="24"/>
+      <c r="ABJ3" s="23"/>
+      <c r="ABK3" s="24"/>
+      <c r="ABL3" s="23"/>
+      <c r="ABM3" s="24"/>
+      <c r="ABN3" s="23"/>
+      <c r="ABO3" s="24"/>
+      <c r="ABP3" s="23"/>
+      <c r="ABQ3" s="24"/>
+      <c r="ABR3" s="23"/>
+      <c r="ABS3" s="24"/>
+      <c r="ABT3" s="23"/>
+      <c r="ABU3" s="24"/>
+      <c r="ABV3" s="23"/>
+      <c r="ABW3" s="24"/>
+      <c r="ABX3" s="23"/>
+      <c r="ABY3" s="24"/>
+      <c r="ABZ3" s="23"/>
+      <c r="ACA3" s="24"/>
+      <c r="ACB3" s="23"/>
+      <c r="ACC3" s="24"/>
+      <c r="ACD3" s="23"/>
+      <c r="ACE3" s="24"/>
+      <c r="ACF3" s="23"/>
+      <c r="ACG3" s="24"/>
+      <c r="ACH3" s="23"/>
+      <c r="ACI3" s="24"/>
+      <c r="ACJ3" s="23"/>
+      <c r="ACK3" s="24"/>
+      <c r="ACL3" s="23"/>
+      <c r="ACM3" s="24"/>
+      <c r="ACN3" s="23"/>
+      <c r="ACO3" s="24"/>
+      <c r="ACP3" s="23"/>
+      <c r="ACQ3" s="24"/>
+      <c r="ACR3" s="23"/>
+      <c r="ACS3" s="24"/>
+      <c r="ACT3" s="23"/>
+      <c r="ACU3" s="24"/>
+      <c r="ACV3" s="23"/>
+      <c r="ACW3" s="24"/>
+      <c r="ACX3" s="23"/>
+      <c r="ACY3" s="24"/>
+      <c r="ACZ3" s="23"/>
+      <c r="ADA3" s="24"/>
+      <c r="ADB3" s="23"/>
+      <c r="ADC3" s="24"/>
+      <c r="ADD3" s="23"/>
+      <c r="ADE3" s="24"/>
+      <c r="ADF3" s="23"/>
+      <c r="ADG3" s="24"/>
+      <c r="ADH3" s="23"/>
+      <c r="ADI3" s="24"/>
+      <c r="ADJ3" s="23"/>
+      <c r="ADK3" s="24"/>
+      <c r="ADL3" s="23"/>
+      <c r="ADM3" s="24"/>
+      <c r="ADN3" s="23"/>
+      <c r="ADO3" s="24"/>
+      <c r="ADP3" s="23"/>
+      <c r="ADQ3" s="24"/>
+      <c r="ADR3" s="23"/>
+      <c r="ADS3" s="24"/>
+      <c r="ADT3" s="23"/>
+      <c r="ADU3" s="24"/>
+      <c r="ADV3" s="23"/>
+      <c r="ADW3" s="24"/>
+      <c r="ADX3" s="23"/>
+      <c r="ADY3" s="24"/>
+      <c r="ADZ3" s="23"/>
+      <c r="AEA3" s="24"/>
+      <c r="AEB3" s="23"/>
+      <c r="AEC3" s="24"/>
+      <c r="AED3" s="23"/>
+      <c r="AEE3" s="24"/>
+      <c r="AEF3" s="23"/>
+      <c r="AEG3" s="24"/>
+      <c r="AEH3" s="23"/>
+      <c r="AEI3" s="24"/>
+      <c r="AEJ3" s="23"/>
+      <c r="AEK3" s="24"/>
+      <c r="AEL3" s="23"/>
+      <c r="AEM3" s="24"/>
+      <c r="AEN3" s="23"/>
+      <c r="AEO3" s="24"/>
+      <c r="AEP3" s="23"/>
+      <c r="AEQ3" s="24"/>
+      <c r="AER3" s="23"/>
+      <c r="AES3" s="24"/>
+      <c r="AET3" s="23"/>
+      <c r="AEU3" s="24"/>
+      <c r="AEV3" s="23"/>
+      <c r="AEW3" s="24"/>
+      <c r="AEX3" s="23"/>
+      <c r="AEY3" s="24"/>
+      <c r="AEZ3" s="23"/>
+      <c r="AFA3" s="24"/>
+      <c r="AFB3" s="23"/>
+      <c r="AFC3" s="24"/>
+      <c r="AFD3" s="23"/>
+      <c r="AFE3" s="24"/>
+      <c r="AFF3" s="23"/>
+      <c r="AFG3" s="24"/>
+      <c r="AFH3" s="23"/>
+      <c r="AFI3" s="24"/>
+      <c r="AFJ3" s="23"/>
+      <c r="AFK3" s="24"/>
+      <c r="AFL3" s="23"/>
+      <c r="AFM3" s="24"/>
+      <c r="AFN3" s="23"/>
+      <c r="AFO3" s="24"/>
+      <c r="AFP3" s="23"/>
+      <c r="AFQ3" s="24"/>
+      <c r="AFR3" s="23"/>
+      <c r="AFS3" s="24"/>
+      <c r="AFT3" s="23"/>
+      <c r="AFU3" s="24"/>
+      <c r="AFV3" s="23"/>
+      <c r="AFW3" s="24"/>
+      <c r="AFX3" s="23"/>
+      <c r="AFY3" s="24"/>
+      <c r="AFZ3" s="23"/>
+      <c r="AGA3" s="24"/>
+      <c r="AGB3" s="23"/>
+      <c r="AGC3" s="24"/>
+      <c r="AGD3" s="23"/>
+      <c r="AGE3" s="24"/>
+      <c r="AGF3" s="23"/>
+      <c r="AGG3" s="24"/>
+      <c r="AGH3" s="23"/>
+      <c r="AGI3" s="24"/>
+      <c r="AGJ3" s="23"/>
+      <c r="AGK3" s="24"/>
+      <c r="AGL3" s="23"/>
+      <c r="AGM3" s="24"/>
+      <c r="AGN3" s="23"/>
+      <c r="AGO3" s="24"/>
+      <c r="AGP3" s="23"/>
+      <c r="AGQ3" s="24"/>
+      <c r="AGR3" s="23"/>
+      <c r="AGS3" s="24"/>
+      <c r="AGT3" s="23"/>
+      <c r="AGU3" s="24"/>
+      <c r="AGV3" s="23"/>
+      <c r="AGW3" s="24"/>
+      <c r="AGX3" s="23"/>
+      <c r="AGY3" s="24"/>
+      <c r="AGZ3" s="23"/>
+      <c r="AHA3" s="24"/>
+      <c r="AHB3" s="23"/>
+      <c r="AHC3" s="24"/>
+      <c r="AHD3" s="23"/>
+      <c r="AHE3" s="24"/>
+      <c r="AHF3" s="23"/>
+      <c r="AHG3" s="24"/>
+      <c r="AHH3" s="23"/>
+      <c r="AHI3" s="24"/>
+      <c r="AHJ3" s="23"/>
+      <c r="AHK3" s="24"/>
+      <c r="AHL3" s="23"/>
+      <c r="AHM3" s="24"/>
+      <c r="AHN3" s="23"/>
+      <c r="AHO3" s="24"/>
+      <c r="AHP3" s="23"/>
+      <c r="AHQ3" s="24"/>
+      <c r="AHR3" s="23"/>
+      <c r="AHS3" s="24"/>
+      <c r="AHT3" s="23"/>
+      <c r="AHU3" s="24"/>
+      <c r="AHV3" s="23"/>
+      <c r="AHW3" s="24"/>
+      <c r="AHX3" s="23"/>
+      <c r="AHY3" s="24"/>
+      <c r="AHZ3" s="23"/>
+      <c r="AIA3" s="24"/>
+      <c r="AIB3" s="23"/>
+      <c r="AIC3" s="24"/>
+      <c r="AID3" s="23"/>
+      <c r="AIE3" s="24"/>
+      <c r="AIF3" s="23"/>
+      <c r="AIG3" s="24"/>
+      <c r="AIH3" s="23"/>
+      <c r="AII3" s="24"/>
+      <c r="AIJ3" s="23"/>
+      <c r="AIK3" s="24"/>
+      <c r="AIL3" s="23"/>
+      <c r="AIM3" s="24"/>
+      <c r="AIN3" s="23"/>
+      <c r="AIO3" s="24"/>
+      <c r="AIP3" s="23"/>
+      <c r="AIQ3" s="24"/>
+      <c r="AIR3" s="23"/>
+      <c r="AIS3" s="24"/>
+      <c r="AIT3" s="23"/>
+      <c r="AIU3" s="24"/>
+      <c r="AIV3" s="23"/>
+      <c r="AIW3" s="24"/>
+      <c r="AIX3" s="23"/>
+      <c r="AIY3" s="24"/>
+      <c r="AIZ3" s="23"/>
+      <c r="AJA3" s="24"/>
+      <c r="AJB3" s="23"/>
+      <c r="AJC3" s="24"/>
+      <c r="AJD3" s="23"/>
+      <c r="AJE3" s="24"/>
+      <c r="AJF3" s="23"/>
+      <c r="AJG3" s="24"/>
+      <c r="AJH3" s="23"/>
+      <c r="AJI3" s="24"/>
+      <c r="AJJ3" s="23"/>
+      <c r="AJK3" s="24"/>
+      <c r="AJL3" s="23"/>
+      <c r="AJM3" s="24"/>
+      <c r="AJN3" s="23"/>
+      <c r="AJO3" s="24"/>
+      <c r="AJP3" s="23"/>
+      <c r="AJQ3" s="24"/>
+      <c r="AJR3" s="23"/>
+      <c r="AJS3" s="24"/>
+      <c r="AJT3" s="23"/>
+      <c r="AJU3" s="24"/>
+      <c r="AJV3" s="23"/>
+      <c r="AJW3" s="24"/>
+      <c r="AJX3" s="23"/>
+      <c r="AJY3" s="24"/>
+      <c r="AJZ3" s="23"/>
+      <c r="AKA3" s="24"/>
+      <c r="AKB3" s="23"/>
+      <c r="AKC3" s="24"/>
+      <c r="AKD3" s="23"/>
+      <c r="AKE3" s="24"/>
+      <c r="AKF3" s="23"/>
+      <c r="AKG3" s="24"/>
+      <c r="AKH3" s="23"/>
+      <c r="AKI3" s="24"/>
+      <c r="AKJ3" s="23"/>
+      <c r="AKK3" s="24"/>
+      <c r="AKL3" s="23"/>
+      <c r="AKM3" s="24"/>
+      <c r="AKN3" s="23"/>
+      <c r="AKO3" s="24"/>
+      <c r="AKP3" s="23"/>
+      <c r="AKQ3" s="24"/>
+      <c r="AKR3" s="23"/>
+      <c r="AKS3" s="24"/>
+      <c r="AKT3" s="23"/>
+      <c r="AKU3" s="24"/>
+      <c r="AKV3" s="23"/>
+      <c r="AKW3" s="24"/>
+      <c r="AKX3" s="23"/>
+      <c r="AKY3" s="24"/>
+      <c r="AKZ3" s="23"/>
+      <c r="ALA3" s="24"/>
+      <c r="ALB3" s="23"/>
+      <c r="ALC3" s="24"/>
+      <c r="ALD3" s="23"/>
+      <c r="ALE3" s="24"/>
+      <c r="ALF3" s="23"/>
+      <c r="ALG3" s="24"/>
+      <c r="ALH3" s="23"/>
+      <c r="ALI3" s="24"/>
+      <c r="ALJ3" s="23"/>
+      <c r="ALK3" s="24"/>
+      <c r="ALL3" s="23"/>
+      <c r="ALM3" s="24"/>
+      <c r="ALN3" s="23"/>
+      <c r="ALO3" s="24"/>
+      <c r="ALP3" s="23"/>
+      <c r="ALQ3" s="24"/>
+      <c r="ALR3" s="23"/>
+      <c r="ALS3" s="24"/>
+      <c r="ALT3" s="23"/>
+      <c r="ALU3" s="24"/>
+      <c r="ALV3" s="23"/>
+      <c r="ALW3" s="24"/>
+      <c r="ALX3" s="23"/>
+      <c r="ALY3" s="24"/>
+      <c r="ALZ3" s="23"/>
+      <c r="AMA3" s="24"/>
+      <c r="AMB3" s="23"/>
+      <c r="AMC3" s="24"/>
+      <c r="AMD3" s="23"/>
+      <c r="AME3" s="24"/>
+      <c r="AMF3" s="23"/>
+      <c r="AMG3" s="24"/>
+      <c r="AMH3" s="23"/>
+      <c r="AMI3" s="24"/>
+      <c r="AMJ3" s="23"/>
+      <c r="AMK3" s="24"/>
+      <c r="AML3" s="23"/>
+      <c r="AMM3" s="24"/>
+      <c r="AMN3" s="23"/>
+      <c r="AMO3" s="24"/>
+      <c r="AMP3" s="23"/>
+      <c r="AMQ3" s="24"/>
+      <c r="AMR3" s="23"/>
+      <c r="AMS3" s="24"/>
+      <c r="AMT3" s="23"/>
+      <c r="AMU3" s="24"/>
+      <c r="AMV3" s="23"/>
+      <c r="AMW3" s="24"/>
+      <c r="AMX3" s="23"/>
+      <c r="AMY3" s="24"/>
+      <c r="AMZ3" s="23"/>
+      <c r="ANA3" s="24"/>
+      <c r="ANB3" s="23"/>
+      <c r="ANC3" s="24"/>
+      <c r="AND3" s="23"/>
+      <c r="ANE3" s="24"/>
+      <c r="ANF3" s="23"/>
+      <c r="ANG3" s="24"/>
+      <c r="ANH3" s="23"/>
+      <c r="ANI3" s="24"/>
+      <c r="ANJ3" s="23"/>
+      <c r="ANK3" s="24"/>
+      <c r="ANL3" s="23"/>
+      <c r="ANM3" s="24"/>
+      <c r="ANN3" s="23"/>
+      <c r="ANO3" s="24"/>
+      <c r="ANP3" s="23"/>
+      <c r="ANQ3" s="24"/>
+      <c r="ANR3" s="23"/>
+      <c r="ANS3" s="24"/>
+      <c r="ANT3" s="23"/>
+      <c r="ANU3" s="24"/>
+      <c r="ANV3" s="23"/>
+      <c r="ANW3" s="24"/>
+      <c r="ANX3" s="23"/>
+      <c r="ANY3" s="24"/>
+      <c r="ANZ3" s="23"/>
+      <c r="AOA3" s="24"/>
+      <c r="AOB3" s="23"/>
+      <c r="AOC3" s="24"/>
+      <c r="AOD3" s="23"/>
+      <c r="AOE3" s="24"/>
+      <c r="AOF3" s="23"/>
+      <c r="AOG3" s="24"/>
+      <c r="AOH3" s="23"/>
+      <c r="AOI3" s="24"/>
+      <c r="AOJ3" s="23"/>
+      <c r="AOK3" s="24"/>
+      <c r="AOL3" s="23"/>
+      <c r="AOM3" s="24"/>
+      <c r="AON3" s="23"/>
+      <c r="AOO3" s="24"/>
+      <c r="AOP3" s="23"/>
+      <c r="AOQ3" s="24"/>
+      <c r="AOR3" s="23"/>
+      <c r="AOS3" s="24"/>
+      <c r="AOT3" s="23"/>
+      <c r="AOU3" s="24"/>
+      <c r="AOV3" s="23"/>
+      <c r="AOW3" s="24"/>
+      <c r="AOX3" s="23"/>
+      <c r="AOY3" s="24"/>
+      <c r="AOZ3" s="23"/>
+      <c r="APA3" s="24"/>
+      <c r="APB3" s="23"/>
+      <c r="APC3" s="24"/>
+      <c r="APD3" s="23"/>
+      <c r="APE3" s="24"/>
+      <c r="APF3" s="23"/>
+      <c r="APG3" s="24"/>
+      <c r="APH3" s="23"/>
+      <c r="API3" s="24"/>
+      <c r="APJ3" s="23"/>
+      <c r="APK3" s="24"/>
+      <c r="APL3" s="23"/>
+      <c r="APM3" s="24"/>
+      <c r="APN3" s="23"/>
+      <c r="APO3" s="24"/>
+      <c r="APP3" s="23"/>
+      <c r="APQ3" s="24"/>
+      <c r="APR3" s="23"/>
+      <c r="APS3" s="24"/>
+      <c r="APT3" s="23"/>
+      <c r="APU3" s="24"/>
+      <c r="APV3" s="23"/>
+      <c r="APW3" s="24"/>
+      <c r="APX3" s="23"/>
+      <c r="APY3" s="24"/>
+      <c r="APZ3" s="23"/>
+      <c r="AQA3" s="24"/>
+      <c r="AQB3" s="23"/>
+      <c r="AQC3" s="24"/>
+      <c r="AQD3" s="23"/>
+      <c r="AQE3" s="24"/>
+      <c r="AQF3" s="23"/>
+      <c r="AQG3" s="24"/>
+      <c r="AQH3" s="23"/>
+      <c r="AQI3" s="24"/>
+      <c r="AQJ3" s="23"/>
+      <c r="AQK3" s="24"/>
+      <c r="AQL3" s="23"/>
+      <c r="AQM3" s="24"/>
+      <c r="AQN3" s="23"/>
+      <c r="AQO3" s="24"/>
+      <c r="AQP3" s="23"/>
+      <c r="AQQ3" s="24"/>
+      <c r="AQR3" s="23"/>
+      <c r="AQS3" s="24"/>
+      <c r="AQT3" s="23"/>
+      <c r="AQU3" s="24"/>
+      <c r="AQV3" s="23"/>
+      <c r="AQW3" s="24"/>
+      <c r="AQX3" s="23"/>
+      <c r="AQY3" s="24"/>
+      <c r="AQZ3" s="23"/>
+      <c r="ARA3" s="24"/>
+      <c r="ARB3" s="23"/>
+      <c r="ARC3" s="24"/>
+      <c r="ARD3" s="23"/>
+      <c r="ARE3" s="24"/>
+      <c r="ARF3" s="23"/>
+      <c r="ARG3" s="24"/>
+      <c r="ARH3" s="23"/>
+      <c r="ARI3" s="24"/>
+      <c r="ARJ3" s="23"/>
+      <c r="ARK3" s="24"/>
+      <c r="ARL3" s="23"/>
+      <c r="ARM3" s="24"/>
+      <c r="ARN3" s="23"/>
+      <c r="ARO3" s="24"/>
+      <c r="ARP3" s="23"/>
+      <c r="ARQ3" s="24"/>
+      <c r="ARR3" s="23"/>
+      <c r="ARS3" s="24"/>
+      <c r="ART3" s="23"/>
+      <c r="ARU3" s="24"/>
+      <c r="ARV3" s="23"/>
+      <c r="ARW3" s="24"/>
+      <c r="ARX3" s="23"/>
+      <c r="ARY3" s="24"/>
+      <c r="ARZ3" s="23"/>
+      <c r="ASA3" s="24"/>
+      <c r="ASB3" s="23"/>
+      <c r="ASC3" s="24"/>
+      <c r="ASD3" s="23"/>
+      <c r="ASE3" s="24"/>
+      <c r="ASF3" s="23"/>
+      <c r="ASG3" s="24"/>
+      <c r="ASH3" s="23"/>
+      <c r="ASI3" s="24"/>
+      <c r="ASJ3" s="23"/>
+      <c r="ASK3" s="24"/>
+      <c r="ASL3" s="23"/>
+      <c r="ASM3" s="24"/>
+      <c r="ASN3" s="23"/>
+      <c r="ASO3" s="24"/>
+      <c r="ASP3" s="23"/>
+      <c r="ASQ3" s="24"/>
+      <c r="ASR3" s="23"/>
+      <c r="ASS3" s="24"/>
+      <c r="AST3" s="23"/>
+      <c r="ASU3" s="24"/>
+      <c r="ASV3" s="23"/>
+      <c r="ASW3" s="24"/>
+      <c r="ASX3" s="23"/>
+      <c r="ASY3" s="24"/>
+      <c r="ASZ3" s="23"/>
+      <c r="ATA3" s="24"/>
+      <c r="ATB3" s="23"/>
+      <c r="ATC3" s="24"/>
+      <c r="ATD3" s="23"/>
+      <c r="ATE3" s="24"/>
+      <c r="ATF3" s="23"/>
+      <c r="ATG3" s="24"/>
+      <c r="ATH3" s="23"/>
+      <c r="ATI3" s="24"/>
+      <c r="ATJ3" s="23"/>
+      <c r="ATK3" s="24"/>
+      <c r="ATL3" s="23"/>
+      <c r="ATM3" s="24"/>
+      <c r="ATN3" s="23"/>
+      <c r="ATO3" s="24"/>
+      <c r="ATP3" s="23"/>
+      <c r="ATQ3" s="24"/>
+      <c r="ATR3" s="23"/>
+      <c r="ATS3" s="24"/>
+      <c r="ATT3" s="23"/>
+      <c r="ATU3" s="24"/>
+      <c r="ATV3" s="23"/>
+      <c r="ATW3" s="24"/>
+      <c r="ATX3" s="23"/>
+      <c r="ATY3" s="24"/>
+      <c r="ATZ3" s="23"/>
+      <c r="AUA3" s="24"/>
+      <c r="AUB3" s="23"/>
+      <c r="AUC3" s="24"/>
+      <c r="AUD3" s="23"/>
+      <c r="AUE3" s="24"/>
+      <c r="AUF3" s="23"/>
+      <c r="AUG3" s="24"/>
+      <c r="AUH3" s="23"/>
+      <c r="AUI3" s="24"/>
+      <c r="AUJ3" s="23"/>
+      <c r="AUK3" s="24"/>
+      <c r="AUL3" s="23"/>
+      <c r="AUM3" s="24"/>
+      <c r="AUN3" s="23"/>
+      <c r="AUO3" s="24"/>
+      <c r="AUP3" s="23"/>
+      <c r="AUQ3" s="24"/>
+      <c r="AUR3" s="23"/>
+      <c r="AUS3" s="24"/>
+      <c r="AUT3" s="23"/>
+      <c r="AUU3" s="24"/>
+      <c r="AUV3" s="23"/>
+      <c r="AUW3" s="24"/>
+      <c r="AUX3" s="23"/>
+      <c r="AUY3" s="24"/>
+      <c r="AUZ3" s="23"/>
+      <c r="AVA3" s="24"/>
+      <c r="AVB3" s="23"/>
+      <c r="AVC3" s="24"/>
+      <c r="AVD3" s="23"/>
+      <c r="AVE3" s="24"/>
+      <c r="AVF3" s="23"/>
+      <c r="AVG3" s="24"/>
+      <c r="AVH3" s="23"/>
+      <c r="AVI3" s="24"/>
+      <c r="AVJ3" s="23"/>
+      <c r="AVK3" s="24"/>
+      <c r="AVL3" s="23"/>
+      <c r="AVM3" s="24"/>
+      <c r="AVN3" s="23"/>
+      <c r="AVO3" s="24"/>
+      <c r="AVP3" s="23"/>
+      <c r="AVQ3" s="24"/>
+      <c r="AVR3" s="23"/>
+      <c r="AVS3" s="24"/>
+      <c r="AVT3" s="23"/>
+      <c r="AVU3" s="24"/>
+      <c r="AVV3" s="23"/>
+      <c r="AVW3" s="24"/>
+      <c r="AVX3" s="23"/>
+      <c r="AVY3" s="24"/>
+      <c r="AVZ3" s="23"/>
+      <c r="AWA3" s="24"/>
+      <c r="AWB3" s="23"/>
+      <c r="AWC3" s="24"/>
+      <c r="AWD3" s="23"/>
+      <c r="AWE3" s="24"/>
+      <c r="AWF3" s="23"/>
+      <c r="AWG3" s="24"/>
+      <c r="AWH3" s="23"/>
+      <c r="AWI3" s="24"/>
+      <c r="AWJ3" s="23"/>
+      <c r="AWK3" s="24"/>
+      <c r="AWL3" s="23"/>
+      <c r="AWM3" s="24"/>
+      <c r="AWN3" s="23"/>
+      <c r="AWO3" s="24"/>
+      <c r="AWP3" s="23"/>
+      <c r="AWQ3" s="24"/>
+      <c r="AWR3" s="23"/>
+      <c r="AWS3" s="24"/>
+      <c r="AWT3" s="23"/>
+      <c r="AWU3" s="24"/>
+      <c r="AWV3" s="23"/>
+      <c r="AWW3" s="24"/>
+      <c r="AWX3" s="23"/>
+      <c r="AWY3" s="24"/>
+      <c r="AWZ3" s="23"/>
+      <c r="AXA3" s="24"/>
+      <c r="AXB3" s="23"/>
+      <c r="AXC3" s="24"/>
+      <c r="AXD3" s="23"/>
+      <c r="AXE3" s="24"/>
+      <c r="AXF3" s="23"/>
+      <c r="AXG3" s="24"/>
+      <c r="AXH3" s="23"/>
+      <c r="AXI3" s="24"/>
+      <c r="AXJ3" s="23"/>
+      <c r="AXK3" s="24"/>
+      <c r="AXL3" s="23"/>
+      <c r="AXM3" s="24"/>
+      <c r="AXN3" s="23"/>
+      <c r="AXO3" s="24"/>
+      <c r="AXP3" s="23"/>
+      <c r="AXQ3" s="24"/>
+      <c r="AXR3" s="23"/>
+      <c r="AXS3" s="24"/>
+      <c r="AXT3" s="23"/>
+      <c r="AXU3" s="24"/>
+      <c r="AXV3" s="23"/>
+      <c r="AXW3" s="24"/>
+      <c r="AXX3" s="23"/>
+      <c r="AXY3" s="24"/>
+      <c r="AXZ3" s="23"/>
+      <c r="AYA3" s="24"/>
+      <c r="AYB3" s="23"/>
+      <c r="AYC3" s="24"/>
+      <c r="AYD3" s="23"/>
+      <c r="AYE3" s="24"/>
+      <c r="AYF3" s="23"/>
+      <c r="AYG3" s="24"/>
+      <c r="AYH3" s="23"/>
+      <c r="AYI3" s="24"/>
+      <c r="AYJ3" s="23"/>
+      <c r="AYK3" s="24"/>
+      <c r="AYL3" s="23"/>
+      <c r="AYM3" s="24"/>
+      <c r="AYN3" s="23"/>
+      <c r="AYO3" s="24"/>
+      <c r="AYP3" s="23"/>
+      <c r="AYQ3" s="24"/>
+      <c r="AYR3" s="23"/>
+      <c r="AYS3" s="24"/>
+      <c r="AYT3" s="23"/>
+      <c r="AYU3" s="24"/>
+      <c r="AYV3" s="23"/>
+      <c r="AYW3" s="24"/>
+      <c r="AYX3" s="23"/>
+      <c r="AYY3" s="24"/>
+      <c r="AYZ3" s="23"/>
+      <c r="AZA3" s="24"/>
+      <c r="AZB3" s="23"/>
+      <c r="AZC3" s="24"/>
+      <c r="AZD3" s="23"/>
+      <c r="AZE3" s="24"/>
+      <c r="AZF3" s="23"/>
+      <c r="AZG3" s="24"/>
+      <c r="AZH3" s="23"/>
+      <c r="AZI3" s="24"/>
+      <c r="AZJ3" s="23"/>
+      <c r="AZK3" s="24"/>
+      <c r="AZL3" s="23"/>
+      <c r="AZM3" s="24"/>
+      <c r="AZN3" s="23"/>
+      <c r="AZO3" s="24"/>
+      <c r="AZP3" s="23"/>
+      <c r="AZQ3" s="24"/>
+      <c r="AZR3" s="23"/>
+      <c r="AZS3" s="24"/>
+      <c r="AZT3" s="23"/>
+      <c r="AZU3" s="24"/>
+      <c r="AZV3" s="23"/>
+      <c r="AZW3" s="24"/>
+      <c r="AZX3" s="23"/>
+      <c r="AZY3" s="24"/>
+      <c r="AZZ3" s="23"/>
+      <c r="BAA3" s="24"/>
+      <c r="BAB3" s="23"/>
+      <c r="BAC3" s="24"/>
+      <c r="BAD3" s="23"/>
+      <c r="BAE3" s="24"/>
+      <c r="BAF3" s="23"/>
+      <c r="BAG3" s="24"/>
+      <c r="BAH3" s="23"/>
+      <c r="BAI3" s="24"/>
+      <c r="BAJ3" s="23"/>
+      <c r="BAK3" s="24"/>
+      <c r="BAL3" s="23"/>
+      <c r="BAM3" s="24"/>
+      <c r="BAN3" s="23"/>
+      <c r="BAO3" s="24"/>
+      <c r="BAP3" s="23"/>
+      <c r="BAQ3" s="24"/>
+      <c r="BAR3" s="23"/>
+      <c r="BAS3" s="24"/>
+      <c r="BAT3" s="23"/>
+      <c r="BAU3" s="24"/>
+      <c r="BAV3" s="23"/>
+      <c r="BAW3" s="24"/>
+      <c r="BAX3" s="23"/>
+      <c r="BAY3" s="24"/>
+      <c r="BAZ3" s="23"/>
+      <c r="BBA3" s="24"/>
+      <c r="BBB3" s="23"/>
+      <c r="BBC3" s="24"/>
+      <c r="BBD3" s="23"/>
+      <c r="BBE3" s="24"/>
+      <c r="BBF3" s="23"/>
+      <c r="BBG3" s="24"/>
+      <c r="BBH3" s="23"/>
+      <c r="BBI3" s="24"/>
+      <c r="BBJ3" s="23"/>
+      <c r="BBK3" s="24"/>
+      <c r="BBL3" s="23"/>
+      <c r="BBM3" s="24"/>
+      <c r="BBN3" s="23"/>
+      <c r="BBO3" s="24"/>
+      <c r="BBP3" s="23"/>
+      <c r="BBQ3" s="24"/>
+      <c r="BBR3" s="23"/>
+      <c r="BBS3" s="24"/>
+      <c r="BBT3" s="23"/>
+      <c r="BBU3" s="24"/>
+      <c r="BBV3" s="23"/>
+      <c r="BBW3" s="24"/>
+      <c r="BBX3" s="23"/>
+      <c r="BBY3" s="24"/>
+      <c r="BBZ3" s="23"/>
+      <c r="BCA3" s="24"/>
+      <c r="BCB3" s="23"/>
+      <c r="BCC3" s="24"/>
+      <c r="BCD3" s="23"/>
+      <c r="BCE3" s="24"/>
+      <c r="BCF3" s="23"/>
+      <c r="BCG3" s="24"/>
+      <c r="BCH3" s="23"/>
+      <c r="BCI3" s="24"/>
+      <c r="BCJ3" s="23"/>
+      <c r="BCK3" s="24"/>
+      <c r="BCL3" s="23"/>
+      <c r="BCM3" s="24"/>
+      <c r="BCN3" s="23"/>
+      <c r="BCO3" s="24"/>
+      <c r="BCP3" s="23"/>
+      <c r="BCQ3" s="24"/>
+      <c r="BCR3" s="23"/>
+      <c r="BCS3" s="24"/>
+      <c r="BCT3" s="23"/>
+      <c r="BCU3" s="24"/>
+      <c r="BCV3" s="23"/>
+      <c r="BCW3" s="24"/>
+      <c r="BCX3" s="23"/>
+      <c r="BCY3" s="24"/>
+      <c r="BCZ3" s="23"/>
+      <c r="BDA3" s="24"/>
+      <c r="BDB3" s="23"/>
+      <c r="BDC3" s="24"/>
+      <c r="BDD3" s="23"/>
+      <c r="BDE3" s="24"/>
+      <c r="BDF3" s="23"/>
+      <c r="BDG3" s="24"/>
+      <c r="BDH3" s="23"/>
+      <c r="BDI3" s="24"/>
+      <c r="BDJ3" s="23"/>
+      <c r="BDK3" s="24"/>
+      <c r="BDL3" s="23"/>
+      <c r="BDM3" s="24"/>
+      <c r="BDN3" s="23"/>
+      <c r="BDO3" s="24"/>
+      <c r="BDP3" s="23"/>
+      <c r="BDQ3" s="24"/>
     </row>
-    <row r="3" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
-      <c r="Y3" s="7"/>
-      <c r="IL3" s="6"/>
-      <c r="IM3" s="6"/>
-      <c r="IN3" s="6"/>
-      <c r="IO3" s="6"/>
-      <c r="IP3" s="6"/>
-      <c r="IQ3" s="6"/>
-      <c r="IR3" s="6"/>
-      <c r="IS3" s="6"/>
-      <c r="IT3" s="6"/>
-      <c r="IU3" s="6"/>
-      <c r="IV3" s="6"/>
-      <c r="IW3" s="6"/>
-      <c r="IX3" s="6"/>
-      <c r="IY3" s="6"/>
-      <c r="IZ3" s="6"/>
-      <c r="JA3" s="6"/>
-      <c r="JB3" s="6"/>
-      <c r="JC3" s="6"/>
-      <c r="JD3" s="6"/>
-      <c r="JE3" s="6"/>
-      <c r="JF3" s="6"/>
-      <c r="JG3" s="6"/>
-      <c r="JH3" s="6"/>
-      <c r="JI3" s="6"/>
-      <c r="JJ3" s="6"/>
-      <c r="JK3" s="6"/>
-      <c r="JL3" s="6"/>
-      <c r="JM3" s="6"/>
-      <c r="JN3" s="6"/>
-      <c r="JO3" s="6"/>
-      <c r="JP3" s="6"/>
-      <c r="JQ3" s="6"/>
-      <c r="JR3" s="6"/>
-      <c r="JS3" s="6"/>
-      <c r="JT3" s="6"/>
-      <c r="JU3" s="6"/>
-      <c r="JV3" s="6"/>
-      <c r="JW3" s="6"/>
-      <c r="JX3" s="6"/>
-      <c r="JY3" s="6"/>
-      <c r="JZ3" s="6"/>
-      <c r="KA3" s="6"/>
-      <c r="KB3" s="6"/>
-      <c r="KC3" s="6"/>
-      <c r="KD3" s="6"/>
-      <c r="KE3" s="6"/>
-      <c r="KF3" s="6"/>
-      <c r="KG3" s="6"/>
-      <c r="KH3" s="6"/>
-      <c r="KI3" s="6"/>
-      <c r="KJ3" s="6"/>
-      <c r="KK3" s="6"/>
-      <c r="KL3" s="6"/>
-      <c r="KM3" s="6"/>
-      <c r="KN3" s="6"/>
-      <c r="KO3" s="6"/>
-      <c r="KP3" s="6"/>
-      <c r="KQ3" s="6"/>
-      <c r="KR3" s="6"/>
-      <c r="KS3" s="6"/>
-      <c r="KT3" s="6"/>
-      <c r="KU3" s="6"/>
-      <c r="KV3" s="6"/>
-      <c r="KW3" s="6"/>
-      <c r="KX3" s="6"/>
-      <c r="KY3" s="6"/>
-      <c r="KZ3" s="6"/>
-      <c r="LA3" s="6"/>
-      <c r="LB3" s="6"/>
-      <c r="LC3" s="6"/>
-      <c r="LD3" s="6"/>
-      <c r="LE3" s="6"/>
-      <c r="LF3" s="6"/>
-      <c r="LG3" s="6"/>
-      <c r="LH3" s="6"/>
-    </row>
-    <row r="4" spans="1:1473" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="IL4" s="7"/>
-      <c r="IM4" s="7"/>
-      <c r="IN4" s="7"/>
-      <c r="IO4" s="7"/>
-      <c r="IP4" s="7"/>
-      <c r="IQ4" s="7"/>
-      <c r="IR4" s="7"/>
-      <c r="IS4" s="7"/>
-      <c r="IT4" s="7"/>
-      <c r="IU4" s="7"/>
-      <c r="IV4" s="7"/>
-      <c r="IW4" s="7"/>
-      <c r="IX4" s="7"/>
-      <c r="IY4" s="7"/>
-      <c r="IZ4" s="7"/>
-      <c r="JA4" s="7"/>
-      <c r="JB4" s="7"/>
-      <c r="JC4" s="7"/>
-      <c r="JD4" s="7"/>
-      <c r="JE4" s="7"/>
-      <c r="JF4" s="7"/>
-      <c r="JG4" s="7"/>
-      <c r="JH4" s="7"/>
-      <c r="JI4" s="7"/>
-      <c r="JJ4" s="7"/>
-      <c r="JK4" s="7"/>
-      <c r="JL4" s="7"/>
-      <c r="JM4" s="7"/>
-      <c r="JN4" s="7"/>
-      <c r="JO4" s="7"/>
-      <c r="JP4" s="7"/>
-      <c r="JQ4" s="7"/>
-      <c r="JR4" s="7"/>
-      <c r="JS4" s="7"/>
-      <c r="JT4" s="7"/>
-      <c r="JU4" s="7"/>
-      <c r="JV4" s="7"/>
-      <c r="JW4" s="7"/>
-      <c r="JX4" s="7"/>
-      <c r="JY4" s="7"/>
-      <c r="JZ4" s="7"/>
-      <c r="KA4" s="7"/>
-      <c r="KB4" s="7"/>
-      <c r="KC4" s="7"/>
-      <c r="KD4" s="7"/>
-      <c r="KE4" s="7"/>
-      <c r="KF4" s="7"/>
-      <c r="KG4" s="7"/>
-      <c r="KH4" s="7"/>
-      <c r="KI4" s="7"/>
-      <c r="KJ4" s="7"/>
-      <c r="KK4" s="7"/>
-      <c r="KL4" s="7"/>
-      <c r="KM4" s="7"/>
-      <c r="KN4" s="7"/>
-      <c r="KO4" s="7"/>
+    <row r="4" spans="1:1473" ht="15.75">
+      <c r="Y4" s="7"/>
+      <c r="IL4" s="6"/>
+      <c r="IM4" s="6"/>
+      <c r="IN4" s="6"/>
+      <c r="IO4" s="6"/>
+      <c r="IP4" s="6"/>
+      <c r="IQ4" s="6"/>
+      <c r="IR4" s="6"/>
+      <c r="IS4" s="6"/>
+      <c r="IT4" s="6"/>
+      <c r="IU4" s="6"/>
+      <c r="IV4" s="6"/>
+      <c r="IW4" s="6"/>
+      <c r="IX4" s="6"/>
+      <c r="IY4" s="6"/>
+      <c r="IZ4" s="6"/>
+      <c r="JA4" s="6"/>
+      <c r="JB4" s="6"/>
+      <c r="JC4" s="6"/>
+      <c r="JD4" s="6"/>
+      <c r="JE4" s="6"/>
+      <c r="JF4" s="6"/>
+      <c r="JG4" s="6"/>
+      <c r="JH4" s="6"/>
+      <c r="JI4" s="6"/>
+      <c r="JJ4" s="6"/>
+      <c r="JK4" s="6"/>
+      <c r="JL4" s="6"/>
+      <c r="JM4" s="6"/>
+      <c r="JN4" s="6"/>
+      <c r="JO4" s="6"/>
+      <c r="JP4" s="6"/>
+      <c r="JQ4" s="6"/>
+      <c r="JR4" s="6"/>
+      <c r="JS4" s="6"/>
+      <c r="JT4" s="6"/>
+      <c r="JU4" s="6"/>
+      <c r="JV4" s="6"/>
+      <c r="JW4" s="6"/>
+      <c r="JX4" s="6"/>
+      <c r="JY4" s="6"/>
+      <c r="JZ4" s="6"/>
+      <c r="KA4" s="6"/>
+      <c r="KB4" s="6"/>
+      <c r="KC4" s="6"/>
+      <c r="KD4" s="6"/>
+      <c r="KE4" s="6"/>
+      <c r="KF4" s="6"/>
+      <c r="KG4" s="6"/>
+      <c r="KH4" s="6"/>
+      <c r="KI4" s="6"/>
+      <c r="KJ4" s="6"/>
+      <c r="KK4" s="6"/>
+      <c r="KL4" s="6"/>
+      <c r="KM4" s="6"/>
+      <c r="KN4" s="6"/>
+      <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
       <c r="KR4" s="6"/>
@@ -6835,159 +8353,1099 @@
       <c r="LF4" s="6"/>
       <c r="LG4" s="6"/>
       <c r="LH4" s="6"/>
-      <c r="LI4" s="7"/>
-      <c r="LJ4" s="7"/>
-      <c r="LK4" s="7"/>
-      <c r="LL4" s="7"/>
-      <c r="LM4" s="7"/>
-      <c r="LN4" s="7"/>
-      <c r="LO4" s="7"/>
-      <c r="LP4" s="7"/>
-      <c r="LQ4" s="7"/>
-      <c r="LR4" s="7"/>
-      <c r="LS4" s="7"/>
-      <c r="LT4" s="7"/>
-      <c r="LU4" s="7"/>
-      <c r="LV4" s="7"/>
-      <c r="LW4" s="7"/>
-      <c r="LX4" s="7"/>
-      <c r="LY4" s="7"/>
-      <c r="LZ4" s="7"/>
-      <c r="MA4" s="7"/>
-      <c r="MB4" s="7"/>
-      <c r="MC4" s="7"/>
-      <c r="MD4" s="7"/>
-      <c r="ME4" s="7"/>
-      <c r="MF4" s="7"/>
-      <c r="MG4" s="7"/>
-      <c r="MH4" s="7"/>
-      <c r="MI4" s="7"/>
-      <c r="MJ4" s="7"/>
-      <c r="MK4" s="7"/>
-      <c r="ML4" s="7"/>
-      <c r="MM4" s="7"/>
-      <c r="MN4" s="7"/>
-      <c r="MO4" s="7"/>
-      <c r="MP4" s="7"/>
-      <c r="MQ4" s="7"/>
-      <c r="MR4" s="7"/>
-      <c r="MS4" s="7"/>
-      <c r="MT4" s="7"/>
-      <c r="MU4" s="7"/>
-      <c r="MV4" s="7"/>
-      <c r="MW4" s="7"/>
-      <c r="MX4" s="7"/>
-      <c r="MY4" s="7"/>
-      <c r="MZ4" s="7"/>
-      <c r="NA4" s="7"/>
-      <c r="NB4" s="7"/>
-      <c r="NC4" s="7"/>
-      <c r="ND4" s="7"/>
-      <c r="NE4" s="7"/>
-      <c r="NF4" s="7"/>
-      <c r="NG4" s="7"/>
-      <c r="NH4" s="7"/>
-      <c r="NI4" s="7"/>
-      <c r="NJ4" s="7"/>
-      <c r="NK4" s="7"/>
-      <c r="NL4" s="7"/>
-      <c r="NM4" s="7"/>
-      <c r="NN4" s="7"/>
-      <c r="NO4" s="7"/>
-      <c r="NP4" s="7"/>
-      <c r="NQ4" s="7"/>
-      <c r="NR4" s="7"/>
-      <c r="NS4" s="7"/>
-      <c r="NT4" s="7"/>
-      <c r="NU4" s="7"/>
-      <c r="NV4" s="7"/>
-      <c r="NW4" s="7"/>
-      <c r="NX4" s="7"/>
-      <c r="NY4" s="7"/>
-      <c r="NZ4" s="7"/>
-      <c r="OA4" s="7"/>
-      <c r="OB4" s="7"/>
-      <c r="OC4" s="7"/>
-      <c r="OD4" s="7"/>
-      <c r="OE4" s="7"/>
-      <c r="OF4" s="7"/>
-      <c r="OG4" s="7"/>
-      <c r="OH4" s="7"/>
-      <c r="OI4" s="7"/>
-      <c r="OJ4" s="7"/>
-      <c r="OK4" s="7"/>
-      <c r="OL4" s="7"/>
-      <c r="OM4" s="7"/>
-      <c r="ON4" s="7"/>
-      <c r="OO4" s="7"/>
-      <c r="OP4" s="7"/>
-      <c r="OQ4" s="7"/>
-      <c r="OR4" s="7"/>
-      <c r="OS4" s="7"/>
-      <c r="OT4" s="7"/>
-      <c r="OU4" s="7"/>
-      <c r="OV4" s="7"/>
-      <c r="OW4" s="7"/>
-      <c r="OX4" s="7"/>
-      <c r="OY4" s="7"/>
-      <c r="OZ4" s="7"/>
-      <c r="PA4" s="7"/>
-      <c r="PB4" s="7"/>
-      <c r="PC4" s="7"/>
-      <c r="PD4" s="7"/>
-      <c r="PE4" s="7"/>
-      <c r="PF4" s="7"/>
-      <c r="PG4" s="7"/>
-      <c r="PH4" s="7"/>
-      <c r="PI4" s="7"/>
-      <c r="PJ4" s="7"/>
-      <c r="PK4" s="7"/>
-      <c r="PL4" s="7"/>
-      <c r="PM4" s="7"/>
-      <c r="PN4" s="7"/>
-      <c r="PO4" s="7"/>
-      <c r="PP4" s="7"/>
-      <c r="PQ4" s="7"/>
-      <c r="PR4" s="7"/>
-      <c r="PS4" s="7"/>
-      <c r="PT4" s="7"/>
-      <c r="PU4" s="7"/>
-      <c r="PV4" s="7"/>
-      <c r="PW4" s="7"/>
-      <c r="PX4" s="7"/>
-      <c r="PY4" s="7"/>
     </row>
-    <row r="5" spans="1:1473" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:1473" ht="15.75">
+      <c r="Y5" s="7"/>
+      <c r="IL5" s="6"/>
+      <c r="IM5" s="6"/>
+      <c r="IN5" s="6"/>
+      <c r="IO5" s="6"/>
+      <c r="IP5" s="6"/>
+      <c r="IQ5" s="6"/>
+      <c r="IR5" s="6"/>
+      <c r="IS5" s="6"/>
+      <c r="IT5" s="6"/>
+      <c r="IU5" s="6"/>
+      <c r="IV5" s="6"/>
+      <c r="IW5" s="6"/>
+      <c r="IX5" s="6"/>
+      <c r="IY5" s="6"/>
+      <c r="IZ5" s="6"/>
+      <c r="JA5" s="6"/>
+      <c r="JB5" s="6"/>
+      <c r="JC5" s="6"/>
+      <c r="JD5" s="6"/>
+      <c r="JE5" s="6"/>
+      <c r="JF5" s="6"/>
+      <c r="JG5" s="6"/>
+      <c r="JH5" s="6"/>
+      <c r="JI5" s="6"/>
+      <c r="JJ5" s="6"/>
+      <c r="JK5" s="6"/>
+      <c r="JL5" s="6"/>
+      <c r="JM5" s="6"/>
+      <c r="JN5" s="6"/>
+      <c r="JO5" s="6"/>
+      <c r="JP5" s="6"/>
+      <c r="JQ5" s="6"/>
+      <c r="JR5" s="6"/>
+      <c r="JS5" s="6"/>
+      <c r="JT5" s="6"/>
+      <c r="JU5" s="6"/>
+      <c r="JV5" s="6"/>
+      <c r="JW5" s="6"/>
+      <c r="JX5" s="6"/>
+      <c r="JY5" s="6"/>
+      <c r="JZ5" s="6"/>
+      <c r="KA5" s="6"/>
+      <c r="KB5" s="6"/>
+      <c r="KC5" s="6"/>
+      <c r="KD5" s="6"/>
+      <c r="KE5" s="6"/>
+      <c r="KF5" s="6"/>
+      <c r="KG5" s="6"/>
+      <c r="KH5" s="6"/>
+      <c r="KI5" s="6"/>
+      <c r="KJ5" s="6"/>
+      <c r="KK5" s="6"/>
+      <c r="KL5" s="6"/>
+      <c r="KM5" s="6"/>
+      <c r="KN5" s="6"/>
+      <c r="KO5" s="6"/>
+      <c r="KP5" s="6"/>
+      <c r="KQ5" s="6"/>
+      <c r="KR5" s="6"/>
+      <c r="KS5" s="6"/>
+      <c r="KT5" s="6"/>
+      <c r="KU5" s="6"/>
+      <c r="KV5" s="6"/>
+      <c r="KW5" s="6"/>
+      <c r="KX5" s="6"/>
+      <c r="KY5" s="6"/>
+      <c r="KZ5" s="6"/>
+      <c r="LA5" s="6"/>
+      <c r="LB5" s="6"/>
+      <c r="LC5" s="6"/>
+      <c r="LD5" s="6"/>
+      <c r="LE5" s="6"/>
+      <c r="LF5" s="6"/>
+      <c r="LG5" s="6"/>
+      <c r="LH5" s="6"/>
+    </row>
+    <row r="6" spans="1:1473" ht="15.75">
+      <c r="Y6" s="7"/>
+      <c r="IL6" s="6"/>
+      <c r="IM6" s="6"/>
+      <c r="IN6" s="6"/>
+      <c r="IO6" s="6"/>
+      <c r="IP6" s="6"/>
+      <c r="IQ6" s="6"/>
+      <c r="IR6" s="6"/>
+      <c r="IS6" s="6"/>
+      <c r="IT6" s="6"/>
+      <c r="IU6" s="6"/>
+      <c r="IV6" s="6"/>
+      <c r="IW6" s="6"/>
+      <c r="IX6" s="6"/>
+      <c r="IY6" s="6"/>
+      <c r="IZ6" s="6"/>
+      <c r="JA6" s="6"/>
+      <c r="JB6" s="6"/>
+      <c r="JC6" s="6"/>
+      <c r="JD6" s="6"/>
+      <c r="JE6" s="6"/>
+      <c r="JF6" s="6"/>
+      <c r="JG6" s="6"/>
+      <c r="JH6" s="6"/>
+      <c r="JI6" s="6"/>
+      <c r="JJ6" s="6"/>
+      <c r="JK6" s="6"/>
+      <c r="JL6" s="6"/>
+      <c r="JM6" s="6"/>
+      <c r="JN6" s="6"/>
+      <c r="JO6" s="6"/>
+      <c r="JP6" s="6"/>
+      <c r="JQ6" s="6"/>
+      <c r="JR6" s="6"/>
+      <c r="JS6" s="6"/>
+      <c r="JT6" s="6"/>
+      <c r="JU6" s="6"/>
+      <c r="JV6" s="6"/>
+      <c r="JW6" s="6"/>
+      <c r="JX6" s="6"/>
+      <c r="JY6" s="6"/>
+      <c r="JZ6" s="6"/>
+      <c r="KA6" s="6"/>
+      <c r="KB6" s="6"/>
+      <c r="KC6" s="6"/>
+      <c r="KD6" s="6"/>
+      <c r="KE6" s="6"/>
+      <c r="KF6" s="6"/>
+      <c r="KG6" s="6"/>
+      <c r="KH6" s="6"/>
+      <c r="KI6" s="6"/>
+      <c r="KJ6" s="6"/>
+      <c r="KK6" s="6"/>
+      <c r="KL6" s="6"/>
+      <c r="KM6" s="6"/>
+      <c r="KN6" s="6"/>
+      <c r="KO6" s="6"/>
+      <c r="KP6" s="6"/>
+      <c r="KQ6" s="6"/>
+      <c r="KR6" s="6"/>
+      <c r="KS6" s="6"/>
+      <c r="KT6" s="6"/>
+      <c r="KU6" s="6"/>
+      <c r="KV6" s="6"/>
+      <c r="KW6" s="6"/>
+      <c r="KX6" s="6"/>
+      <c r="KY6" s="6"/>
+      <c r="KZ6" s="6"/>
+      <c r="LA6" s="6"/>
+      <c r="LB6" s="6"/>
+      <c r="LC6" s="6"/>
+      <c r="LD6" s="6"/>
+      <c r="LE6" s="6"/>
+      <c r="LF6" s="6"/>
+      <c r="LG6" s="6"/>
+      <c r="LH6" s="6"/>
+    </row>
+    <row r="7" spans="1:1473" ht="15.75">
+      <c r="A7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="Y7" s="7"/>
+      <c r="IL7" s="6"/>
+      <c r="IM7" s="6"/>
+      <c r="IN7" s="6"/>
+      <c r="IO7" s="6"/>
+      <c r="IP7" s="6"/>
+      <c r="IQ7" s="6"/>
+      <c r="IR7" s="6"/>
+      <c r="IS7" s="6"/>
+      <c r="IT7" s="6"/>
+      <c r="IU7" s="6"/>
+      <c r="IV7" s="6"/>
+      <c r="IW7" s="6"/>
+      <c r="IX7" s="6"/>
+      <c r="IY7" s="6"/>
+      <c r="IZ7" s="6"/>
+      <c r="JA7" s="6"/>
+      <c r="JB7" s="6"/>
+      <c r="JC7" s="6"/>
+      <c r="JD7" s="6"/>
+      <c r="JE7" s="6"/>
+      <c r="JF7" s="6"/>
+      <c r="JG7" s="6"/>
+      <c r="JH7" s="6"/>
+      <c r="JI7" s="6"/>
+      <c r="JJ7" s="6"/>
+      <c r="JK7" s="6"/>
+      <c r="JL7" s="6"/>
+      <c r="JM7" s="6"/>
+      <c r="JN7" s="6"/>
+      <c r="JO7" s="6"/>
+      <c r="JP7" s="6"/>
+      <c r="JQ7" s="6"/>
+      <c r="JR7" s="6"/>
+      <c r="JS7" s="6"/>
+      <c r="JT7" s="6"/>
+      <c r="JU7" s="6"/>
+      <c r="JV7" s="6"/>
+      <c r="JW7" s="6"/>
+      <c r="JX7" s="6"/>
+      <c r="JY7" s="6"/>
+      <c r="JZ7" s="6"/>
+      <c r="KA7" s="6"/>
+      <c r="KB7" s="6"/>
+      <c r="KC7" s="6"/>
+      <c r="KD7" s="6"/>
+      <c r="KE7" s="6"/>
+      <c r="KF7" s="6"/>
+      <c r="KG7" s="6"/>
+      <c r="KH7" s="6"/>
+      <c r="KI7" s="6"/>
+      <c r="KJ7" s="6"/>
+      <c r="KK7" s="6"/>
+      <c r="KL7" s="6"/>
+      <c r="KM7" s="6"/>
+      <c r="KN7" s="6"/>
+      <c r="KO7" s="6"/>
+      <c r="KP7" s="6"/>
+      <c r="KQ7" s="6"/>
+      <c r="KR7" s="6"/>
+      <c r="KS7" s="6"/>
+      <c r="KT7" s="6"/>
+      <c r="KU7" s="6"/>
+      <c r="KV7" s="6"/>
+      <c r="KW7" s="6"/>
+      <c r="KX7" s="6"/>
+      <c r="KY7" s="6"/>
+      <c r="KZ7" s="6"/>
+      <c r="LA7" s="6"/>
+      <c r="LB7" s="6"/>
+      <c r="LC7" s="6"/>
+      <c r="LD7" s="6"/>
+      <c r="LE7" s="6"/>
+      <c r="LF7" s="6"/>
+      <c r="LG7" s="6"/>
+      <c r="LH7" s="6"/>
+    </row>
+    <row r="8" spans="1:1473" ht="15.75">
+      <c r="A8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="Y8" s="7"/>
+      <c r="IL8" s="6"/>
+      <c r="IM8" s="6"/>
+      <c r="IN8" s="6"/>
+      <c r="IO8" s="6"/>
+      <c r="IP8" s="6"/>
+      <c r="IQ8" s="6"/>
+      <c r="IR8" s="6"/>
+      <c r="IS8" s="6"/>
+      <c r="IT8" s="6"/>
+      <c r="IU8" s="6"/>
+      <c r="IV8" s="6"/>
+      <c r="IW8" s="6"/>
+      <c r="IX8" s="6"/>
+      <c r="IY8" s="6"/>
+      <c r="IZ8" s="6"/>
+      <c r="JA8" s="6"/>
+      <c r="JB8" s="6"/>
+      <c r="JC8" s="6"/>
+      <c r="JD8" s="6"/>
+      <c r="JE8" s="6"/>
+      <c r="JF8" s="6"/>
+      <c r="JG8" s="6"/>
+      <c r="JH8" s="6"/>
+      <c r="JI8" s="6"/>
+      <c r="JJ8" s="6"/>
+      <c r="JK8" s="6"/>
+      <c r="JL8" s="6"/>
+      <c r="JM8" s="6"/>
+      <c r="JN8" s="6"/>
+      <c r="JO8" s="6"/>
+      <c r="JP8" s="6"/>
+      <c r="JQ8" s="6"/>
+      <c r="JR8" s="6"/>
+      <c r="JS8" s="6"/>
+      <c r="JT8" s="6"/>
+      <c r="JU8" s="6"/>
+      <c r="JV8" s="6"/>
+      <c r="JW8" s="6"/>
+      <c r="JX8" s="6"/>
+      <c r="JY8" s="6"/>
+      <c r="JZ8" s="6"/>
+      <c r="KA8" s="6"/>
+      <c r="KB8" s="6"/>
+      <c r="KC8" s="6"/>
+      <c r="KD8" s="6"/>
+      <c r="KE8" s="6"/>
+      <c r="KF8" s="6"/>
+      <c r="KG8" s="6"/>
+      <c r="KH8" s="6"/>
+      <c r="KI8" s="6"/>
+      <c r="KJ8" s="6"/>
+      <c r="KK8" s="6"/>
+      <c r="KL8" s="6"/>
+      <c r="KM8" s="6"/>
+      <c r="KN8" s="6"/>
+      <c r="KO8" s="6"/>
+      <c r="KP8" s="6"/>
+      <c r="KQ8" s="6"/>
+      <c r="KR8" s="6"/>
+      <c r="KS8" s="6"/>
+      <c r="KT8" s="6"/>
+      <c r="KU8" s="6"/>
+      <c r="KV8" s="6"/>
+      <c r="KW8" s="6"/>
+      <c r="KX8" s="6"/>
+      <c r="KY8" s="6"/>
+      <c r="KZ8" s="6"/>
+      <c r="LA8" s="6"/>
+      <c r="LB8" s="6"/>
+      <c r="LC8" s="6"/>
+      <c r="LD8" s="6"/>
+      <c r="LE8" s="6"/>
+      <c r="LF8" s="6"/>
+      <c r="LG8" s="6"/>
+      <c r="LH8" s="6"/>
+    </row>
+    <row r="9" spans="1:1473" ht="15.75">
+      <c r="A9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="Y9" s="7"/>
+      <c r="IL9" s="6"/>
+      <c r="IM9" s="6"/>
+      <c r="IN9" s="6"/>
+      <c r="IO9" s="6"/>
+      <c r="IP9" s="6"/>
+      <c r="IQ9" s="6"/>
+      <c r="IR9" s="6"/>
+      <c r="IS9" s="6"/>
+      <c r="IT9" s="6"/>
+      <c r="IU9" s="6"/>
+      <c r="IV9" s="6"/>
+      <c r="IW9" s="6"/>
+      <c r="IX9" s="6"/>
+      <c r="IY9" s="6"/>
+      <c r="IZ9" s="6"/>
+      <c r="JA9" s="6"/>
+      <c r="JB9" s="6"/>
+      <c r="JC9" s="6"/>
+      <c r="JD9" s="6"/>
+      <c r="JE9" s="6"/>
+      <c r="JF9" s="6"/>
+      <c r="JG9" s="6"/>
+      <c r="JH9" s="6"/>
+      <c r="JI9" s="6"/>
+      <c r="JJ9" s="6"/>
+      <c r="JK9" s="6"/>
+      <c r="JL9" s="6"/>
+      <c r="JM9" s="6"/>
+      <c r="JN9" s="6"/>
+      <c r="JO9" s="6"/>
+      <c r="JP9" s="6"/>
+      <c r="JQ9" s="6"/>
+      <c r="JR9" s="6"/>
+      <c r="JS9" s="6"/>
+      <c r="JT9" s="6"/>
+      <c r="JU9" s="6"/>
+      <c r="JV9" s="6"/>
+      <c r="JW9" s="6"/>
+      <c r="JX9" s="6"/>
+      <c r="JY9" s="6"/>
+      <c r="JZ9" s="6"/>
+      <c r="KA9" s="6"/>
+      <c r="KB9" s="6"/>
+      <c r="KC9" s="6"/>
+      <c r="KD9" s="6"/>
+      <c r="KE9" s="6"/>
+      <c r="KF9" s="6"/>
+      <c r="KG9" s="6"/>
+      <c r="KH9" s="6"/>
+      <c r="KI9" s="6"/>
+      <c r="KJ9" s="6"/>
+      <c r="KK9" s="6"/>
+      <c r="KL9" s="6"/>
+      <c r="KM9" s="6"/>
+      <c r="KN9" s="6"/>
+      <c r="KO9" s="6"/>
+      <c r="KP9" s="6"/>
+      <c r="KQ9" s="6"/>
+      <c r="KR9" s="6"/>
+      <c r="KS9" s="6"/>
+      <c r="KT9" s="6"/>
+      <c r="KU9" s="6"/>
+      <c r="KV9" s="6"/>
+      <c r="KW9" s="6"/>
+      <c r="KX9" s="6"/>
+      <c r="KY9" s="6"/>
+      <c r="KZ9" s="6"/>
+      <c r="LA9" s="6"/>
+      <c r="LB9" s="6"/>
+      <c r="LC9" s="6"/>
+      <c r="LD9" s="6"/>
+      <c r="LE9" s="6"/>
+      <c r="LF9" s="6"/>
+      <c r="LG9" s="6"/>
+      <c r="LH9" s="6"/>
+    </row>
+    <row r="10" spans="1:1473" ht="15.75">
+      <c r="A10" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="Y10" s="7"/>
+      <c r="IL10" s="6"/>
+      <c r="IM10" s="6"/>
+      <c r="IN10" s="6"/>
+      <c r="IO10" s="6"/>
+      <c r="IP10" s="6"/>
+      <c r="IQ10" s="6"/>
+      <c r="IR10" s="6"/>
+      <c r="IS10" s="6"/>
+      <c r="IT10" s="6"/>
+      <c r="IU10" s="6"/>
+      <c r="IV10" s="6"/>
+      <c r="IW10" s="6"/>
+      <c r="IX10" s="6"/>
+      <c r="IY10" s="6"/>
+      <c r="IZ10" s="6"/>
+      <c r="JA10" s="6"/>
+      <c r="JB10" s="6"/>
+      <c r="JC10" s="6"/>
+      <c r="JD10" s="6"/>
+      <c r="JE10" s="6"/>
+      <c r="JF10" s="6"/>
+      <c r="JG10" s="6"/>
+      <c r="JH10" s="6"/>
+      <c r="JI10" s="6"/>
+      <c r="JJ10" s="6"/>
+      <c r="JK10" s="6"/>
+      <c r="JL10" s="6"/>
+      <c r="JM10" s="6"/>
+      <c r="JN10" s="6"/>
+      <c r="JO10" s="6"/>
+      <c r="JP10" s="6"/>
+      <c r="JQ10" s="6"/>
+      <c r="JR10" s="6"/>
+      <c r="JS10" s="6"/>
+      <c r="JT10" s="6"/>
+      <c r="JU10" s="6"/>
+      <c r="JV10" s="6"/>
+      <c r="JW10" s="6"/>
+      <c r="JX10" s="6"/>
+      <c r="JY10" s="6"/>
+      <c r="JZ10" s="6"/>
+      <c r="KA10" s="6"/>
+      <c r="KB10" s="6"/>
+      <c r="KC10" s="6"/>
+      <c r="KD10" s="6"/>
+      <c r="KE10" s="6"/>
+      <c r="KF10" s="6"/>
+      <c r="KG10" s="6"/>
+      <c r="KH10" s="6"/>
+      <c r="KI10" s="6"/>
+      <c r="KJ10" s="6"/>
+      <c r="KK10" s="6"/>
+      <c r="KL10" s="6"/>
+      <c r="KM10" s="6"/>
+      <c r="KN10" s="6"/>
+      <c r="KO10" s="6"/>
+      <c r="KP10" s="6"/>
+      <c r="KQ10" s="6"/>
+      <c r="KR10" s="6"/>
+      <c r="KS10" s="6"/>
+      <c r="KT10" s="6"/>
+      <c r="KU10" s="6"/>
+      <c r="KV10" s="6"/>
+      <c r="KW10" s="6"/>
+      <c r="KX10" s="6"/>
+      <c r="KY10" s="6"/>
+      <c r="KZ10" s="6"/>
+      <c r="LA10" s="6"/>
+      <c r="LB10" s="6"/>
+      <c r="LC10" s="6"/>
+      <c r="LD10" s="6"/>
+      <c r="LE10" s="6"/>
+      <c r="LF10" s="6"/>
+      <c r="LG10" s="6"/>
+      <c r="LH10" s="6"/>
+    </row>
+    <row r="11" spans="1:1473" ht="15.75">
+      <c r="A11" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="Y11" s="7"/>
+      <c r="IL11" s="6"/>
+      <c r="IM11" s="6"/>
+      <c r="IN11" s="6"/>
+      <c r="IO11" s="6"/>
+      <c r="IP11" s="6"/>
+      <c r="IQ11" s="6"/>
+      <c r="IR11" s="6"/>
+      <c r="IS11" s="6"/>
+      <c r="IT11" s="6"/>
+      <c r="IU11" s="6"/>
+      <c r="IV11" s="6"/>
+      <c r="IW11" s="6"/>
+      <c r="IX11" s="6"/>
+      <c r="IY11" s="6"/>
+      <c r="IZ11" s="6"/>
+      <c r="JA11" s="6"/>
+      <c r="JB11" s="6"/>
+      <c r="JC11" s="6"/>
+      <c r="JD11" s="6"/>
+      <c r="JE11" s="6"/>
+      <c r="JF11" s="6"/>
+      <c r="JG11" s="6"/>
+      <c r="JH11" s="6"/>
+      <c r="JI11" s="6"/>
+      <c r="JJ11" s="6"/>
+      <c r="JK11" s="6"/>
+      <c r="JL11" s="6"/>
+      <c r="JM11" s="6"/>
+      <c r="JN11" s="6"/>
+      <c r="JO11" s="6"/>
+      <c r="JP11" s="6"/>
+      <c r="JQ11" s="6"/>
+      <c r="JR11" s="6"/>
+      <c r="JS11" s="6"/>
+      <c r="JT11" s="6"/>
+      <c r="JU11" s="6"/>
+      <c r="JV11" s="6"/>
+      <c r="JW11" s="6"/>
+      <c r="JX11" s="6"/>
+      <c r="JY11" s="6"/>
+      <c r="JZ11" s="6"/>
+      <c r="KA11" s="6"/>
+      <c r="KB11" s="6"/>
+      <c r="KC11" s="6"/>
+      <c r="KD11" s="6"/>
+      <c r="KE11" s="6"/>
+      <c r="KF11" s="6"/>
+      <c r="KG11" s="6"/>
+      <c r="KH11" s="6"/>
+      <c r="KI11" s="6"/>
+      <c r="KJ11" s="6"/>
+      <c r="KK11" s="6"/>
+      <c r="KL11" s="6"/>
+      <c r="KM11" s="6"/>
+      <c r="KN11" s="6"/>
+      <c r="KO11" s="6"/>
+      <c r="KP11" s="6"/>
+      <c r="KQ11" s="6"/>
+      <c r="KR11" s="6"/>
+      <c r="KS11" s="6"/>
+      <c r="KT11" s="6"/>
+      <c r="KU11" s="6"/>
+      <c r="KV11" s="6"/>
+      <c r="KW11" s="6"/>
+      <c r="KX11" s="6"/>
+      <c r="KY11" s="6"/>
+      <c r="KZ11" s="6"/>
+      <c r="LA11" s="6"/>
+      <c r="LB11" s="6"/>
+      <c r="LC11" s="6"/>
+      <c r="LD11" s="6"/>
+      <c r="LE11" s="6"/>
+      <c r="LF11" s="6"/>
+      <c r="LG11" s="6"/>
+      <c r="LH11" s="6"/>
+    </row>
+    <row r="12" spans="1:1473" ht="15.75">
+      <c r="A12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="Y12" s="7"/>
+      <c r="IL12" s="6"/>
+      <c r="IM12" s="6"/>
+      <c r="IN12" s="6"/>
+      <c r="IO12" s="6"/>
+      <c r="IP12" s="6"/>
+      <c r="IQ12" s="6"/>
+      <c r="IR12" s="6"/>
+      <c r="IS12" s="6"/>
+      <c r="IT12" s="6"/>
+      <c r="IU12" s="6"/>
+      <c r="IV12" s="6"/>
+      <c r="IW12" s="6"/>
+      <c r="IX12" s="6"/>
+      <c r="IY12" s="6"/>
+      <c r="IZ12" s="6"/>
+      <c r="JA12" s="6"/>
+      <c r="JB12" s="6"/>
+      <c r="JC12" s="6"/>
+      <c r="JD12" s="6"/>
+      <c r="JE12" s="6"/>
+      <c r="JF12" s="6"/>
+      <c r="JG12" s="6"/>
+      <c r="JH12" s="6"/>
+      <c r="JI12" s="6"/>
+      <c r="JJ12" s="6"/>
+      <c r="JK12" s="6"/>
+      <c r="JL12" s="6"/>
+      <c r="JM12" s="6"/>
+      <c r="JN12" s="6"/>
+      <c r="JO12" s="6"/>
+      <c r="JP12" s="6"/>
+      <c r="JQ12" s="6"/>
+      <c r="JR12" s="6"/>
+      <c r="JS12" s="6"/>
+      <c r="JT12" s="6"/>
+      <c r="JU12" s="6"/>
+      <c r="JV12" s="6"/>
+      <c r="JW12" s="6"/>
+      <c r="JX12" s="6"/>
+      <c r="JY12" s="6"/>
+      <c r="JZ12" s="6"/>
+      <c r="KA12" s="6"/>
+      <c r="KB12" s="6"/>
+      <c r="KC12" s="6"/>
+      <c r="KD12" s="6"/>
+      <c r="KE12" s="6"/>
+      <c r="KF12" s="6"/>
+      <c r="KG12" s="6"/>
+      <c r="KH12" s="6"/>
+      <c r="KI12" s="6"/>
+      <c r="KJ12" s="6"/>
+      <c r="KK12" s="6"/>
+      <c r="KL12" s="6"/>
+      <c r="KM12" s="6"/>
+      <c r="KN12" s="6"/>
+      <c r="KO12" s="6"/>
+      <c r="KP12" s="6"/>
+      <c r="KQ12" s="6"/>
+      <c r="KR12" s="6"/>
+      <c r="KS12" s="6"/>
+      <c r="KT12" s="6"/>
+      <c r="KU12" s="6"/>
+      <c r="KV12" s="6"/>
+      <c r="KW12" s="6"/>
+      <c r="KX12" s="6"/>
+      <c r="KY12" s="6"/>
+      <c r="KZ12" s="6"/>
+      <c r="LA12" s="6"/>
+      <c r="LB12" s="6"/>
+      <c r="LC12" s="6"/>
+      <c r="LD12" s="6"/>
+      <c r="LE12" s="6"/>
+      <c r="LF12" s="6"/>
+      <c r="LG12" s="6"/>
+      <c r="LH12" s="6"/>
+    </row>
+    <row r="13" spans="1:1473" ht="15.75">
+      <c r="A13" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="IL13" s="7"/>
+      <c r="IM13" s="7"/>
+      <c r="IN13" s="7"/>
+      <c r="IO13" s="7"/>
+      <c r="IP13" s="7"/>
+      <c r="IQ13" s="7"/>
+      <c r="IR13" s="7"/>
+      <c r="IS13" s="7"/>
+      <c r="IT13" s="7"/>
+      <c r="IU13" s="7"/>
+      <c r="IV13" s="7"/>
+      <c r="IW13" s="7"/>
+      <c r="IX13" s="7"/>
+      <c r="IY13" s="7"/>
+      <c r="IZ13" s="7"/>
+      <c r="JA13" s="7"/>
+      <c r="JB13" s="7"/>
+      <c r="JC13" s="7"/>
+      <c r="JD13" s="7"/>
+      <c r="JE13" s="7"/>
+      <c r="JF13" s="7"/>
+      <c r="JG13" s="7"/>
+      <c r="JH13" s="7"/>
+      <c r="JI13" s="7"/>
+      <c r="JJ13" s="7"/>
+      <c r="JK13" s="7"/>
+      <c r="JL13" s="7"/>
+      <c r="JM13" s="7"/>
+      <c r="JN13" s="7"/>
+      <c r="JO13" s="7"/>
+      <c r="JP13" s="7"/>
+      <c r="JQ13" s="7"/>
+      <c r="JR13" s="7"/>
+      <c r="JS13" s="7"/>
+      <c r="JT13" s="7"/>
+      <c r="JU13" s="7"/>
+      <c r="JV13" s="7"/>
+      <c r="JW13" s="7"/>
+      <c r="JX13" s="7"/>
+      <c r="JY13" s="7"/>
+      <c r="JZ13" s="7"/>
+      <c r="KA13" s="7"/>
+      <c r="KB13" s="7"/>
+      <c r="KC13" s="7"/>
+      <c r="KD13" s="7"/>
+      <c r="KE13" s="7"/>
+      <c r="KF13" s="7"/>
+      <c r="KG13" s="7"/>
+      <c r="KH13" s="7"/>
+      <c r="KI13" s="7"/>
+      <c r="KJ13" s="7"/>
+      <c r="KK13" s="7"/>
+      <c r="KL13" s="7"/>
+      <c r="KM13" s="7"/>
+      <c r="KN13" s="7"/>
+      <c r="KO13" s="7"/>
+      <c r="KP13" s="6"/>
+      <c r="KQ13" s="6"/>
+      <c r="KR13" s="6"/>
+      <c r="KS13" s="6"/>
+      <c r="KT13" s="6"/>
+      <c r="KU13" s="6"/>
+      <c r="KV13" s="6"/>
+      <c r="KW13" s="6"/>
+      <c r="KX13" s="6"/>
+      <c r="KY13" s="6"/>
+      <c r="KZ13" s="6"/>
+      <c r="LA13" s="6"/>
+      <c r="LB13" s="6"/>
+      <c r="LC13" s="6"/>
+      <c r="LD13" s="6"/>
+      <c r="LE13" s="6"/>
+      <c r="LF13" s="6"/>
+      <c r="LG13" s="6"/>
+      <c r="LH13" s="6"/>
+      <c r="LI13" s="7"/>
+      <c r="LJ13" s="7"/>
+      <c r="LK13" s="7"/>
+      <c r="LL13" s="7"/>
+      <c r="LM13" s="7"/>
+      <c r="LN13" s="7"/>
+      <c r="LO13" s="7"/>
+      <c r="LP13" s="7"/>
+      <c r="LQ13" s="7"/>
+      <c r="LR13" s="7"/>
+      <c r="LS13" s="7"/>
+      <c r="LT13" s="7"/>
+      <c r="LU13" s="7"/>
+      <c r="LV13" s="7"/>
+      <c r="LW13" s="7"/>
+      <c r="LX13" s="7"/>
+      <c r="LY13" s="7"/>
+      <c r="LZ13" s="7"/>
+      <c r="MA13" s="7"/>
+      <c r="MB13" s="7"/>
+      <c r="MC13" s="7"/>
+      <c r="MD13" s="7"/>
+      <c r="ME13" s="7"/>
+      <c r="MF13" s="7"/>
+      <c r="MG13" s="7"/>
+      <c r="MH13" s="7"/>
+      <c r="MI13" s="7"/>
+      <c r="MJ13" s="7"/>
+      <c r="MK13" s="7"/>
+      <c r="ML13" s="7"/>
+      <c r="MM13" s="7"/>
+      <c r="MN13" s="7"/>
+      <c r="MO13" s="7"/>
+      <c r="MP13" s="7"/>
+      <c r="MQ13" s="7"/>
+      <c r="MR13" s="7"/>
+      <c r="MS13" s="7"/>
+      <c r="MT13" s="7"/>
+      <c r="MU13" s="7"/>
+      <c r="MV13" s="7"/>
+      <c r="MW13" s="7"/>
+      <c r="MX13" s="7"/>
+      <c r="MY13" s="7"/>
+      <c r="MZ13" s="7"/>
+      <c r="NA13" s="7"/>
+      <c r="NB13" s="7"/>
+      <c r="NC13" s="7"/>
+      <c r="ND13" s="7"/>
+      <c r="NE13" s="7"/>
+      <c r="NF13" s="7"/>
+      <c r="NG13" s="7"/>
+      <c r="NH13" s="7"/>
+      <c r="NI13" s="7"/>
+      <c r="NJ13" s="7"/>
+      <c r="NK13" s="7"/>
+      <c r="NL13" s="7"/>
+      <c r="NM13" s="7"/>
+      <c r="NN13" s="7"/>
+      <c r="NO13" s="7"/>
+      <c r="NP13" s="7"/>
+      <c r="NQ13" s="7"/>
+      <c r="NR13" s="7"/>
+      <c r="NS13" s="7"/>
+      <c r="NT13" s="7"/>
+      <c r="NU13" s="7"/>
+      <c r="NV13" s="7"/>
+      <c r="NW13" s="7"/>
+      <c r="NX13" s="7"/>
+      <c r="NY13" s="7"/>
+      <c r="NZ13" s="7"/>
+      <c r="OA13" s="7"/>
+      <c r="OB13" s="7"/>
+      <c r="OC13" s="7"/>
+      <c r="OD13" s="7"/>
+      <c r="OE13" s="7"/>
+      <c r="OF13" s="7"/>
+      <c r="OG13" s="7"/>
+      <c r="OH13" s="7"/>
+      <c r="OI13" s="7"/>
+      <c r="OJ13" s="7"/>
+      <c r="OK13" s="7"/>
+      <c r="OL13" s="7"/>
+      <c r="OM13" s="7"/>
+      <c r="ON13" s="7"/>
+      <c r="OO13" s="7"/>
+      <c r="OP13" s="7"/>
+      <c r="OQ13" s="7"/>
+      <c r="OR13" s="7"/>
+      <c r="OS13" s="7"/>
+      <c r="OT13" s="7"/>
+      <c r="OU13" s="7"/>
+      <c r="OV13" s="7"/>
+      <c r="OW13" s="7"/>
+      <c r="OX13" s="7"/>
+      <c r="OY13" s="7"/>
+      <c r="OZ13" s="7"/>
+      <c r="PA13" s="7"/>
+      <c r="PB13" s="7"/>
+      <c r="PC13" s="7"/>
+      <c r="PD13" s="7"/>
+      <c r="PE13" s="7"/>
+      <c r="PF13" s="7"/>
+      <c r="PG13" s="7"/>
+      <c r="PH13" s="7"/>
+      <c r="PI13" s="7"/>
+      <c r="PJ13" s="7"/>
+      <c r="PK13" s="7"/>
+      <c r="PL13" s="7"/>
+      <c r="PM13" s="7"/>
+      <c r="PN13" s="7"/>
+      <c r="PO13" s="7"/>
+      <c r="PP13" s="7"/>
+      <c r="PQ13" s="7"/>
+      <c r="PR13" s="7"/>
+      <c r="PS13" s="7"/>
+      <c r="PT13" s="7"/>
+      <c r="PU13" s="7"/>
+      <c r="PV13" s="7"/>
+      <c r="PW13" s="7"/>
+      <c r="PX13" s="7"/>
+      <c r="PY13" s="7"/>
+    </row>
+    <row r="14" spans="1:1473">
+      <c r="A14" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:1473">
+      <c r="A15" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:1473" ht="16.5" thickBot="1">
+      <c r="A16" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="BCH16" s="5"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D21" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1473" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="8" t="s">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D22" s="10">
         <v>5.05</v>
       </c>
     </row>
-    <row r="7" spans="1:1473" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="8" t="s">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D23" s="10">
         <v>4.95</v>
       </c>
-      <c r="BCH7" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD2">
+  <conditionalFormatting sqref="A1:C1 F1:XFD1 A2:XFD3">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
-      <formula>$D$6</formula>
-      <formula>$D$7</formula>
+      <formula>$D$22</formula>
+      <formula>$D$23</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7007,7 +9465,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:LX2 MF2:XFD2</xm:sqref>
+          <xm:sqref>C3:LX3 MF3:XFD3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="27" operator="between" id="{4929D268-A82A-46EE-A64B-CD26E93C8E95}">
@@ -7021,7 +9479,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>LY2:ME2</xm:sqref>
+          <xm:sqref>LY3:ME3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="between" id="{D5E7550C-F30D-4956-A6E1-9E16345FCD5F}">
@@ -7035,7 +9493,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7048,39 +9506,39 @@
   <dimension ref="A1:LS40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <pane xSplit="1" topLeftCell="LA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LS4" sqref="LS4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" customWidth="1"/>
-    <col min="49" max="49" width="9.265625" customWidth="1"/>
-    <col min="51" max="54" width="9.1328125" customWidth="1"/>
-    <col min="67" max="67" width="9.1328125" customWidth="1"/>
-    <col min="72" max="73" width="9.1328125" customWidth="1"/>
-    <col min="80" max="80" width="9.1328125" customWidth="1"/>
-    <col min="90" max="95" width="9.1328125" customWidth="1"/>
-    <col min="109" max="109" width="9.1328125" customWidth="1"/>
-    <col min="124" max="124" width="9.1328125" customWidth="1"/>
-    <col min="166" max="166" width="9.1328125" customWidth="1"/>
-    <col min="169" max="169" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="49" max="49" width="9.28515625" customWidth="1"/>
+    <col min="51" max="54" width="9.140625" customWidth="1"/>
+    <col min="67" max="67" width="9.140625" customWidth="1"/>
+    <col min="72" max="73" width="9.140625" customWidth="1"/>
+    <col min="80" max="80" width="9.140625" customWidth="1"/>
+    <col min="90" max="95" width="9.140625" customWidth="1"/>
+    <col min="109" max="109" width="9.140625" customWidth="1"/>
+    <col min="124" max="124" width="9.140625" customWidth="1"/>
+    <col min="166" max="166" width="9.140625" customWidth="1"/>
+    <col min="169" max="169" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:331" s="36" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:331" s="40" customFormat="1" ht="120" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:331" s="12" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:331" s="12" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:331" s="31" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:331" s="31" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
@@ -7109,2652 +9567,2652 @@
         <v>8</v>
       </c>
       <c r="J3" s="30">
-        <f>Data!F1</f>
+        <f>Data!F2</f>
         <v>0</v>
       </c>
       <c r="K3" s="30">
-        <f>Data!G1</f>
+        <f>Data!G2</f>
         <v>0</v>
       </c>
       <c r="L3" s="30">
-        <f>Data!H1</f>
+        <f>Data!H2</f>
         <v>0</v>
       </c>
       <c r="M3" s="30">
-        <f>Data!I1</f>
+        <f>Data!I2</f>
         <v>0</v>
       </c>
       <c r="N3" s="30">
-        <f>Data!J1</f>
+        <f>Data!J2</f>
         <v>0</v>
       </c>
       <c r="O3" s="30">
-        <f>Data!K1</f>
+        <f>Data!K2</f>
         <v>0</v>
       </c>
       <c r="P3" s="30">
-        <f>Data!L1</f>
+        <f>Data!L2</f>
         <v>0</v>
       </c>
       <c r="Q3" s="30">
-        <f>Data!M1</f>
+        <f>Data!M2</f>
         <v>0</v>
       </c>
       <c r="R3" s="30">
-        <f>Data!N1</f>
+        <f>Data!N2</f>
         <v>0</v>
       </c>
       <c r="S3" s="30">
-        <f>Data!O1</f>
+        <f>Data!O2</f>
         <v>0</v>
       </c>
       <c r="T3" s="30">
-        <f>Data!P1</f>
+        <f>Data!P2</f>
         <v>0</v>
       </c>
       <c r="U3" s="30">
-        <f>Data!Q1</f>
+        <f>Data!Q2</f>
         <v>0</v>
       </c>
       <c r="V3" s="30">
-        <f>Data!R1</f>
+        <f>Data!R2</f>
         <v>0</v>
       </c>
       <c r="W3" s="30">
-        <f>Data!S1</f>
+        <f>Data!S2</f>
         <v>0</v>
       </c>
       <c r="X3" s="30">
-        <f>Data!T1</f>
+        <f>Data!T2</f>
         <v>0</v>
       </c>
       <c r="Y3" s="30">
-        <f>Data!U1</f>
+        <f>Data!U2</f>
         <v>0</v>
       </c>
       <c r="Z3" s="30">
-        <f>Data!V1</f>
+        <f>Data!V2</f>
         <v>0</v>
       </c>
       <c r="AA3" s="30">
-        <f>Data!W1</f>
+        <f>Data!W2</f>
         <v>0</v>
       </c>
       <c r="AB3" s="30">
-        <f>Data!X1</f>
+        <f>Data!X2</f>
         <v>0</v>
       </c>
       <c r="AC3" s="30">
-        <f>Data!Y1</f>
+        <f>Data!Y2</f>
         <v>0</v>
       </c>
       <c r="AD3" s="30">
-        <f>Data!Z1</f>
+        <f>Data!Z2</f>
         <v>0</v>
       </c>
       <c r="AE3" s="30">
-        <f>Data!AA1</f>
+        <f>Data!AA2</f>
         <v>0</v>
       </c>
       <c r="AF3" s="30">
-        <f>Data!AB1</f>
+        <f>Data!AB2</f>
         <v>0</v>
       </c>
       <c r="AG3" s="30">
-        <f>Data!AC1</f>
+        <f>Data!AC2</f>
         <v>0</v>
       </c>
       <c r="AH3" s="30">
-        <f>Data!AD1</f>
+        <f>Data!AD2</f>
         <v>0</v>
       </c>
       <c r="AI3" s="30">
-        <f>Data!AE1</f>
+        <f>Data!AE2</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="30">
-        <f>Data!AF1</f>
+        <f>Data!AF2</f>
         <v>0</v>
       </c>
       <c r="AK3" s="30">
-        <f>Data!AG1</f>
+        <f>Data!AG2</f>
         <v>0</v>
       </c>
       <c r="AL3" s="30">
-        <f>Data!AH1</f>
+        <f>Data!AH2</f>
         <v>0</v>
       </c>
       <c r="AM3" s="30">
-        <f>Data!AI1</f>
+        <f>Data!AI2</f>
         <v>0</v>
       </c>
       <c r="AN3" s="30">
-        <f>Data!AJ1</f>
+        <f>Data!AJ2</f>
         <v>0</v>
       </c>
       <c r="AO3" s="30">
-        <f>Data!AK1</f>
+        <f>Data!AK2</f>
         <v>0</v>
       </c>
       <c r="AP3" s="30">
-        <f>Data!AL1</f>
+        <f>Data!AL2</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="30">
-        <f>Data!AM1</f>
+        <f>Data!AM2</f>
         <v>0</v>
       </c>
       <c r="AR3" s="30">
-        <f>Data!AN1</f>
+        <f>Data!AN2</f>
         <v>0</v>
       </c>
       <c r="AS3" s="30">
-        <f>Data!AO1</f>
+        <f>Data!AO2</f>
         <v>0</v>
       </c>
       <c r="AT3" s="30">
-        <f>Data!AP1</f>
+        <f>Data!AP2</f>
         <v>0</v>
       </c>
       <c r="AU3" s="30">
-        <f>Data!AQ1</f>
+        <f>Data!AQ2</f>
         <v>0</v>
       </c>
       <c r="AV3" s="30">
-        <f>Data!AR1</f>
+        <f>Data!AR2</f>
         <v>0</v>
       </c>
       <c r="AW3" s="30">
-        <f>Data!AS1</f>
+        <f>Data!AS2</f>
         <v>0</v>
       </c>
       <c r="AX3" s="30">
-        <f>Data!AT1</f>
+        <f>Data!AT2</f>
         <v>0</v>
       </c>
       <c r="AY3" s="30">
-        <f>Data!AU1</f>
+        <f>Data!AU2</f>
         <v>0</v>
       </c>
       <c r="AZ3" s="30">
-        <f>Data!AV1</f>
+        <f>Data!AV2</f>
         <v>0</v>
       </c>
       <c r="BA3" s="30">
-        <f>Data!AW1</f>
+        <f>Data!AW2</f>
         <v>0</v>
       </c>
       <c r="BB3" s="30">
-        <f>Data!AX1</f>
+        <f>Data!AX2</f>
         <v>0</v>
       </c>
       <c r="BC3" s="30">
-        <f>Data!AY1</f>
+        <f>Data!AY2</f>
         <v>0</v>
       </c>
       <c r="BD3" s="30">
-        <f>Data!AZ1</f>
+        <f>Data!AZ2</f>
         <v>0</v>
       </c>
       <c r="BE3" s="30">
-        <f>Data!BA1</f>
+        <f>Data!BA2</f>
         <v>0</v>
       </c>
       <c r="BF3" s="30">
-        <f>Data!BB1</f>
+        <f>Data!BB2</f>
         <v>0</v>
       </c>
       <c r="BG3" s="30">
-        <f>Data!BC1</f>
+        <f>Data!BC2</f>
         <v>0</v>
       </c>
       <c r="BH3" s="30">
-        <f>Data!BD1</f>
+        <f>Data!BD2</f>
         <v>0</v>
       </c>
       <c r="BI3" s="30">
-        <f>Data!BE1</f>
+        <f>Data!BE2</f>
         <v>0</v>
       </c>
       <c r="BJ3" s="30">
-        <f>Data!BF1</f>
+        <f>Data!BF2</f>
         <v>0</v>
       </c>
       <c r="BK3" s="30">
-        <f>Data!BG1</f>
+        <f>Data!BG2</f>
         <v>0</v>
       </c>
       <c r="BL3" s="30">
-        <f>Data!BH1</f>
+        <f>Data!BH2</f>
         <v>0</v>
       </c>
       <c r="BM3" s="30">
-        <f>Data!BI1</f>
+        <f>Data!BI2</f>
         <v>0</v>
       </c>
       <c r="BN3" s="30">
-        <f>Data!BJ1</f>
+        <f>Data!BJ2</f>
         <v>0</v>
       </c>
       <c r="BO3" s="30">
-        <f>Data!BK1</f>
+        <f>Data!BK2</f>
         <v>0</v>
       </c>
       <c r="BP3" s="30">
-        <f>Data!BL1</f>
+        <f>Data!BL2</f>
         <v>0</v>
       </c>
       <c r="BQ3" s="30">
-        <f>Data!BM1</f>
+        <f>Data!BM2</f>
         <v>0</v>
       </c>
       <c r="BR3" s="30">
-        <f>Data!BN1</f>
+        <f>Data!BN2</f>
         <v>0</v>
       </c>
       <c r="BS3" s="30">
-        <f>Data!BO1</f>
+        <f>Data!BO2</f>
         <v>0</v>
       </c>
       <c r="BT3" s="30">
-        <f>Data!BP1</f>
+        <f>Data!BP2</f>
         <v>0</v>
       </c>
       <c r="BU3" s="30">
-        <f>Data!BQ1</f>
+        <f>Data!BQ2</f>
         <v>0</v>
       </c>
       <c r="BV3" s="30">
-        <f>Data!BR1</f>
+        <f>Data!BR2</f>
         <v>0</v>
       </c>
       <c r="BW3" s="30">
-        <f>Data!BS1</f>
+        <f>Data!BS2</f>
         <v>0</v>
       </c>
       <c r="BX3" s="30">
-        <f>Data!BT1</f>
+        <f>Data!BT2</f>
         <v>0</v>
       </c>
       <c r="BY3" s="30">
-        <f>Data!BU1</f>
+        <f>Data!BU2</f>
         <v>0</v>
       </c>
       <c r="BZ3" s="30">
-        <f>Data!BV1</f>
+        <f>Data!BV2</f>
         <v>0</v>
       </c>
       <c r="CA3" s="30">
-        <f>Data!BW1</f>
+        <f>Data!BW2</f>
         <v>0</v>
       </c>
       <c r="CB3" s="30">
-        <f>Data!BX1</f>
+        <f>Data!BX2</f>
         <v>0</v>
       </c>
       <c r="CC3" s="30">
-        <f>Data!BY1</f>
+        <f>Data!BY2</f>
         <v>0</v>
       </c>
       <c r="CD3" s="30">
-        <f>Data!BZ1</f>
+        <f>Data!BZ2</f>
         <v>0</v>
       </c>
       <c r="CE3" s="30">
-        <f>Data!CA1</f>
+        <f>Data!CA2</f>
         <v>0</v>
       </c>
       <c r="CF3" s="30">
-        <f>Data!CB1</f>
+        <f>Data!CB2</f>
         <v>0</v>
       </c>
       <c r="CG3" s="30">
-        <f>Data!CC1</f>
+        <f>Data!CC2</f>
         <v>0</v>
       </c>
       <c r="CH3" s="30">
-        <f>Data!CD1</f>
+        <f>Data!CD2</f>
         <v>0</v>
       </c>
       <c r="CI3" s="30">
-        <f>Data!CE1</f>
+        <f>Data!CE2</f>
         <v>0</v>
       </c>
       <c r="CJ3" s="30">
-        <f>Data!CF1</f>
+        <f>Data!CF2</f>
         <v>0</v>
       </c>
       <c r="CK3" s="30">
-        <f>Data!CG1</f>
+        <f>Data!CG2</f>
         <v>0</v>
       </c>
       <c r="CL3" s="30">
-        <f>Data!CH1</f>
+        <f>Data!CH2</f>
         <v>0</v>
       </c>
       <c r="CM3" s="30">
-        <f>Data!CI1</f>
+        <f>Data!CI2</f>
         <v>0</v>
       </c>
       <c r="CN3" s="30">
-        <f>Data!CJ1</f>
+        <f>Data!CJ2</f>
         <v>0</v>
       </c>
       <c r="CO3" s="30">
-        <f>Data!CK1</f>
+        <f>Data!CK2</f>
         <v>0</v>
       </c>
       <c r="CP3" s="30">
-        <f>Data!CL1</f>
+        <f>Data!CL2</f>
         <v>0</v>
       </c>
       <c r="CQ3" s="30">
-        <f>Data!CM1</f>
+        <f>Data!CM2</f>
         <v>0</v>
       </c>
       <c r="CR3" s="30">
-        <f>Data!CN1</f>
+        <f>Data!CN2</f>
         <v>0</v>
       </c>
       <c r="CS3" s="30">
-        <f>Data!CO1</f>
+        <f>Data!CO2</f>
         <v>0</v>
       </c>
       <c r="CT3" s="30">
-        <f>Data!CP1</f>
+        <f>Data!CP2</f>
         <v>0</v>
       </c>
       <c r="CU3" s="30">
-        <f>Data!CQ1</f>
+        <f>Data!CQ2</f>
         <v>0</v>
       </c>
       <c r="CV3" s="30">
-        <f>Data!CR1</f>
+        <f>Data!CR2</f>
         <v>0</v>
       </c>
       <c r="CW3" s="30">
-        <f>Data!CS1</f>
+        <f>Data!CS2</f>
         <v>0</v>
       </c>
       <c r="CX3" s="30">
-        <f>Data!CT1</f>
+        <f>Data!CT2</f>
         <v>0</v>
       </c>
       <c r="CY3" s="30">
-        <f>Data!CU1</f>
+        <f>Data!CU2</f>
         <v>0</v>
       </c>
       <c r="CZ3" s="30">
-        <f>Data!CV1</f>
+        <f>Data!CV2</f>
         <v>0</v>
       </c>
       <c r="DA3" s="30">
-        <f>Data!CW1</f>
+        <f>Data!CW2</f>
         <v>0</v>
       </c>
       <c r="DB3" s="30">
-        <f>Data!CX1</f>
+        <f>Data!CX2</f>
         <v>0</v>
       </c>
       <c r="DC3" s="30">
-        <f>Data!CY1</f>
+        <f>Data!CY2</f>
         <v>0</v>
       </c>
       <c r="DD3" s="30">
-        <f>Data!CZ1</f>
+        <f>Data!CZ2</f>
         <v>0</v>
       </c>
       <c r="DE3" s="30">
-        <f>Data!DA1</f>
+        <f>Data!DA2</f>
         <v>0</v>
       </c>
       <c r="DF3" s="30">
-        <f>Data!DB1</f>
+        <f>Data!DB2</f>
         <v>0</v>
       </c>
       <c r="DG3" s="30">
-        <f>Data!DC1</f>
+        <f>Data!DC2</f>
         <v>0</v>
       </c>
       <c r="DH3" s="30">
-        <f>Data!DD1</f>
+        <f>Data!DD2</f>
         <v>0</v>
       </c>
       <c r="DI3" s="30">
-        <f>Data!DE1</f>
+        <f>Data!DE2</f>
         <v>0</v>
       </c>
       <c r="DJ3" s="30">
-        <f>Data!DF1</f>
+        <f>Data!DF2</f>
         <v>0</v>
       </c>
       <c r="DK3" s="30">
-        <f>Data!DG1</f>
+        <f>Data!DG2</f>
         <v>0</v>
       </c>
       <c r="DL3" s="30">
-        <f>Data!DH1</f>
+        <f>Data!DH2</f>
         <v>0</v>
       </c>
       <c r="DM3" s="30">
-        <f>Data!DI1</f>
+        <f>Data!DI2</f>
         <v>0</v>
       </c>
       <c r="DN3" s="30">
-        <f>Data!DJ1</f>
+        <f>Data!DJ2</f>
         <v>0</v>
       </c>
       <c r="DO3" s="30">
-        <f>Data!DK1</f>
+        <f>Data!DK2</f>
         <v>0</v>
       </c>
       <c r="DP3" s="30">
-        <f>Data!DL1</f>
+        <f>Data!DL2</f>
         <v>0</v>
       </c>
       <c r="DQ3" s="30">
-        <f>Data!DM1</f>
+        <f>Data!DM2</f>
         <v>0</v>
       </c>
       <c r="DR3" s="30">
-        <f>Data!DN1</f>
+        <f>Data!DN2</f>
         <v>0</v>
       </c>
       <c r="DS3" s="30">
-        <f>Data!DO1</f>
+        <f>Data!DO2</f>
         <v>0</v>
       </c>
       <c r="DT3" s="30">
-        <f>Data!DP1</f>
+        <f>Data!DP2</f>
         <v>0</v>
       </c>
       <c r="DU3" s="30">
-        <f>Data!DQ1</f>
+        <f>Data!DQ2</f>
         <v>0</v>
       </c>
       <c r="DV3" s="30">
-        <f>Data!DR1</f>
+        <f>Data!DR2</f>
         <v>0</v>
       </c>
       <c r="DW3" s="30">
-        <f>Data!DS1</f>
+        <f>Data!DS2</f>
         <v>0</v>
       </c>
       <c r="DX3" s="30">
-        <f>Data!DT1</f>
+        <f>Data!DT2</f>
         <v>0</v>
       </c>
       <c r="DY3" s="30">
-        <f>Data!DU1</f>
+        <f>Data!DU2</f>
         <v>0</v>
       </c>
       <c r="DZ3" s="30">
-        <f>Data!DV1</f>
+        <f>Data!DV2</f>
         <v>0</v>
       </c>
       <c r="EA3" s="30">
-        <f>Data!DW1</f>
+        <f>Data!DW2</f>
         <v>0</v>
       </c>
       <c r="EB3" s="30">
-        <f>Data!DX1</f>
+        <f>Data!DX2</f>
         <v>0</v>
       </c>
       <c r="EC3" s="30">
-        <f>Data!DY1</f>
+        <f>Data!DY2</f>
         <v>0</v>
       </c>
       <c r="ED3" s="30">
-        <f>Data!DZ1</f>
+        <f>Data!DZ2</f>
         <v>0</v>
       </c>
       <c r="EE3" s="30">
-        <f>Data!EA1</f>
+        <f>Data!EA2</f>
         <v>0</v>
       </c>
       <c r="EF3" s="30">
-        <f>Data!EB1</f>
+        <f>Data!EB2</f>
         <v>0</v>
       </c>
       <c r="EG3" s="30">
-        <f>Data!EC1</f>
+        <f>Data!EC2</f>
         <v>0</v>
       </c>
       <c r="EH3" s="30">
-        <f>Data!ED1</f>
+        <f>Data!ED2</f>
         <v>0</v>
       </c>
       <c r="EI3" s="30">
-        <f>Data!EE1</f>
+        <f>Data!EE2</f>
         <v>0</v>
       </c>
       <c r="EJ3" s="30">
-        <f>Data!EF1</f>
+        <f>Data!EF2</f>
         <v>0</v>
       </c>
       <c r="EK3" s="30">
-        <f>Data!EG1</f>
+        <f>Data!EG2</f>
         <v>0</v>
       </c>
       <c r="EL3" s="30">
-        <f>Data!EH1</f>
+        <f>Data!EH2</f>
         <v>0</v>
       </c>
       <c r="EM3" s="30">
-        <f>Data!EI1</f>
+        <f>Data!EI2</f>
         <v>0</v>
       </c>
       <c r="EN3" s="30">
-        <f>Data!EJ1</f>
+        <f>Data!EJ2</f>
         <v>0</v>
       </c>
       <c r="EO3" s="30">
-        <f>Data!EK1</f>
+        <f>Data!EK2</f>
         <v>0</v>
       </c>
       <c r="EP3" s="30">
-        <f>Data!EL1</f>
+        <f>Data!EL2</f>
         <v>0</v>
       </c>
       <c r="EQ3" s="30">
-        <f>Data!EM1</f>
+        <f>Data!EM2</f>
         <v>0</v>
       </c>
       <c r="ER3" s="30">
-        <f>Data!EN1</f>
+        <f>Data!EN2</f>
         <v>0</v>
       </c>
       <c r="ES3" s="30">
-        <f>Data!EO1</f>
+        <f>Data!EO2</f>
         <v>0</v>
       </c>
       <c r="ET3" s="30">
-        <f>Data!EP1</f>
+        <f>Data!EP2</f>
         <v>0</v>
       </c>
       <c r="EU3" s="30">
-        <f>Data!EQ1</f>
+        <f>Data!EQ2</f>
         <v>0</v>
       </c>
       <c r="EV3" s="30">
-        <f>Data!ER1</f>
+        <f>Data!ER2</f>
         <v>0</v>
       </c>
       <c r="EW3" s="30">
-        <f>Data!ES1</f>
+        <f>Data!ES2</f>
         <v>0</v>
       </c>
       <c r="EX3" s="30">
-        <f>Data!ET1</f>
+        <f>Data!ET2</f>
         <v>0</v>
       </c>
       <c r="EY3" s="30">
-        <f>Data!EU1</f>
+        <f>Data!EU2</f>
         <v>0</v>
       </c>
       <c r="EZ3" s="30">
-        <f>Data!EV1</f>
+        <f>Data!EV2</f>
         <v>0</v>
       </c>
       <c r="FA3" s="30">
-        <f>Data!EW1</f>
+        <f>Data!EW2</f>
         <v>0</v>
       </c>
       <c r="FB3" s="30">
-        <f>Data!EX1</f>
+        <f>Data!EX2</f>
         <v>0</v>
       </c>
       <c r="FC3" s="30">
-        <f>Data!EY1</f>
+        <f>Data!EY2</f>
         <v>0</v>
       </c>
       <c r="FD3" s="30">
-        <f>Data!EZ1</f>
+        <f>Data!EZ2</f>
         <v>0</v>
       </c>
       <c r="FE3" s="30">
-        <f>Data!FA1</f>
+        <f>Data!FA2</f>
         <v>0</v>
       </c>
       <c r="FF3" s="30">
-        <f>Data!FB1</f>
+        <f>Data!FB2</f>
         <v>0</v>
       </c>
       <c r="FG3" s="30">
-        <f>Data!FC1</f>
+        <f>Data!FC2</f>
         <v>0</v>
       </c>
       <c r="FH3" s="30">
-        <f>Data!FD1</f>
+        <f>Data!FD2</f>
         <v>0</v>
       </c>
       <c r="FI3" s="30">
-        <f>Data!FE1</f>
+        <f>Data!FE2</f>
         <v>0</v>
       </c>
       <c r="FJ3" s="30">
-        <f>Data!FF1</f>
+        <f>Data!FF2</f>
         <v>0</v>
       </c>
       <c r="FK3" s="30">
-        <f>Data!FG1</f>
+        <f>Data!FG2</f>
         <v>0</v>
       </c>
       <c r="FL3" s="30">
-        <f>Data!FH1</f>
+        <f>Data!FH2</f>
         <v>0</v>
       </c>
       <c r="FM3" s="30">
-        <f>Data!FI1</f>
+        <f>Data!FI2</f>
         <v>0</v>
       </c>
       <c r="FN3" s="30">
-        <f>Data!FJ1</f>
+        <f>Data!FJ2</f>
         <v>0</v>
       </c>
       <c r="FO3" s="30">
-        <f>Data!FK1</f>
+        <f>Data!FK2</f>
         <v>0</v>
       </c>
       <c r="FP3" s="30">
-        <f>Data!FL1</f>
+        <f>Data!FL2</f>
         <v>0</v>
       </c>
       <c r="FQ3" s="30">
-        <f>Data!FM1</f>
+        <f>Data!FM2</f>
         <v>0</v>
       </c>
       <c r="FR3" s="30">
-        <f>Data!FN1</f>
+        <f>Data!FN2</f>
         <v>0</v>
       </c>
       <c r="FS3" s="30">
-        <f>Data!FO1</f>
+        <f>Data!FO2</f>
         <v>0</v>
       </c>
       <c r="FT3" s="30">
-        <f>Data!FP1</f>
+        <f>Data!FP2</f>
         <v>0</v>
       </c>
       <c r="FU3" s="30">
-        <f>Data!FQ1</f>
+        <f>Data!FQ2</f>
         <v>0</v>
       </c>
       <c r="FV3" s="30">
-        <f>Data!FR1</f>
+        <f>Data!FR2</f>
         <v>0</v>
       </c>
       <c r="FW3" s="30">
-        <f>Data!FS1</f>
+        <f>Data!FS2</f>
         <v>0</v>
       </c>
       <c r="FX3" s="30">
-        <f>Data!FT1</f>
+        <f>Data!FT2</f>
         <v>0</v>
       </c>
       <c r="FY3" s="30">
-        <f>Data!FU1</f>
+        <f>Data!FU2</f>
         <v>0</v>
       </c>
       <c r="FZ3" s="30">
-        <f>Data!FV1</f>
+        <f>Data!FV2</f>
         <v>0</v>
       </c>
       <c r="GA3" s="30">
-        <f>Data!FW1</f>
+        <f>Data!FW2</f>
         <v>0</v>
       </c>
       <c r="GB3" s="30">
-        <f>Data!FX1</f>
+        <f>Data!FX2</f>
         <v>0</v>
       </c>
       <c r="GC3" s="30">
-        <f>Data!FY1</f>
+        <f>Data!FY2</f>
         <v>0</v>
       </c>
       <c r="GD3" s="30">
-        <f>Data!FZ1</f>
+        <f>Data!FZ2</f>
         <v>0</v>
       </c>
       <c r="GE3" s="30">
-        <f>Data!GA1</f>
+        <f>Data!GA2</f>
         <v>0</v>
       </c>
       <c r="GF3" s="30">
-        <f>Data!GB1</f>
+        <f>Data!GB2</f>
         <v>0</v>
       </c>
       <c r="GG3" s="30">
-        <f>Data!GC1</f>
+        <f>Data!GC2</f>
         <v>0</v>
       </c>
       <c r="GH3" s="30">
-        <f>Data!GD1</f>
+        <f>Data!GD2</f>
         <v>0</v>
       </c>
       <c r="GI3" s="30">
-        <f>Data!GE1</f>
+        <f>Data!GE2</f>
         <v>0</v>
       </c>
       <c r="GJ3" s="30">
-        <f>Data!GF1</f>
+        <f>Data!GF2</f>
         <v>0</v>
       </c>
       <c r="GK3" s="30">
-        <f>Data!GG1</f>
+        <f>Data!GG2</f>
         <v>0</v>
       </c>
       <c r="GL3" s="30">
-        <f>Data!GH1</f>
+        <f>Data!GH2</f>
         <v>0</v>
       </c>
       <c r="GM3" s="30">
-        <f>Data!GI1</f>
+        <f>Data!GI2</f>
         <v>0</v>
       </c>
       <c r="GN3" s="30">
-        <f>Data!GJ1</f>
+        <f>Data!GJ2</f>
         <v>0</v>
       </c>
       <c r="GO3" s="30">
-        <f>Data!GK1</f>
+        <f>Data!GK2</f>
         <v>0</v>
       </c>
       <c r="GP3" s="30">
-        <f>Data!GL1</f>
+        <f>Data!GL2</f>
         <v>0</v>
       </c>
       <c r="GQ3" s="30">
-        <f>Data!GM1</f>
+        <f>Data!GM2</f>
         <v>0</v>
       </c>
       <c r="GR3" s="30">
-        <f>Data!GN1</f>
+        <f>Data!GN2</f>
         <v>0</v>
       </c>
       <c r="GS3" s="30">
-        <f>Data!GO1</f>
+        <f>Data!GO2</f>
         <v>0</v>
       </c>
       <c r="GT3" s="30">
-        <f>Data!GP1</f>
+        <f>Data!GP2</f>
         <v>0</v>
       </c>
       <c r="GU3" s="30">
-        <f>Data!GQ1</f>
+        <f>Data!GQ2</f>
         <v>0</v>
       </c>
       <c r="GV3" s="30">
-        <f>Data!GR1</f>
+        <f>Data!GR2</f>
         <v>0</v>
       </c>
       <c r="GW3" s="30">
-        <f>Data!GS1</f>
+        <f>Data!GS2</f>
         <v>0</v>
       </c>
       <c r="GX3" s="30">
-        <f>Data!GT1</f>
+        <f>Data!GT2</f>
         <v>0</v>
       </c>
       <c r="GY3" s="30">
-        <f>Data!GU1</f>
+        <f>Data!GU2</f>
         <v>0</v>
       </c>
       <c r="GZ3" s="30">
-        <f>Data!GV1</f>
+        <f>Data!GV2</f>
         <v>0</v>
       </c>
       <c r="HA3" s="30">
-        <f>Data!GW1</f>
+        <f>Data!GW2</f>
         <v>0</v>
       </c>
       <c r="HB3" s="30">
-        <f>Data!GX1</f>
+        <f>Data!GX2</f>
         <v>0</v>
       </c>
       <c r="HC3" s="30">
-        <f>Data!GY1</f>
+        <f>Data!GY2</f>
         <v>0</v>
       </c>
       <c r="HD3" s="30">
-        <f>Data!GZ1</f>
+        <f>Data!GZ2</f>
         <v>0</v>
       </c>
       <c r="HE3" s="30">
-        <f>Data!HA1</f>
+        <f>Data!HA2</f>
         <v>0</v>
       </c>
       <c r="HF3" s="30">
-        <f>Data!HB1</f>
+        <f>Data!HB2</f>
         <v>0</v>
       </c>
       <c r="HG3" s="30">
-        <f>Data!HC1</f>
+        <f>Data!HC2</f>
         <v>0</v>
       </c>
       <c r="HH3" s="30">
-        <f>Data!HD1</f>
+        <f>Data!HD2</f>
         <v>0</v>
       </c>
       <c r="HI3" s="30">
-        <f>Data!HE1</f>
+        <f>Data!HE2</f>
         <v>0</v>
       </c>
       <c r="HJ3" s="30">
-        <f>Data!HF1</f>
+        <f>Data!HF2</f>
         <v>0</v>
       </c>
       <c r="HK3" s="30">
-        <f>Data!HG1</f>
+        <f>Data!HG2</f>
         <v>0</v>
       </c>
       <c r="HL3" s="30">
-        <f>Data!HH1</f>
+        <f>Data!HH2</f>
         <v>0</v>
       </c>
       <c r="HM3" s="30">
-        <f>Data!HI1</f>
+        <f>Data!HI2</f>
         <v>0</v>
       </c>
       <c r="HN3" s="30">
-        <f>Data!HJ1</f>
+        <f>Data!HJ2</f>
         <v>0</v>
       </c>
       <c r="HO3" s="30">
-        <f>Data!HK1</f>
+        <f>Data!HK2</f>
         <v>0</v>
       </c>
       <c r="HP3" s="30">
-        <f>Data!HL1</f>
+        <f>Data!HL2</f>
         <v>0</v>
       </c>
       <c r="HQ3" s="30">
-        <f>Data!HM1</f>
+        <f>Data!HM2</f>
         <v>0</v>
       </c>
       <c r="HR3" s="30">
-        <f>Data!HN1</f>
+        <f>Data!HN2</f>
         <v>0</v>
       </c>
       <c r="HS3" s="30">
-        <f>Data!HO1</f>
+        <f>Data!HO2</f>
         <v>0</v>
       </c>
       <c r="HT3" s="30">
-        <f>Data!HP1</f>
+        <f>Data!HP2</f>
         <v>0</v>
       </c>
       <c r="HU3" s="30">
-        <f>Data!HQ1</f>
+        <f>Data!HQ2</f>
         <v>0</v>
       </c>
       <c r="HV3" s="30">
-        <f>Data!HR1</f>
+        <f>Data!HR2</f>
         <v>0</v>
       </c>
       <c r="HW3" s="30">
-        <f>Data!HS1</f>
+        <f>Data!HS2</f>
         <v>0</v>
       </c>
       <c r="HX3" s="30">
-        <f>Data!HT1</f>
+        <f>Data!HT2</f>
         <v>0</v>
       </c>
       <c r="HY3" s="30">
-        <f>Data!HU1</f>
+        <f>Data!HU2</f>
         <v>0</v>
       </c>
       <c r="HZ3" s="30">
-        <f>Data!HV1</f>
+        <f>Data!HV2</f>
         <v>0</v>
       </c>
       <c r="IA3" s="30">
-        <f>Data!HW1</f>
+        <f>Data!HW2</f>
         <v>0</v>
       </c>
       <c r="IB3" s="30">
-        <f>Data!HX1</f>
+        <f>Data!HX2</f>
         <v>0</v>
       </c>
       <c r="IC3" s="30">
-        <f>Data!HY1</f>
+        <f>Data!HY2</f>
         <v>0</v>
       </c>
       <c r="ID3" s="30">
-        <f>Data!HZ1</f>
+        <f>Data!HZ2</f>
         <v>0</v>
       </c>
       <c r="IE3" s="30">
-        <f>Data!IA1</f>
+        <f>Data!IA2</f>
         <v>0</v>
       </c>
       <c r="IF3" s="30">
-        <f>Data!IB1</f>
+        <f>Data!IB2</f>
         <v>0</v>
       </c>
       <c r="IG3" s="30">
-        <f>Data!IC1</f>
+        <f>Data!IC2</f>
         <v>0</v>
       </c>
       <c r="IH3" s="30">
-        <f>Data!ID1</f>
+        <f>Data!ID2</f>
         <v>0</v>
       </c>
       <c r="II3" s="30">
-        <f>Data!IE1</f>
+        <f>Data!IE2</f>
         <v>0</v>
       </c>
       <c r="IJ3" s="30">
-        <f>Data!IF1</f>
+        <f>Data!IF2</f>
         <v>0</v>
       </c>
       <c r="IK3" s="30">
-        <f>Data!IG1</f>
+        <f>Data!IG2</f>
         <v>0</v>
       </c>
       <c r="IL3" s="30">
-        <f>Data!IH1</f>
+        <f>Data!IH2</f>
         <v>0</v>
       </c>
       <c r="IM3" s="30">
-        <f>Data!II1</f>
+        <f>Data!II2</f>
         <v>0</v>
       </c>
       <c r="IN3" s="30">
-        <f>Data!IJ1</f>
+        <f>Data!IJ2</f>
         <v>0</v>
       </c>
       <c r="IO3" s="30">
-        <f>Data!IK1</f>
+        <f>Data!IK2</f>
         <v>0</v>
       </c>
       <c r="IP3" s="30">
-        <f>Data!IL1</f>
+        <f>Data!IL2</f>
         <v>0</v>
       </c>
       <c r="IQ3" s="30">
-        <f>Data!IM1</f>
+        <f>Data!IM2</f>
         <v>0</v>
       </c>
       <c r="IR3" s="30">
-        <f>Data!IN1</f>
+        <f>Data!IN2</f>
         <v>0</v>
       </c>
       <c r="IS3" s="30">
-        <f>Data!IO1</f>
+        <f>Data!IO2</f>
         <v>0</v>
       </c>
       <c r="IT3" s="30">
-        <f>Data!IP1</f>
+        <f>Data!IP2</f>
         <v>0</v>
       </c>
       <c r="IU3" s="30">
-        <f>Data!IQ1</f>
+        <f>Data!IQ2</f>
         <v>0</v>
       </c>
       <c r="IV3" s="30">
-        <f>Data!IR1</f>
+        <f>Data!IR2</f>
         <v>0</v>
       </c>
       <c r="IW3" s="30">
-        <f>Data!IS1</f>
+        <f>Data!IS2</f>
         <v>0</v>
       </c>
       <c r="IX3" s="30">
-        <f>Data!IT1</f>
+        <f>Data!IT2</f>
         <v>0</v>
       </c>
       <c r="IY3" s="30">
-        <f>Data!IU1</f>
+        <f>Data!IU2</f>
         <v>0</v>
       </c>
       <c r="IZ3" s="30">
-        <f>Data!IV1</f>
+        <f>Data!IV2</f>
         <v>0</v>
       </c>
       <c r="JA3" s="30">
-        <f>Data!IW1</f>
+        <f>Data!IW2</f>
         <v>0</v>
       </c>
       <c r="JB3" s="30">
-        <f>Data!IX1</f>
+        <f>Data!IX2</f>
         <v>0</v>
       </c>
       <c r="JC3" s="30">
-        <f>Data!IY1</f>
+        <f>Data!IY2</f>
         <v>0</v>
       </c>
       <c r="JD3" s="30">
-        <f>Data!IZ1</f>
+        <f>Data!IZ2</f>
         <v>0</v>
       </c>
       <c r="JE3" s="30">
-        <f>Data!JA1</f>
+        <f>Data!JA2</f>
         <v>0</v>
       </c>
       <c r="JF3" s="30">
-        <f>Data!JB1</f>
+        <f>Data!JB2</f>
         <v>0</v>
       </c>
       <c r="JG3" s="30">
-        <f>Data!JC1</f>
+        <f>Data!JC2</f>
         <v>0</v>
       </c>
       <c r="JH3" s="30">
-        <f>Data!JD1</f>
+        <f>Data!JD2</f>
         <v>0</v>
       </c>
       <c r="JI3" s="30">
-        <f>Data!JE1</f>
+        <f>Data!JE2</f>
         <v>0</v>
       </c>
       <c r="JJ3" s="30">
-        <f>Data!JF1</f>
+        <f>Data!JF2</f>
         <v>0</v>
       </c>
       <c r="JK3" s="30">
-        <f>Data!JG1</f>
+        <f>Data!JG2</f>
         <v>0</v>
       </c>
       <c r="JL3" s="30">
-        <f>Data!JH1</f>
+        <f>Data!JH2</f>
         <v>0</v>
       </c>
       <c r="JM3" s="30">
-        <f>Data!JI1</f>
+        <f>Data!JI2</f>
         <v>0</v>
       </c>
       <c r="JN3" s="30">
-        <f>Data!JJ1</f>
+        <f>Data!JJ2</f>
         <v>0</v>
       </c>
       <c r="JO3" s="30">
-        <f>Data!JK1</f>
+        <f>Data!JK2</f>
         <v>0</v>
       </c>
       <c r="JP3" s="30">
-        <f>Data!JL1</f>
+        <f>Data!JL2</f>
         <v>0</v>
       </c>
       <c r="JQ3" s="30">
-        <f>Data!JM1</f>
+        <f>Data!JM2</f>
         <v>0</v>
       </c>
       <c r="JR3" s="30">
-        <f>Data!JN1</f>
+        <f>Data!JN2</f>
         <v>0</v>
       </c>
       <c r="JS3" s="30">
-        <f>Data!JO1</f>
+        <f>Data!JO2</f>
         <v>0</v>
       </c>
       <c r="JT3" s="30">
-        <f>Data!JP1</f>
+        <f>Data!JP2</f>
         <v>0</v>
       </c>
       <c r="JU3" s="30">
-        <f>Data!JQ1</f>
+        <f>Data!JQ2</f>
         <v>0</v>
       </c>
       <c r="JV3" s="30">
-        <f>Data!JR1</f>
+        <f>Data!JR2</f>
         <v>0</v>
       </c>
       <c r="JW3" s="30">
-        <f>Data!JS1</f>
+        <f>Data!JS2</f>
         <v>0</v>
       </c>
       <c r="JX3" s="30">
-        <f>Data!JT1</f>
+        <f>Data!JT2</f>
         <v>0</v>
       </c>
       <c r="JY3" s="30">
-        <f>Data!JU1</f>
+        <f>Data!JU2</f>
         <v>0</v>
       </c>
       <c r="JZ3" s="30">
-        <f>Data!JV1</f>
+        <f>Data!JV2</f>
         <v>0</v>
       </c>
       <c r="KA3" s="30">
-        <f>Data!JW1</f>
+        <f>Data!JW2</f>
         <v>0</v>
       </c>
       <c r="KB3" s="30">
-        <f>Data!JX1</f>
+        <f>Data!JX2</f>
         <v>0</v>
       </c>
       <c r="KC3" s="30">
-        <f>Data!JY1</f>
+        <f>Data!JY2</f>
         <v>0</v>
       </c>
       <c r="KD3" s="30">
-        <f>Data!JZ1</f>
+        <f>Data!JZ2</f>
         <v>0</v>
       </c>
       <c r="KE3" s="30">
-        <f>Data!KA1</f>
+        <f>Data!KA2</f>
         <v>0</v>
       </c>
       <c r="KF3" s="30">
-        <f>Data!KB1</f>
+        <f>Data!KB2</f>
         <v>0</v>
       </c>
       <c r="KG3" s="30">
-        <f>Data!KC1</f>
+        <f>Data!KC2</f>
         <v>0</v>
       </c>
       <c r="KH3" s="30">
-        <f>Data!KD1</f>
+        <f>Data!KD2</f>
         <v>0</v>
       </c>
       <c r="KI3" s="30">
-        <f>Data!KE1</f>
+        <f>Data!KE2</f>
         <v>0</v>
       </c>
       <c r="KJ3" s="30">
-        <f>Data!KF1</f>
+        <f>Data!KF2</f>
         <v>0</v>
       </c>
       <c r="KK3" s="30">
-        <f>Data!KG1</f>
+        <f>Data!KG2</f>
         <v>0</v>
       </c>
       <c r="KL3" s="30">
-        <f>Data!KH1</f>
+        <f>Data!KH2</f>
         <v>0</v>
       </c>
       <c r="KM3" s="30">
-        <f>Data!KI1</f>
+        <f>Data!KI2</f>
         <v>0</v>
       </c>
       <c r="KN3" s="30">
-        <f>Data!KJ1</f>
+        <f>Data!KJ2</f>
         <v>0</v>
       </c>
       <c r="KO3" s="30">
-        <f>Data!KK1</f>
+        <f>Data!KK2</f>
         <v>0</v>
       </c>
       <c r="KP3" s="30">
-        <f>Data!KL1</f>
+        <f>Data!KL2</f>
         <v>0</v>
       </c>
       <c r="KQ3" s="30">
-        <f>Data!KM1</f>
+        <f>Data!KM2</f>
         <v>0</v>
       </c>
       <c r="KR3" s="30">
-        <f>Data!KN1</f>
+        <f>Data!KN2</f>
         <v>0</v>
       </c>
       <c r="KS3" s="30">
-        <f>Data!KO1</f>
+        <f>Data!KO2</f>
         <v>0</v>
       </c>
       <c r="KT3" s="30">
-        <f>Data!KP1</f>
+        <f>Data!KP2</f>
         <v>0</v>
       </c>
       <c r="KU3" s="30">
-        <f>Data!KQ1</f>
+        <f>Data!KQ2</f>
         <v>0</v>
       </c>
       <c r="KV3" s="30">
-        <f>Data!KR1</f>
+        <f>Data!KR2</f>
         <v>0</v>
       </c>
       <c r="KW3" s="30">
-        <f>Data!KS1</f>
+        <f>Data!KS2</f>
         <v>0</v>
       </c>
       <c r="KX3" s="30">
-        <f>Data!KT1</f>
+        <f>Data!KT2</f>
         <v>0</v>
       </c>
       <c r="KY3" s="30">
-        <f>Data!KU1</f>
+        <f>Data!KU2</f>
         <v>0</v>
       </c>
       <c r="KZ3" s="30">
-        <f>Data!KV1</f>
+        <f>Data!KV2</f>
         <v>0</v>
       </c>
       <c r="LA3" s="30">
-        <f>Data!KW1</f>
+        <f>Data!KW2</f>
         <v>0</v>
       </c>
       <c r="LB3" s="30">
-        <f>Data!KX1</f>
+        <f>Data!KX2</f>
         <v>0</v>
       </c>
       <c r="LC3" s="30">
-        <f>Data!KY1</f>
+        <f>Data!KY2</f>
         <v>0</v>
       </c>
       <c r="LD3" s="30">
-        <f>Data!KZ1</f>
+        <f>Data!KZ2</f>
         <v>0</v>
       </c>
       <c r="LE3" s="30">
-        <f>Data!LA1</f>
+        <f>Data!LA2</f>
         <v>0</v>
       </c>
       <c r="LF3" s="30">
-        <f>Data!LB1</f>
+        <f>Data!LB2</f>
         <v>0</v>
       </c>
       <c r="LG3" s="30">
-        <f>Data!LC1</f>
+        <f>Data!LC2</f>
         <v>0</v>
       </c>
       <c r="LH3" s="30">
-        <f>Data!LD1</f>
+        <f>Data!LD2</f>
         <v>0</v>
       </c>
       <c r="LI3" s="30">
-        <f>Data!LE1</f>
+        <f>Data!LE2</f>
         <v>0</v>
       </c>
       <c r="LJ3" s="30">
-        <f>Data!LF1</f>
+        <f>Data!LF2</f>
         <v>0</v>
       </c>
       <c r="LK3" s="30">
-        <f>Data!LG1</f>
+        <f>Data!LG2</f>
         <v>0</v>
       </c>
       <c r="LL3" s="30">
-        <f>Data!LH1</f>
+        <f>Data!LH2</f>
         <v>0</v>
       </c>
       <c r="LM3" s="30">
-        <f>Data!LI1</f>
+        <f>Data!LI2</f>
         <v>0</v>
       </c>
       <c r="LN3" s="30">
-        <f>Data!LJ1</f>
+        <f>Data!LJ2</f>
         <v>0</v>
       </c>
       <c r="LO3" s="30">
-        <f>Data!LK1</f>
+        <f>Data!LK2</f>
         <v>0</v>
       </c>
       <c r="LP3" s="30">
-        <f>Data!LL1</f>
+        <f>Data!LL2</f>
         <v>0</v>
       </c>
       <c r="LQ3" s="30">
-        <f>Data!LM1</f>
+        <f>Data!LM2</f>
         <v>0</v>
       </c>
       <c r="LR3" s="30">
-        <f>Data!LN1</f>
+        <f>Data!LN2</f>
         <v>0</v>
       </c>
       <c r="LS3" s="30">
-        <f>Data!LO1</f>
+        <f>Data!LO2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:331" ht="15.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:331" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <f>STDEV(Data!2:2)</f>
-        <v>2.3094876776751443</v>
+        <f>STDEV(Data!3:3)</f>
+        <v>1.7321662737739698</v>
       </c>
       <c r="C4" s="21">
-        <f>AVERAGE(Data!2:2)</f>
-        <v>3.6666666666666665</v>
+        <f>AVERAGE(Data!3:3)</f>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4" si="0">C4+3*B4</f>
-        <v>10.5951296996921</v>
+        <v>9.1964988213219101</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4" si="1">C4+2*B4</f>
-        <v>8.2856420220169547</v>
+        <v>7.4643325475479401</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4" si="2">C4-2*B4</f>
-        <v>-0.95230868868362206</v>
+        <v>0.53566745245206038</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4" si="3">C4-3*B4</f>
-        <v>-3.2617963663587664</v>
+        <v>-1.1964988213219092</v>
       </c>
       <c r="H4" s="2">
-        <f>Data!D2</f>
+        <f>Data!D3</f>
         <v>5.0199999999999996</v>
       </c>
       <c r="I4" s="2">
-        <f>Data!E2</f>
+        <f>Data!E3</f>
         <v>4.9800000000000004</v>
       </c>
       <c r="J4" s="2">
-        <f>Data!F2</f>
+        <f>Data!F3</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f>Data!G2</f>
+        <f>Data!G3</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f>Data!H2</f>
+        <f>Data!H3</f>
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f>Data!I2</f>
+        <f>Data!I3</f>
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f>Data!J2</f>
+        <f>Data!J3</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>Data!K2</f>
+        <f>Data!K3</f>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f>Data!L2</f>
+        <f>Data!L3</f>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f>Data!M2</f>
+        <f>Data!M3</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>Data!N2</f>
+        <f>Data!N3</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f>Data!O2</f>
+        <f>Data!O3</f>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f>Data!P2</f>
+        <f>Data!P3</f>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f>Data!Q2</f>
+        <f>Data!Q3</f>
         <v>0</v>
       </c>
       <c r="V4" s="2">
-        <f>Data!R2</f>
+        <f>Data!R3</f>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f>Data!S2</f>
+        <f>Data!S3</f>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f>Data!T2</f>
+        <f>Data!T3</f>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f>Data!U2</f>
+        <f>Data!U3</f>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f>Data!V2</f>
+        <f>Data!V3</f>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f>Data!W2</f>
+        <f>Data!W3</f>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f>Data!X2</f>
+        <f>Data!X3</f>
         <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <f>Data!Y2</f>
+        <f>Data!Y3</f>
         <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <f>Data!Z2</f>
+        <f>Data!Z3</f>
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <f>Data!AA2</f>
+        <f>Data!AA3</f>
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <f>Data!AB2</f>
+        <f>Data!AB3</f>
         <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <f>Data!AC2</f>
+        <f>Data!AC3</f>
         <v>0</v>
       </c>
       <c r="AH4" s="2">
-        <f>Data!AD2</f>
+        <f>Data!AD3</f>
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <f>Data!AE2</f>
+        <f>Data!AE3</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f>Data!AF2</f>
+        <f>Data!AF3</f>
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <f>Data!AG2</f>
+        <f>Data!AG3</f>
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f>Data!AH2</f>
+        <f>Data!AH3</f>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f>Data!AI2</f>
+        <f>Data!AI3</f>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f>Data!AJ2</f>
+        <f>Data!AJ3</f>
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <f>Data!AK2</f>
+        <f>Data!AK3</f>
         <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <f>Data!AL2</f>
+        <f>Data!AL3</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <f>Data!AM2</f>
+        <f>Data!AM3</f>
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <f>Data!AN2</f>
+        <f>Data!AN3</f>
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <f>Data!AO2</f>
+        <f>Data!AO3</f>
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <f>Data!AP2</f>
+        <f>Data!AP3</f>
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <f>Data!AQ2</f>
+        <f>Data!AQ3</f>
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <f>Data!AR2</f>
+        <f>Data!AR3</f>
         <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <f>Data!AS2</f>
+        <f>Data!AS3</f>
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <f>Data!AT2</f>
+        <f>Data!AT3</f>
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <f>Data!AU2</f>
+        <f>Data!AU3</f>
         <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <f>Data!AV2</f>
+        <f>Data!AV3</f>
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <f>Data!AW2</f>
+        <f>Data!AW3</f>
         <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <f>Data!AX2</f>
+        <f>Data!AX3</f>
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <f>Data!AY2</f>
+        <f>Data!AY3</f>
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <f>Data!AZ2</f>
+        <f>Data!AZ3</f>
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <f>Data!BA2</f>
+        <f>Data!BA3</f>
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <f>Data!BB2</f>
+        <f>Data!BB3</f>
         <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <f>Data!BC2</f>
+        <f>Data!BC3</f>
         <v>0</v>
       </c>
       <c r="BH4" s="2">
-        <f>Data!BD2</f>
+        <f>Data!BD3</f>
         <v>0</v>
       </c>
       <c r="BI4" s="2">
-        <f>Data!BE2</f>
+        <f>Data!BE3</f>
         <v>0</v>
       </c>
       <c r="BJ4" s="2">
-        <f>Data!BF2</f>
+        <f>Data!BF3</f>
         <v>0</v>
       </c>
       <c r="BK4" s="2">
-        <f>Data!BG2</f>
+        <f>Data!BG3</f>
         <v>0</v>
       </c>
       <c r="BL4" s="2">
-        <f>Data!BH2</f>
+        <f>Data!BH3</f>
         <v>0</v>
       </c>
       <c r="BM4" s="2">
-        <f>Data!BI2</f>
+        <f>Data!BI3</f>
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <f>Data!BJ2</f>
+        <f>Data!BJ3</f>
         <v>0</v>
       </c>
       <c r="BO4" s="2">
-        <f>Data!BK2</f>
+        <f>Data!BK3</f>
         <v>0</v>
       </c>
       <c r="BP4" s="2">
-        <f>Data!BL2</f>
+        <f>Data!BL3</f>
         <v>0</v>
       </c>
       <c r="BQ4" s="2">
-        <f>Data!BM2</f>
+        <f>Data!BM3</f>
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <f>Data!BN2</f>
+        <f>Data!BN3</f>
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <f>Data!BO2</f>
+        <f>Data!BO3</f>
         <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <f>Data!BP2</f>
+        <f>Data!BP3</f>
         <v>0</v>
       </c>
       <c r="BU4" s="2">
-        <f>Data!BQ2</f>
+        <f>Data!BQ3</f>
         <v>0</v>
       </c>
       <c r="BV4" s="2">
-        <f>Data!BR2</f>
+        <f>Data!BR3</f>
         <v>0</v>
       </c>
       <c r="BW4" s="2">
-        <f>Data!BS2</f>
+        <f>Data!BS3</f>
         <v>0</v>
       </c>
       <c r="BX4" s="2">
-        <f>Data!BT2</f>
+        <f>Data!BT3</f>
         <v>0</v>
       </c>
       <c r="BY4" s="2">
-        <f>Data!BU2</f>
+        <f>Data!BU3</f>
         <v>0</v>
       </c>
       <c r="BZ4" s="2">
-        <f>Data!BV2</f>
+        <f>Data!BV3</f>
         <v>0</v>
       </c>
       <c r="CA4" s="2">
-        <f>Data!BW2</f>
+        <f>Data!BW3</f>
         <v>0</v>
       </c>
       <c r="CB4" s="2">
-        <f>Data!BX2</f>
+        <f>Data!BX3</f>
         <v>0</v>
       </c>
       <c r="CC4" s="2">
-        <f>Data!BY2</f>
+        <f>Data!BY3</f>
         <v>0</v>
       </c>
       <c r="CD4" s="2">
-        <f>Data!BZ2</f>
+        <f>Data!BZ3</f>
         <v>0</v>
       </c>
       <c r="CE4" s="2">
-        <f>Data!CA2</f>
+        <f>Data!CA3</f>
         <v>0</v>
       </c>
       <c r="CF4" s="2">
-        <f>Data!CB2</f>
+        <f>Data!CB3</f>
         <v>0</v>
       </c>
       <c r="CG4" s="2">
-        <f>Data!CC2</f>
+        <f>Data!CC3</f>
         <v>0</v>
       </c>
       <c r="CH4" s="2">
-        <f>Data!CD2</f>
+        <f>Data!CD3</f>
         <v>0</v>
       </c>
       <c r="CI4" s="2">
-        <f>Data!CE2</f>
+        <f>Data!CE3</f>
         <v>0</v>
       </c>
       <c r="CJ4" s="2">
-        <f>Data!CF2</f>
+        <f>Data!CF3</f>
         <v>0</v>
       </c>
       <c r="CK4" s="2">
-        <f>Data!CG2</f>
+        <f>Data!CG3</f>
         <v>0</v>
       </c>
       <c r="CL4" s="2">
-        <f>Data!CH2</f>
+        <f>Data!CH3</f>
         <v>0</v>
       </c>
       <c r="CM4" s="2">
-        <f>Data!CI2</f>
+        <f>Data!CI3</f>
         <v>0</v>
       </c>
       <c r="CN4" s="2">
-        <f>Data!CJ2</f>
+        <f>Data!CJ3</f>
         <v>0</v>
       </c>
       <c r="CO4" s="2">
-        <f>Data!CK2</f>
+        <f>Data!CK3</f>
         <v>0</v>
       </c>
       <c r="CP4" s="2">
-        <f>Data!CL2</f>
+        <f>Data!CL3</f>
         <v>0</v>
       </c>
       <c r="CQ4" s="2">
-        <f>Data!CM2</f>
+        <f>Data!CM3</f>
         <v>0</v>
       </c>
       <c r="CR4" s="2">
-        <f>Data!CN2</f>
+        <f>Data!CN3</f>
         <v>0</v>
       </c>
       <c r="CS4" s="2">
-        <f>Data!CO2</f>
+        <f>Data!CO3</f>
         <v>0</v>
       </c>
       <c r="CT4" s="2">
-        <f>Data!CP2</f>
+        <f>Data!CP3</f>
         <v>0</v>
       </c>
       <c r="CU4" s="2">
-        <f>Data!CQ2</f>
+        <f>Data!CQ3</f>
         <v>0</v>
       </c>
       <c r="CV4" s="2">
-        <f>Data!CR2</f>
+        <f>Data!CR3</f>
         <v>0</v>
       </c>
       <c r="CW4" s="2">
-        <f>Data!CS2</f>
+        <f>Data!CS3</f>
         <v>0</v>
       </c>
       <c r="CX4" s="2">
-        <f>Data!CT2</f>
+        <f>Data!CT3</f>
         <v>0</v>
       </c>
       <c r="CY4" s="2">
-        <f>Data!CU2</f>
+        <f>Data!CU3</f>
         <v>0</v>
       </c>
       <c r="CZ4" s="2">
-        <f>Data!CV2</f>
+        <f>Data!CV3</f>
         <v>0</v>
       </c>
       <c r="DA4" s="2">
-        <f>Data!CW2</f>
+        <f>Data!CW3</f>
         <v>0</v>
       </c>
       <c r="DB4" s="2">
-        <f>Data!CX2</f>
+        <f>Data!CX3</f>
         <v>0</v>
       </c>
       <c r="DC4" s="2">
-        <f>Data!CY2</f>
+        <f>Data!CY3</f>
         <v>0</v>
       </c>
       <c r="DD4" s="2">
-        <f>Data!CZ2</f>
+        <f>Data!CZ3</f>
         <v>0</v>
       </c>
       <c r="DE4" s="2">
-        <f>Data!DA2</f>
+        <f>Data!DA3</f>
         <v>0</v>
       </c>
       <c r="DF4" s="2">
-        <f>Data!DB2</f>
+        <f>Data!DB3</f>
         <v>0</v>
       </c>
       <c r="DG4" s="2">
-        <f>Data!DC2</f>
+        <f>Data!DC3</f>
         <v>0</v>
       </c>
       <c r="DH4" s="2">
-        <f>Data!DD2</f>
+        <f>Data!DD3</f>
         <v>0</v>
       </c>
       <c r="DI4" s="2">
-        <f>Data!DE2</f>
+        <f>Data!DE3</f>
         <v>0</v>
       </c>
       <c r="DJ4" s="2">
-        <f>Data!DF2</f>
+        <f>Data!DF3</f>
         <v>0</v>
       </c>
       <c r="DK4" s="2">
-        <f>Data!DG2</f>
+        <f>Data!DG3</f>
         <v>0</v>
       </c>
       <c r="DL4" s="2">
-        <f>Data!DH2</f>
+        <f>Data!DH3</f>
         <v>0</v>
       </c>
       <c r="DM4" s="2">
-        <f>Data!DI2</f>
+        <f>Data!DI3</f>
         <v>0</v>
       </c>
       <c r="DN4" s="2">
-        <f>Data!DJ2</f>
+        <f>Data!DJ3</f>
         <v>0</v>
       </c>
       <c r="DO4" s="2">
-        <f>Data!DK2</f>
+        <f>Data!DK3</f>
         <v>0</v>
       </c>
       <c r="DP4" s="2">
-        <f>Data!DL2</f>
+        <f>Data!DL3</f>
         <v>0</v>
       </c>
       <c r="DQ4" s="2">
-        <f>Data!DM2</f>
+        <f>Data!DM3</f>
         <v>0</v>
       </c>
       <c r="DR4" s="2">
-        <f>Data!DN2</f>
+        <f>Data!DN3</f>
         <v>0</v>
       </c>
       <c r="DS4" s="2">
-        <f>Data!DO2</f>
+        <f>Data!DO3</f>
         <v>0</v>
       </c>
       <c r="DT4" s="2">
-        <f>Data!DP2</f>
+        <f>Data!DP3</f>
         <v>0</v>
       </c>
       <c r="DU4" s="2">
-        <f>Data!DQ2</f>
+        <f>Data!DQ3</f>
         <v>0</v>
       </c>
       <c r="DV4" s="2">
-        <f>Data!DR2</f>
+        <f>Data!DR3</f>
         <v>0</v>
       </c>
       <c r="DW4" s="2">
-        <f>Data!DS2</f>
+        <f>Data!DS3</f>
         <v>0</v>
       </c>
       <c r="DX4" s="2">
-        <f>Data!DT2</f>
+        <f>Data!DT3</f>
         <v>0</v>
       </c>
       <c r="DY4" s="2">
-        <f>Data!DU2</f>
+        <f>Data!DU3</f>
         <v>0</v>
       </c>
       <c r="DZ4" s="2">
-        <f>Data!DV2</f>
+        <f>Data!DV3</f>
         <v>0</v>
       </c>
       <c r="EA4" s="2">
-        <f>Data!DW2</f>
+        <f>Data!DW3</f>
         <v>0</v>
       </c>
       <c r="EB4" s="2">
-        <f>Data!DX2</f>
+        <f>Data!DX3</f>
         <v>0</v>
       </c>
       <c r="EC4" s="2">
-        <f>Data!DY2</f>
+        <f>Data!DY3</f>
         <v>0</v>
       </c>
       <c r="ED4" s="2">
-        <f>Data!DZ2</f>
+        <f>Data!DZ3</f>
         <v>0</v>
       </c>
       <c r="EE4" s="2">
-        <f>Data!EA2</f>
+        <f>Data!EA3</f>
         <v>0</v>
       </c>
       <c r="EF4" s="2">
-        <f>Data!EB2</f>
+        <f>Data!EB3</f>
         <v>0</v>
       </c>
       <c r="EG4" s="2">
-        <f>Data!EC2</f>
+        <f>Data!EC3</f>
         <v>0</v>
       </c>
       <c r="EH4" s="2">
-        <f>Data!ED2</f>
+        <f>Data!ED3</f>
         <v>0</v>
       </c>
       <c r="EI4" s="2">
-        <f>Data!EE2</f>
+        <f>Data!EE3</f>
         <v>0</v>
       </c>
       <c r="EJ4" s="2">
-        <f>Data!EF2</f>
+        <f>Data!EF3</f>
         <v>0</v>
       </c>
       <c r="EK4" s="2">
-        <f>Data!EG2</f>
+        <f>Data!EG3</f>
         <v>0</v>
       </c>
       <c r="EL4" s="2">
-        <f>Data!EH2</f>
+        <f>Data!EH3</f>
         <v>0</v>
       </c>
       <c r="EM4" s="2">
-        <f>Data!EI2</f>
+        <f>Data!EI3</f>
         <v>0</v>
       </c>
       <c r="EN4" s="2">
-        <f>Data!EJ2</f>
+        <f>Data!EJ3</f>
         <v>0</v>
       </c>
       <c r="EO4" s="2">
-        <f>Data!EK2</f>
+        <f>Data!EK3</f>
         <v>0</v>
       </c>
       <c r="EP4" s="2">
-        <f>Data!EL2</f>
+        <f>Data!EL3</f>
         <v>0</v>
       </c>
       <c r="EQ4" s="2">
-        <f>Data!EM2</f>
+        <f>Data!EM3</f>
         <v>0</v>
       </c>
       <c r="ER4" s="2">
-        <f>Data!EN2</f>
+        <f>Data!EN3</f>
         <v>0</v>
       </c>
       <c r="ES4" s="2">
-        <f>Data!EO2</f>
+        <f>Data!EO3</f>
         <v>0</v>
       </c>
       <c r="ET4" s="2">
-        <f>Data!EP2</f>
+        <f>Data!EP3</f>
         <v>0</v>
       </c>
       <c r="EU4" s="2">
-        <f>Data!EQ2</f>
+        <f>Data!EQ3</f>
         <v>0</v>
       </c>
       <c r="EV4" s="2">
-        <f>Data!ER2</f>
+        <f>Data!ER3</f>
         <v>0</v>
       </c>
       <c r="EW4" s="2">
-        <f>Data!ES2</f>
+        <f>Data!ES3</f>
         <v>0</v>
       </c>
       <c r="EX4" s="2">
-        <f>Data!ET2</f>
+        <f>Data!ET3</f>
         <v>0</v>
       </c>
       <c r="EY4" s="2">
-        <f>Data!EU2</f>
+        <f>Data!EU3</f>
         <v>0</v>
       </c>
       <c r="EZ4" s="2">
-        <f>Data!EV2</f>
+        <f>Data!EV3</f>
         <v>0</v>
       </c>
       <c r="FA4" s="2">
-        <f>Data!EW2</f>
+        <f>Data!EW3</f>
         <v>0</v>
       </c>
       <c r="FB4" s="2">
-        <f>Data!EX2</f>
+        <f>Data!EX3</f>
         <v>0</v>
       </c>
       <c r="FC4" s="2">
-        <f>Data!EY2</f>
+        <f>Data!EY3</f>
         <v>0</v>
       </c>
       <c r="FD4" s="2">
-        <f>Data!EZ2</f>
+        <f>Data!EZ3</f>
         <v>0</v>
       </c>
       <c r="FE4" s="2">
-        <f>Data!FA2</f>
+        <f>Data!FA3</f>
         <v>0</v>
       </c>
       <c r="FF4" s="2">
-        <f>Data!FB2</f>
+        <f>Data!FB3</f>
         <v>0</v>
       </c>
       <c r="FG4" s="2">
-        <f>Data!FC2</f>
+        <f>Data!FC3</f>
         <v>0</v>
       </c>
       <c r="FH4" s="2">
-        <f>Data!FD2</f>
+        <f>Data!FD3</f>
         <v>0</v>
       </c>
       <c r="FI4" s="2">
-        <f>Data!FE2</f>
+        <f>Data!FE3</f>
         <v>0</v>
       </c>
       <c r="FJ4" s="2">
-        <f>Data!FF2</f>
+        <f>Data!FF3</f>
         <v>0</v>
       </c>
       <c r="FK4" s="2">
-        <f>Data!FG2</f>
+        <f>Data!FG3</f>
         <v>0</v>
       </c>
       <c r="FL4" s="2">
-        <f>Data!FH2</f>
+        <f>Data!FH3</f>
         <v>0</v>
       </c>
       <c r="FM4" s="2">
-        <f>Data!FI2</f>
+        <f>Data!FI3</f>
         <v>0</v>
       </c>
       <c r="FN4" s="2">
-        <f>Data!FJ2</f>
+        <f>Data!FJ3</f>
         <v>0</v>
       </c>
       <c r="FO4" s="2">
-        <f>Data!FK2</f>
+        <f>Data!FK3</f>
         <v>0</v>
       </c>
       <c r="FP4" s="2">
-        <f>Data!FL2</f>
+        <f>Data!FL3</f>
         <v>0</v>
       </c>
       <c r="FQ4" s="2">
-        <f>Data!FM2</f>
+        <f>Data!FM3</f>
         <v>0</v>
       </c>
       <c r="FR4" s="2">
-        <f>Data!FN2</f>
+        <f>Data!FN3</f>
         <v>0</v>
       </c>
       <c r="FS4" s="2">
-        <f>Data!FO2</f>
+        <f>Data!FO3</f>
         <v>0</v>
       </c>
       <c r="FT4" s="2">
-        <f>Data!FP2</f>
+        <f>Data!FP3</f>
         <v>0</v>
       </c>
       <c r="FU4" s="2">
-        <f>Data!FQ2</f>
+        <f>Data!FQ3</f>
         <v>0</v>
       </c>
       <c r="FV4" s="2">
-        <f>Data!FR2</f>
+        <f>Data!FR3</f>
         <v>0</v>
       </c>
       <c r="FW4" s="2">
-        <f>Data!FS2</f>
+        <f>Data!FS3</f>
         <v>0</v>
       </c>
       <c r="FX4" s="2">
-        <f>Data!FT2</f>
+        <f>Data!FT3</f>
         <v>0</v>
       </c>
       <c r="FY4" s="2">
-        <f>Data!FU2</f>
+        <f>Data!FU3</f>
         <v>0</v>
       </c>
       <c r="FZ4" s="2">
-        <f>Data!FV2</f>
+        <f>Data!FV3</f>
         <v>0</v>
       </c>
       <c r="GA4" s="2">
-        <f>Data!FW2</f>
+        <f>Data!FW3</f>
         <v>0</v>
       </c>
       <c r="GB4" s="2">
-        <f>Data!FX2</f>
+        <f>Data!FX3</f>
         <v>0</v>
       </c>
       <c r="GC4" s="2">
-        <f>Data!FY2</f>
+        <f>Data!FY3</f>
         <v>0</v>
       </c>
       <c r="GD4" s="2">
-        <f>Data!FZ2</f>
+        <f>Data!FZ3</f>
         <v>0</v>
       </c>
       <c r="GE4" s="2">
-        <f>Data!GA2</f>
+        <f>Data!GA3</f>
         <v>0</v>
       </c>
       <c r="GF4" s="2">
-        <f>Data!GB2</f>
+        <f>Data!GB3</f>
         <v>0</v>
       </c>
       <c r="GG4" s="2">
-        <f>Data!GC2</f>
+        <f>Data!GC3</f>
         <v>0</v>
       </c>
       <c r="GH4" s="2">
-        <f>Data!GD2</f>
+        <f>Data!GD3</f>
         <v>0</v>
       </c>
       <c r="GI4" s="2">
-        <f>Data!GE2</f>
+        <f>Data!GE3</f>
         <v>0</v>
       </c>
       <c r="GJ4" s="2">
-        <f>Data!GF2</f>
+        <f>Data!GF3</f>
         <v>0</v>
       </c>
       <c r="GK4" s="2">
-        <f>Data!GG2</f>
+        <f>Data!GG3</f>
         <v>0</v>
       </c>
       <c r="GL4" s="2">
-        <f>Data!GH2</f>
+        <f>Data!GH3</f>
         <v>0</v>
       </c>
       <c r="GM4" s="2">
-        <f>Data!GI2</f>
+        <f>Data!GI3</f>
         <v>0</v>
       </c>
       <c r="GN4" s="2">
-        <f>Data!GJ2</f>
+        <f>Data!GJ3</f>
         <v>0</v>
       </c>
       <c r="GO4" s="2">
-        <f>Data!GK2</f>
+        <f>Data!GK3</f>
         <v>0</v>
       </c>
       <c r="GP4" s="2">
-        <f>Data!GL2</f>
+        <f>Data!GL3</f>
         <v>0</v>
       </c>
       <c r="GQ4" s="2">
-        <f>Data!GM2</f>
+        <f>Data!GM3</f>
         <v>0</v>
       </c>
       <c r="GR4" s="2">
-        <f>Data!GN2</f>
+        <f>Data!GN3</f>
         <v>0</v>
       </c>
       <c r="GS4" s="2">
-        <f>Data!GO2</f>
+        <f>Data!GO3</f>
         <v>0</v>
       </c>
       <c r="GT4" s="2">
-        <f>Data!GP2</f>
+        <f>Data!GP3</f>
         <v>0</v>
       </c>
       <c r="GU4" s="2">
-        <f>Data!GQ2</f>
+        <f>Data!GQ3</f>
         <v>0</v>
       </c>
       <c r="GV4" s="2">
-        <f>Data!GR2</f>
+        <f>Data!GR3</f>
         <v>0</v>
       </c>
       <c r="GW4" s="2">
-        <f>Data!GS2</f>
+        <f>Data!GS3</f>
         <v>0</v>
       </c>
       <c r="GX4" s="2">
-        <f>Data!GT2</f>
+        <f>Data!GT3</f>
         <v>0</v>
       </c>
       <c r="GY4" s="2">
-        <f>Data!GU2</f>
+        <f>Data!GU3</f>
         <v>0</v>
       </c>
       <c r="GZ4" s="2">
-        <f>Data!GV2</f>
+        <f>Data!GV3</f>
         <v>0</v>
       </c>
       <c r="HA4" s="2">
-        <f>Data!GW2</f>
+        <f>Data!GW3</f>
         <v>0</v>
       </c>
       <c r="HB4" s="2">
-        <f>Data!GX2</f>
+        <f>Data!GX3</f>
         <v>0</v>
       </c>
       <c r="HC4" s="2">
-        <f>Data!GY2</f>
+        <f>Data!GY3</f>
         <v>0</v>
       </c>
       <c r="HD4" s="2">
-        <f>Data!GZ2</f>
+        <f>Data!GZ3</f>
         <v>0</v>
       </c>
       <c r="HE4" s="2">
-        <f>Data!HA2</f>
+        <f>Data!HA3</f>
         <v>0</v>
       </c>
       <c r="HF4" s="2">
-        <f>Data!HB2</f>
+        <f>Data!HB3</f>
         <v>0</v>
       </c>
       <c r="HG4" s="2">
-        <f>Data!HC2</f>
+        <f>Data!HC3</f>
         <v>0</v>
       </c>
       <c r="HH4" s="2">
-        <f>Data!HD2</f>
+        <f>Data!HD3</f>
         <v>0</v>
       </c>
       <c r="HI4" s="2">
-        <f>Data!HE2</f>
+        <f>Data!HE3</f>
         <v>0</v>
       </c>
       <c r="HJ4" s="2">
-        <f>Data!HF2</f>
+        <f>Data!HF3</f>
         <v>0</v>
       </c>
       <c r="HK4" s="2">
-        <f>Data!HG2</f>
+        <f>Data!HG3</f>
         <v>0</v>
       </c>
       <c r="HL4" s="2">
-        <f>Data!HH2</f>
+        <f>Data!HH3</f>
         <v>0</v>
       </c>
       <c r="HM4" s="2">
-        <f>Data!HI2</f>
+        <f>Data!HI3</f>
         <v>0</v>
       </c>
       <c r="HN4" s="2">
-        <f>Data!HJ2</f>
+        <f>Data!HJ3</f>
         <v>0</v>
       </c>
       <c r="HO4" s="2">
-        <f>Data!HK2</f>
+        <f>Data!HK3</f>
         <v>0</v>
       </c>
       <c r="HP4" s="2">
-        <f>Data!HL2</f>
+        <f>Data!HL3</f>
         <v>0</v>
       </c>
       <c r="HQ4" s="2">
-        <f>Data!HM2</f>
+        <f>Data!HM3</f>
         <v>0</v>
       </c>
       <c r="HR4" s="2">
-        <f>Data!HN2</f>
+        <f>Data!HN3</f>
         <v>0</v>
       </c>
       <c r="HS4" s="2">
-        <f>Data!HO2</f>
+        <f>Data!HO3</f>
         <v>0</v>
       </c>
       <c r="HT4" s="2">
-        <f>Data!HP2</f>
+        <f>Data!HP3</f>
         <v>0</v>
       </c>
       <c r="HU4" s="2">
-        <f>Data!HQ2</f>
+        <f>Data!HQ3</f>
         <v>0</v>
       </c>
       <c r="HV4" s="2">
-        <f>Data!HR2</f>
+        <f>Data!HR3</f>
         <v>0</v>
       </c>
       <c r="HW4" s="2">
-        <f>Data!HS2</f>
+        <f>Data!HS3</f>
         <v>0</v>
       </c>
       <c r="HX4" s="2">
-        <f>Data!HT2</f>
+        <f>Data!HT3</f>
         <v>0</v>
       </c>
       <c r="HY4" s="2">
-        <f>Data!HU2</f>
+        <f>Data!HU3</f>
         <v>0</v>
       </c>
       <c r="HZ4" s="2">
-        <f>Data!HV2</f>
+        <f>Data!HV3</f>
         <v>0</v>
       </c>
       <c r="IA4" s="2">
-        <f>Data!HW2</f>
+        <f>Data!HW3</f>
         <v>0</v>
       </c>
       <c r="IB4" s="2">
-        <f>Data!HX2</f>
+        <f>Data!HX3</f>
         <v>0</v>
       </c>
       <c r="IC4" s="2">
-        <f>Data!HY2</f>
+        <f>Data!HY3</f>
         <v>0</v>
       </c>
       <c r="ID4" s="2">
-        <f>Data!HZ2</f>
+        <f>Data!HZ3</f>
         <v>0</v>
       </c>
       <c r="IE4" s="2">
-        <f>Data!IA2</f>
+        <f>Data!IA3</f>
         <v>0</v>
       </c>
       <c r="IF4" s="2">
-        <f>Data!IB2</f>
+        <f>Data!IB3</f>
         <v>0</v>
       </c>
       <c r="IG4" s="2">
-        <f>Data!IC2</f>
+        <f>Data!IC3</f>
         <v>0</v>
       </c>
       <c r="IH4" s="2">
-        <f>Data!ID2</f>
+        <f>Data!ID3</f>
         <v>0</v>
       </c>
       <c r="II4" s="2">
-        <f>Data!IE2</f>
+        <f>Data!IE3</f>
         <v>0</v>
       </c>
       <c r="IJ4" s="2">
-        <f>Data!IF2</f>
+        <f>Data!IF3</f>
         <v>0</v>
       </c>
       <c r="IK4" s="2">
-        <f>Data!IG2</f>
+        <f>Data!IG3</f>
         <v>0</v>
       </c>
       <c r="IL4" s="2">
-        <f>Data!IH2</f>
+        <f>Data!IH3</f>
         <v>0</v>
       </c>
       <c r="IM4" s="2">
-        <f>Data!II2</f>
+        <f>Data!II3</f>
         <v>0</v>
       </c>
       <c r="IN4" s="2">
-        <f>Data!IJ2</f>
+        <f>Data!IJ3</f>
         <v>0</v>
       </c>
       <c r="IO4" s="2">
-        <f>Data!IK2</f>
+        <f>Data!IK3</f>
         <v>0</v>
       </c>
       <c r="IP4" s="2">
-        <f>Data!IL2</f>
+        <f>Data!IL3</f>
         <v>0</v>
       </c>
       <c r="IQ4" s="2">
-        <f>Data!IM2</f>
+        <f>Data!IM3</f>
         <v>0</v>
       </c>
       <c r="IR4" s="2">
-        <f>Data!IN2</f>
+        <f>Data!IN3</f>
         <v>0</v>
       </c>
       <c r="IS4" s="2">
-        <f>Data!IO2</f>
+        <f>Data!IO3</f>
         <v>0</v>
       </c>
       <c r="IT4" s="2">
-        <f>Data!IP2</f>
+        <f>Data!IP3</f>
         <v>0</v>
       </c>
       <c r="IU4" s="2">
-        <f>Data!IQ2</f>
+        <f>Data!IQ3</f>
         <v>0</v>
       </c>
       <c r="IV4" s="2">
-        <f>Data!IR2</f>
+        <f>Data!IR3</f>
         <v>0</v>
       </c>
       <c r="IW4" s="2">
-        <f>Data!IS2</f>
+        <f>Data!IS3</f>
         <v>0</v>
       </c>
       <c r="IX4" s="2">
-        <f>Data!IT2</f>
+        <f>Data!IT3</f>
         <v>0</v>
       </c>
       <c r="IY4" s="2">
-        <f>Data!IU2</f>
+        <f>Data!IU3</f>
         <v>0</v>
       </c>
       <c r="IZ4" s="2">
-        <f>Data!IV2</f>
+        <f>Data!IV3</f>
         <v>0</v>
       </c>
       <c r="JA4" s="2">
-        <f>Data!IW2</f>
+        <f>Data!IW3</f>
         <v>0</v>
       </c>
       <c r="JB4" s="2">
-        <f>Data!IX2</f>
+        <f>Data!IX3</f>
         <v>0</v>
       </c>
       <c r="JC4" s="2">
-        <f>Data!IY2</f>
+        <f>Data!IY3</f>
         <v>0</v>
       </c>
       <c r="JD4" s="2">
-        <f>Data!IZ2</f>
+        <f>Data!IZ3</f>
         <v>0</v>
       </c>
       <c r="JE4" s="2">
-        <f>Data!JA2</f>
+        <f>Data!JA3</f>
         <v>0</v>
       </c>
       <c r="JF4" s="2">
-        <f>Data!JB2</f>
+        <f>Data!JB3</f>
         <v>0</v>
       </c>
       <c r="JG4" s="2">
-        <f>Data!JC2</f>
+        <f>Data!JC3</f>
         <v>0</v>
       </c>
       <c r="JH4" s="2">
-        <f>Data!JD2</f>
+        <f>Data!JD3</f>
         <v>0</v>
       </c>
       <c r="JI4" s="2">
-        <f>Data!JE2</f>
+        <f>Data!JE3</f>
         <v>0</v>
       </c>
       <c r="JJ4" s="2">
-        <f>Data!JF2</f>
+        <f>Data!JF3</f>
         <v>0</v>
       </c>
       <c r="JK4" s="2">
-        <f>Data!JG2</f>
+        <f>Data!JG3</f>
         <v>0</v>
       </c>
       <c r="JL4" s="2">
-        <f>Data!JH2</f>
+        <f>Data!JH3</f>
         <v>0</v>
       </c>
       <c r="JM4" s="2">
-        <f>Data!JI2</f>
+        <f>Data!JI3</f>
         <v>0</v>
       </c>
       <c r="JN4" s="2">
-        <f>Data!JJ2</f>
+        <f>Data!JJ3</f>
         <v>0</v>
       </c>
       <c r="JO4" s="2">
-        <f>Data!JK2</f>
+        <f>Data!JK3</f>
         <v>0</v>
       </c>
       <c r="JP4" s="2">
-        <f>Data!JL2</f>
+        <f>Data!JL3</f>
         <v>0</v>
       </c>
       <c r="JQ4" s="2">
-        <f>Data!JM2</f>
+        <f>Data!JM3</f>
         <v>0</v>
       </c>
       <c r="JR4" s="2">
-        <f>Data!JN2</f>
+        <f>Data!JN3</f>
         <v>0</v>
       </c>
       <c r="JS4" s="2">
-        <f>Data!JO2</f>
+        <f>Data!JO3</f>
         <v>0</v>
       </c>
       <c r="JT4" s="2">
-        <f>Data!JP2</f>
+        <f>Data!JP3</f>
         <v>0</v>
       </c>
       <c r="JU4" s="2">
-        <f>Data!JQ2</f>
+        <f>Data!JQ3</f>
         <v>0</v>
       </c>
       <c r="JV4" s="2">
-        <f>Data!JR2</f>
+        <f>Data!JR3</f>
         <v>0</v>
       </c>
       <c r="JW4" s="2">
-        <f>Data!JS2</f>
+        <f>Data!JS3</f>
         <v>0</v>
       </c>
       <c r="JX4" s="2">
-        <f>Data!JT2</f>
+        <f>Data!JT3</f>
         <v>0</v>
       </c>
       <c r="JY4" s="2">
-        <f>Data!JU2</f>
+        <f>Data!JU3</f>
         <v>0</v>
       </c>
       <c r="JZ4" s="2">
-        <f>Data!JV2</f>
+        <f>Data!JV3</f>
         <v>0</v>
       </c>
       <c r="KA4" s="2">
-        <f>Data!JW2</f>
+        <f>Data!JW3</f>
         <v>0</v>
       </c>
       <c r="KB4" s="2">
-        <f>Data!JX2</f>
+        <f>Data!JX3</f>
         <v>0</v>
       </c>
       <c r="KC4" s="2">
-        <f>Data!JY2</f>
+        <f>Data!JY3</f>
         <v>0</v>
       </c>
       <c r="KD4" s="2">
-        <f>Data!JZ2</f>
+        <f>Data!JZ3</f>
         <v>0</v>
       </c>
       <c r="KE4" s="2">
-        <f>Data!KA2</f>
+        <f>Data!KA3</f>
         <v>0</v>
       </c>
       <c r="KF4" s="2">
-        <f>Data!KB2</f>
+        <f>Data!KB3</f>
         <v>0</v>
       </c>
       <c r="KG4" s="2">
-        <f>Data!KC2</f>
+        <f>Data!KC3</f>
         <v>0</v>
       </c>
       <c r="KH4" s="2">
-        <f>Data!KD2</f>
+        <f>Data!KD3</f>
         <v>0</v>
       </c>
       <c r="KI4" s="2">
-        <f>Data!KE2</f>
+        <f>Data!KE3</f>
         <v>0</v>
       </c>
       <c r="KJ4" s="2">
-        <f>Data!KF2</f>
+        <f>Data!KF3</f>
         <v>0</v>
       </c>
       <c r="KK4" s="2">
-        <f>Data!KG2</f>
+        <f>Data!KG3</f>
         <v>0</v>
       </c>
       <c r="KL4" s="2">
-        <f>Data!KH2</f>
+        <f>Data!KH3</f>
         <v>0</v>
       </c>
       <c r="KM4" s="2">
-        <f>Data!KI2</f>
+        <f>Data!KI3</f>
         <v>0</v>
       </c>
       <c r="KN4" s="2">
-        <f>Data!KJ2</f>
+        <f>Data!KJ3</f>
         <v>0</v>
       </c>
       <c r="KO4" s="2">
-        <f>Data!KK2</f>
+        <f>Data!KK3</f>
         <v>0</v>
       </c>
       <c r="KP4" s="2">
-        <f>Data!KL2</f>
+        <f>Data!KL3</f>
         <v>0</v>
       </c>
       <c r="KQ4" s="2">
-        <f>Data!KM2</f>
+        <f>Data!KM3</f>
         <v>0</v>
       </c>
       <c r="KR4" s="2">
-        <f>Data!KN2</f>
+        <f>Data!KN3</f>
         <v>0</v>
       </c>
       <c r="KS4" s="2">
-        <f>Data!KO2</f>
+        <f>Data!KO3</f>
         <v>0</v>
       </c>
       <c r="KT4" s="2">
-        <f>Data!KP2</f>
+        <f>Data!KP3</f>
         <v>0</v>
       </c>
       <c r="KU4" s="2">
-        <f>Data!KQ2</f>
+        <f>Data!KQ3</f>
         <v>0</v>
       </c>
       <c r="KV4" s="2">
-        <f>Data!KR2</f>
+        <f>Data!KR3</f>
         <v>0</v>
       </c>
       <c r="KW4" s="2">
-        <f>Data!KS2</f>
+        <f>Data!KS3</f>
         <v>0</v>
       </c>
       <c r="KX4" s="2">
-        <f>Data!KT2</f>
+        <f>Data!KT3</f>
         <v>0</v>
       </c>
       <c r="KY4" s="2">
-        <f>Data!KU2</f>
+        <f>Data!KU3</f>
         <v>0</v>
       </c>
       <c r="KZ4" s="2">
-        <f>Data!KV2</f>
+        <f>Data!KV3</f>
         <v>0</v>
       </c>
       <c r="LA4" s="2">
-        <f>Data!KW2</f>
+        <f>Data!KW3</f>
         <v>0</v>
       </c>
       <c r="LB4" s="2">
-        <f>Data!KX2</f>
+        <f>Data!KX3</f>
         <v>0</v>
       </c>
       <c r="LC4" s="2">
-        <f>Data!KY2</f>
+        <f>Data!KY3</f>
         <v>0</v>
       </c>
       <c r="LD4" s="2">
-        <f>Data!KZ2</f>
+        <f>Data!KZ3</f>
         <v>0</v>
       </c>
       <c r="LE4" s="2">
-        <f>Data!LA2</f>
+        <f>Data!LA3</f>
         <v>0</v>
       </c>
       <c r="LF4" s="2">
-        <f>Data!LB2</f>
+        <f>Data!LB3</f>
         <v>0</v>
       </c>
       <c r="LG4" s="2">
-        <f>Data!LC2</f>
+        <f>Data!LC3</f>
         <v>0</v>
       </c>
       <c r="LH4" s="2">
-        <f>Data!LD2</f>
+        <f>Data!LD3</f>
         <v>0</v>
       </c>
       <c r="LI4" s="2">
-        <f>Data!LE2</f>
+        <f>Data!LE3</f>
         <v>0</v>
       </c>
       <c r="LJ4" s="2">
-        <f>Data!LF2</f>
+        <f>Data!LF3</f>
         <v>0</v>
       </c>
       <c r="LK4" s="2">
-        <f>Data!LG2</f>
+        <f>Data!LG3</f>
         <v>0</v>
       </c>
       <c r="LL4" s="2">
-        <f>Data!LH2</f>
+        <f>Data!LH3</f>
         <v>0</v>
       </c>
       <c r="LM4" s="2">
-        <f>Data!LI2</f>
+        <f>Data!LI3</f>
         <v>0</v>
       </c>
       <c r="LN4" s="2">
-        <f>Data!LJ2</f>
+        <f>Data!LJ3</f>
         <v>0</v>
       </c>
       <c r="LO4" s="2">
-        <f>Data!LK2</f>
+        <f>Data!LK3</f>
         <v>0</v>
       </c>
       <c r="LP4" s="2">
-        <f>Data!LL2</f>
+        <f>Data!LL3</f>
         <v>0</v>
       </c>
       <c r="LQ4" s="2">
-        <f>Data!LM2</f>
+        <f>Data!LM3</f>
         <v>0</v>
       </c>
       <c r="LR4" s="2">
-        <f>Data!LN2</f>
+        <f>Data!LN3</f>
         <v>0</v>
       </c>
       <c r="LS4" s="2">
-        <f>Data!LO2</f>
+        <f>Data!LO3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:331" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:331" ht="15.75" thickBot="1">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:331" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="str">
         <f ca="1">OFFSET(A3,A5,0,1,1)</f>
         <v>pH</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:G6" ca="1" si="4">VLOOKUP(A6,A3:G4,2,0)</f>
-        <v>2.3094876776751443</v>
+        <v>1.7321662737739698</v>
       </c>
       <c r="C6" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10.5951296996921</v>
+        <v>9.1964988213219101</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2856420220169547</v>
+        <v>7.4643325475479401</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.95230868868362206</v>
+        <v>0.53566745245206038</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.2617963663587664</v>
+        <v>-1.1964988213219092</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ref="H6:AL6" ca="1" si="5">VLOOKUP(G6,G4:BQ4,2,0)</f>
@@ -11053,53 +13511,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="44"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -11115,7 +13573,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
@@ -11131,101 +13589,101 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:12">
+      <c r="A40" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/z/data/model/QC_Chart _pH_66_01_2018_006.xlsx
+++ b/z/data/model/QC_Chart _pH_66_01_2018_006.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2FF1F9-67EB-43DC-8D87-BBB1851D6E78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF0FE7-AF2D-4A23-8DFD-B7522C982D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -234,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -354,28 +356,13 @@
     <t>补充说明</t>
   </si>
   <si>
-    <t>1.B列与结果中的单号名称要一致,包括大小写</t>
-  </si>
-  <si>
     <t>如：Paint,0.1,25和M BS</t>
-  </si>
-  <si>
-    <t>2.C列为该单号的元素测试</t>
   </si>
   <si>
     <t>如：M BS中的Pb元素的数值</t>
   </si>
   <si>
-    <t>3.B列中Date填的是日期</t>
-  </si>
-  <si>
     <t>注意：由于CC每天可以测试多个，而质控每天只要一个，镍释放并不是每天都有，所以这些日期是不一样的</t>
-  </si>
-  <si>
-    <t>4.C列与B列Date通行的与B列其中一个单号一致</t>
-  </si>
-  <si>
-    <t>由于上述原因，当C列Date行为M BS时，填写的是M BS的日期；如果C列Date行为CC,那填写的是CC的日期</t>
   </si>
   <si>
     <t>5.所有有质量或者稀释的测试都用逗号隔开</t>
@@ -408,7 +395,26 @@
     <t>4.某天一次</t>
   </si>
   <si>
-    <t>如:ECO中Pb，由于与镍释放不一定一样，B列需要添加两行Date和ECO，C列添加ECO和Pb，同样引用</t>
+    <t>1.Materail列与结果中的单号名称要一致,包括大小写</t>
+  </si>
+  <si>
+    <t>2.Element列为该单号的元素测试</t>
+  </si>
+  <si>
+    <t>3.Materail列中Date填的是日期</t>
+  </si>
+  <si>
+    <t>4.Element列与Materail列Date通行的与Materail列其中一个单号一致</t>
+  </si>
+  <si>
+    <t>由于上述原因，当Element列Date行为M BS时，填写的是M BS的日期；如果Element列Date行为CC,那填写的是CC的日期</t>
+  </si>
+  <si>
+    <t>如:ECO中Pb，由于与镍释放不一定一样，Materail列需要添加两行Date和ECO，Element列添加ECO和Pb，同样引用</t>
+  </si>
+  <si>
+    <t>6.第一行名称不能变，也不能重复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,15 +422,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -457,7 +463,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -532,7 +538,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -892,7 +898,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,13 +916,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,14 +966,14 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +982,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1013,14 +1028,23 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3806,22 +3830,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BDQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J27" sqref="J27"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" customWidth="1"/>
     <col min="125" max="125" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1473" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1473" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
@@ -5306,7 +5330,7 @@
       <c r="BDP1" s="26"/>
       <c r="BDQ1" s="26"/>
     </row>
-    <row r="2" spans="1:1473" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1473" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -6791,7 +6815,7 @@
       <c r="BDP2" s="26"/>
       <c r="BDQ2" s="26"/>
     </row>
-    <row r="3" spans="1:1473" s="20" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:1473" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -8276,7 +8300,7 @@
       <c r="BDP3" s="23"/>
       <c r="BDQ3" s="24"/>
     </row>
-    <row r="4" spans="1:1473" ht="15.75">
+    <row r="4" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
       <c r="Y4" s="7"/>
       <c r="IL4" s="6"/>
       <c r="IM4" s="6"/>
@@ -8354,7 +8378,7 @@
       <c r="LG4" s="6"/>
       <c r="LH4" s="6"/>
     </row>
-    <row r="5" spans="1:1473" ht="15.75">
+    <row r="5" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
       <c r="Y5" s="7"/>
       <c r="IL5" s="6"/>
       <c r="IM5" s="6"/>
@@ -8432,7 +8456,7 @@
       <c r="LG5" s="6"/>
       <c r="LH5" s="6"/>
     </row>
-    <row r="6" spans="1:1473" ht="15.75">
+    <row r="6" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
       <c r="Y6" s="7"/>
       <c r="IL6" s="6"/>
       <c r="IM6" s="6"/>
@@ -8510,26 +8534,27 @@
       <c r="LG6" s="6"/>
       <c r="LH6" s="6"/>
     </row>
-    <row r="7" spans="1:1473" ht="15.75">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
       <c r="Y7" s="7"/>
       <c r="IL7" s="6"/>
       <c r="IM7" s="6"/>
@@ -8607,26 +8632,27 @@
       <c r="LG7" s="6"/>
       <c r="LH7" s="6"/>
     </row>
-    <row r="8" spans="1:1473" ht="15.75">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
       <c r="Y8" s="7"/>
       <c r="IL8" s="6"/>
       <c r="IM8" s="6"/>
@@ -8704,26 +8730,27 @@
       <c r="LG8" s="6"/>
       <c r="LH8" s="6"/>
     </row>
-    <row r="9" spans="1:1473" ht="15.75">
-      <c r="A9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+    <row r="9" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
       <c r="Y9" s="7"/>
       <c r="IL9" s="6"/>
       <c r="IM9" s="6"/>
@@ -8801,26 +8828,27 @@
       <c r="LG9" s="6"/>
       <c r="LH9" s="6"/>
     </row>
-    <row r="10" spans="1:1473" ht="15.75">
-      <c r="A10" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+    <row r="10" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
       <c r="Y10" s="7"/>
       <c r="IL10" s="6"/>
       <c r="IM10" s="6"/>
@@ -8898,26 +8926,27 @@
       <c r="LG10" s="6"/>
       <c r="LH10" s="6"/>
     </row>
-    <row r="11" spans="1:1473" ht="15.75">
-      <c r="A11" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+    <row r="11" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
       <c r="Y11" s="7"/>
       <c r="IL11" s="6"/>
       <c r="IM11" s="6"/>
@@ -8995,26 +9024,27 @@
       <c r="LG11" s="6"/>
       <c r="LH11" s="6"/>
     </row>
-    <row r="12" spans="1:1473" ht="15.75">
-      <c r="A12" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+    <row r="12" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
       <c r="Y12" s="7"/>
       <c r="IL12" s="6"/>
       <c r="IM12" s="6"/>
@@ -9092,24 +9122,25 @@
       <c r="LG12" s="6"/>
       <c r="LH12" s="6"/>
     </row>
-    <row r="13" spans="1:1473" ht="15.75">
-      <c r="A13" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
+    <row r="13" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
       <c r="IL13" s="7"/>
       <c r="IM13" s="7"/>
       <c r="IN13" s="7"/>
@@ -9307,93 +9338,117 @@
       <c r="PX13" s="7"/>
       <c r="PY13" s="7"/>
     </row>
-    <row r="14" spans="1:1473">
-      <c r="A14" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
+    <row r="14" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
-    <row r="15" spans="1:1473">
-      <c r="A15" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
+    <row r="15" spans="1:1473" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
     </row>
-    <row r="16" spans="1:1473" ht="16.5" thickBot="1">
-      <c r="A16" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+    <row r="16" spans="1:1473" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
       <c r="BCH16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="20" spans="1:16" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:16" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
@@ -9401,7 +9456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1">
+    <row r="22" spans="1:16" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
@@ -9409,7 +9464,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:16" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
@@ -9418,28 +9473,30 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
+  <mergeCells count="23">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:P9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:C1 F1:XFD1 A2:XFD3">
@@ -9510,35 +9567,35 @@
       <selection pane="topRight" activeCell="LS4" sqref="LS4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" customWidth="1"/>
-    <col min="51" max="54" width="9.140625" customWidth="1"/>
-    <col min="67" max="67" width="9.140625" customWidth="1"/>
-    <col min="72" max="73" width="9.140625" customWidth="1"/>
-    <col min="80" max="80" width="9.140625" customWidth="1"/>
-    <col min="90" max="95" width="9.140625" customWidth="1"/>
-    <col min="109" max="109" width="9.140625" customWidth="1"/>
-    <col min="124" max="124" width="9.140625" customWidth="1"/>
-    <col min="166" max="166" width="9.140625" customWidth="1"/>
-    <col min="169" max="169" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="49" max="49" width="9.265625" customWidth="1"/>
+    <col min="51" max="54" width="9.1328125" customWidth="1"/>
+    <col min="67" max="67" width="9.1328125" customWidth="1"/>
+    <col min="72" max="73" width="9.1328125" customWidth="1"/>
+    <col min="80" max="80" width="9.1328125" customWidth="1"/>
+    <col min="90" max="95" width="9.1328125" customWidth="1"/>
+    <col min="109" max="109" width="9.1328125" customWidth="1"/>
+    <col min="124" max="124" width="9.1328125" customWidth="1"/>
+    <col min="166" max="166" width="9.1328125" customWidth="1"/>
+    <col min="169" max="169" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:331" s="40" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:331" s="43" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:331" s="12" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:331" s="12" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:331" s="31" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:331" s="31" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
@@ -10855,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:331" ht="15.75">
+    <row r="4" spans="1:331" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -12180,12 +12237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:331" ht="15.75" thickBot="1">
+    <row r="5" spans="1:331" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:331" ht="16.5" thickBot="1">
+    <row r="6" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f ca="1">OFFSET(A3,A5,0,1,1)</f>
         <v>pH</v>
@@ -13511,53 +13568,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="43" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="45"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -13573,7 +13630,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
@@ -13589,101 +13646,101 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="54"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="42" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="42" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="9">
